--- a/data_quarter/zb/价格指数/农产品生产者价格指数（上年同期=100）.xlsx
+++ b/data_quarter/zb/价格指数/农产品生产者价格指数（上年同期=100）.xlsx
@@ -608,7 +608,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2003年第一季度</t>
+          <t>2003年A</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -705,201 +705,201 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2003年第三季度</t>
+          <t>2003年B</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>102.9058</v>
+        <v>106.7327</v>
       </c>
       <c r="C3" t="n">
-        <v>102.0535</v>
+        <v>102.6538</v>
       </c>
       <c r="D3" t="n">
-        <v>116.77</v>
+        <v>121.54</v>
       </c>
       <c r="E3" t="n">
-        <v>104.6919</v>
+        <v>99.9678</v>
       </c>
       <c r="F3" t="n">
-        <v>100.69</v>
+        <v>103.2</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>112.7925</v>
+        <v>101.2353</v>
       </c>
       <c r="I3" t="n">
-        <v>127.9109</v>
+        <v>131.6683</v>
       </c>
       <c r="J3" t="n">
-        <v>98.1339</v>
+        <v>92.9216</v>
       </c>
       <c r="K3" t="n">
-        <v>104.9112</v>
+        <v>98.6906</v>
       </c>
       <c r="L3" t="n">
-        <v>120.5537</v>
+        <v>125.8324</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="n">
-        <v>97.7671</v>
+        <v>98.99469999999999</v>
       </c>
       <c r="R3" t="n">
-        <v>92.25660000000001</v>
+        <v>105.9859</v>
       </c>
       <c r="S3" t="n">
-        <v>98.91930000000001</v>
+        <v>103.4888</v>
       </c>
       <c r="T3" t="n">
-        <v>102.0943</v>
+        <v>99.8813</v>
       </c>
       <c r="U3" t="n">
-        <v>103.27</v>
+        <v>103.44</v>
       </c>
       <c r="V3" t="n">
-        <v>101.4922</v>
+        <v>99.0806</v>
       </c>
       <c r="W3" t="n">
-        <v>102.2691</v>
+        <v>98.7392</v>
       </c>
       <c r="X3" t="n">
-        <v>97.81</v>
+        <v>97.29000000000001</v>
       </c>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="n">
-        <v>101.5</v>
+        <v>103.9</v>
       </c>
       <c r="AA3" t="n">
-        <v>87.563</v>
+        <v>87.13549999999999</v>
       </c>
       <c r="AB3" t="n">
-        <v>94.0056</v>
+        <v>100.2899</v>
       </c>
       <c r="AC3" t="n">
-        <v>104.5857</v>
+        <v>94.1704</v>
       </c>
       <c r="AD3" t="n">
-        <v>124.4</v>
+        <v>117.3</v>
       </c>
       <c r="AE3" t="n">
-        <v>96.371</v>
+        <v>96.86539999999999</v>
       </c>
       <c r="AF3" t="n">
-        <v>99.21720000000001</v>
+        <v>108.4729</v>
       </c>
       <c r="AG3" t="n">
-        <v>84.92189999999999</v>
+        <v>94.8811</v>
       </c>
       <c r="AH3" t="n">
-        <v>100.145</v>
+        <v>101.5133</v>
       </c>
       <c r="AI3" t="n">
-        <v>114.8045</v>
+        <v>120.9245</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2003年第二季度</t>
+          <t>2003年C</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>106.7327</v>
+        <v>102.9058</v>
       </c>
       <c r="C4" t="n">
-        <v>102.6538</v>
+        <v>102.0535</v>
       </c>
       <c r="D4" t="n">
-        <v>121.54</v>
+        <v>116.77</v>
       </c>
       <c r="E4" t="n">
-        <v>99.9678</v>
+        <v>104.6919</v>
       </c>
       <c r="F4" t="n">
-        <v>103.2</v>
+        <v>100.69</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>101.2353</v>
+        <v>112.7925</v>
       </c>
       <c r="I4" t="n">
-        <v>131.6683</v>
+        <v>127.9109</v>
       </c>
       <c r="J4" t="n">
-        <v>92.9216</v>
+        <v>98.1339</v>
       </c>
       <c r="K4" t="n">
-        <v>98.6906</v>
+        <v>104.9112</v>
       </c>
       <c r="L4" t="n">
-        <v>125.8324</v>
+        <v>120.5537</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="n">
-        <v>98.99469999999999</v>
+        <v>97.7671</v>
       </c>
       <c r="R4" t="n">
-        <v>105.9859</v>
+        <v>92.25660000000001</v>
       </c>
       <c r="S4" t="n">
-        <v>103.4888</v>
+        <v>98.91930000000001</v>
       </c>
       <c r="T4" t="n">
-        <v>99.8813</v>
+        <v>102.0943</v>
       </c>
       <c r="U4" t="n">
-        <v>103.44</v>
+        <v>103.27</v>
       </c>
       <c r="V4" t="n">
-        <v>99.0806</v>
+        <v>101.4922</v>
       </c>
       <c r="W4" t="n">
-        <v>98.7392</v>
+        <v>102.2691</v>
       </c>
       <c r="X4" t="n">
-        <v>97.29000000000001</v>
+        <v>97.81</v>
       </c>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="n">
-        <v>103.9</v>
+        <v>101.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>87.13549999999999</v>
+        <v>87.563</v>
       </c>
       <c r="AB4" t="n">
-        <v>100.2899</v>
+        <v>94.0056</v>
       </c>
       <c r="AC4" t="n">
-        <v>94.1704</v>
+        <v>104.5857</v>
       </c>
       <c r="AD4" t="n">
-        <v>117.3</v>
+        <v>124.4</v>
       </c>
       <c r="AE4" t="n">
-        <v>96.86539999999999</v>
+        <v>96.371</v>
       </c>
       <c r="AF4" t="n">
-        <v>108.4729</v>
+        <v>99.21720000000001</v>
       </c>
       <c r="AG4" t="n">
-        <v>94.8811</v>
+        <v>84.92189999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>101.5133</v>
+        <v>100.145</v>
       </c>
       <c r="AI4" t="n">
-        <v>120.9245</v>
+        <v>114.8045</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年第四季度</t>
+          <t>2003年D</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -996,7 +996,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年第一季度</t>
+          <t>2004年A</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1097,205 +1097,205 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2004年第三季度</t>
+          <t>2004年B</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>122.26</v>
+        <v>117.37</v>
       </c>
       <c r="C7" t="n">
-        <v>114.71</v>
+        <v>110.89</v>
       </c>
       <c r="D7" t="n">
-        <v>122.66</v>
+        <v>127.48</v>
       </c>
       <c r="E7" t="n">
-        <v>103.87</v>
+        <v>102.13</v>
       </c>
       <c r="F7" t="n">
-        <v>137.74</v>
-      </c>
-      <c r="G7" t="n">
-        <v>102.9</v>
-      </c>
+        <v>138.13</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>103.84</v>
+        <v>108.91</v>
       </c>
       <c r="I7" t="n">
-        <v>95.55</v>
+        <v>122.61</v>
       </c>
       <c r="J7" t="n">
-        <v>103.99</v>
+        <v>112.29</v>
       </c>
       <c r="K7" t="n">
-        <v>97.18000000000001</v>
+        <v>101.09</v>
       </c>
       <c r="L7" t="n">
-        <v>115.2</v>
+        <v>121.61</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="n">
-        <v>112.08</v>
+        <v>111.91</v>
       </c>
       <c r="R7" t="n">
-        <v>112.91</v>
+        <v>107</v>
       </c>
       <c r="S7" t="n">
-        <v>106.1</v>
+        <v>103.77</v>
       </c>
       <c r="T7" t="n">
-        <v>104.28</v>
+        <v>100.76</v>
       </c>
       <c r="U7" t="n">
-        <v>124.49</v>
+        <v>118.97</v>
       </c>
       <c r="V7" t="n">
-        <v>107.05</v>
+        <v>103.87</v>
       </c>
       <c r="W7" t="n">
-        <v>118.07</v>
+        <v>111.77</v>
       </c>
       <c r="X7" t="n">
-        <v>143.12</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>106.06</v>
-      </c>
+        <v>141.42</v>
+      </c>
+      <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="n">
-        <v>135.09</v>
+        <v>128.55</v>
       </c>
       <c r="AA7" t="n">
-        <v>103.2</v>
+        <v>104.59</v>
       </c>
       <c r="AB7" t="n">
-        <v>105.74</v>
+        <v>104.3</v>
       </c>
       <c r="AC7" t="n">
-        <v>115.97</v>
+        <v>109.76</v>
       </c>
       <c r="AD7" t="n">
-        <v>104.02</v>
+        <v>108.91</v>
       </c>
       <c r="AE7" t="n">
-        <v>108.14</v>
+        <v>116.86</v>
       </c>
       <c r="AF7" t="n">
-        <v>116.33</v>
+        <v>102.56</v>
       </c>
       <c r="AG7" t="n">
-        <v>111.1</v>
+        <v>101.94</v>
       </c>
       <c r="AH7" t="n">
-        <v>137.26</v>
+        <v>129.98</v>
       </c>
       <c r="AI7" t="n">
-        <v>121.86</v>
+        <v>127.09</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2004年第二季度</t>
+          <t>2004年C</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>117.37</v>
+        <v>122.26</v>
       </c>
       <c r="C8" t="n">
-        <v>110.89</v>
+        <v>114.71</v>
       </c>
       <c r="D8" t="n">
-        <v>127.48</v>
+        <v>122.66</v>
       </c>
       <c r="E8" t="n">
-        <v>102.13</v>
+        <v>103.87</v>
       </c>
       <c r="F8" t="n">
-        <v>138.13</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
+        <v>137.74</v>
+      </c>
+      <c r="G8" t="n">
+        <v>102.9</v>
+      </c>
       <c r="H8" t="n">
-        <v>108.91</v>
+        <v>103.84</v>
       </c>
       <c r="I8" t="n">
-        <v>122.61</v>
+        <v>95.55</v>
       </c>
       <c r="J8" t="n">
-        <v>112.29</v>
+        <v>103.99</v>
       </c>
       <c r="K8" t="n">
-        <v>101.09</v>
+        <v>97.18000000000001</v>
       </c>
       <c r="L8" t="n">
-        <v>121.61</v>
+        <v>115.2</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="n">
-        <v>111.91</v>
+        <v>112.08</v>
       </c>
       <c r="R8" t="n">
-        <v>107</v>
+        <v>112.91</v>
       </c>
       <c r="S8" t="n">
-        <v>103.77</v>
+        <v>106.1</v>
       </c>
       <c r="T8" t="n">
-        <v>100.76</v>
+        <v>104.28</v>
       </c>
       <c r="U8" t="n">
-        <v>118.97</v>
+        <v>124.49</v>
       </c>
       <c r="V8" t="n">
-        <v>103.87</v>
+        <v>107.05</v>
       </c>
       <c r="W8" t="n">
-        <v>111.77</v>
+        <v>118.07</v>
       </c>
       <c r="X8" t="n">
-        <v>141.42</v>
-      </c>
-      <c r="Y8" t="inlineStr"/>
+        <v>143.12</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>106.06</v>
+      </c>
       <c r="Z8" t="n">
-        <v>128.55</v>
+        <v>135.09</v>
       </c>
       <c r="AA8" t="n">
-        <v>104.59</v>
+        <v>103.2</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.3</v>
+        <v>105.74</v>
       </c>
       <c r="AC8" t="n">
-        <v>109.76</v>
+        <v>115.97</v>
       </c>
       <c r="AD8" t="n">
-        <v>108.91</v>
+        <v>104.02</v>
       </c>
       <c r="AE8" t="n">
-        <v>116.86</v>
+        <v>108.14</v>
       </c>
       <c r="AF8" t="n">
-        <v>102.56</v>
+        <v>116.33</v>
       </c>
       <c r="AG8" t="n">
-        <v>101.94</v>
+        <v>111.1</v>
       </c>
       <c r="AH8" t="n">
-        <v>129.98</v>
+        <v>137.26</v>
       </c>
       <c r="AI8" t="n">
-        <v>127.09</v>
+        <v>121.86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2004年第四季度</t>
+          <t>2004年D</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1396,7 +1396,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2005年第一季度</t>
+          <t>2005年A</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1497,209 +1497,209 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2005年第三季度</t>
+          <t>2005年B</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>100.6</v>
+        <v>100.59</v>
       </c>
       <c r="C11" t="n">
-        <v>99.72</v>
+        <v>101.75</v>
       </c>
       <c r="D11" t="n">
-        <v>90.89</v>
+        <v>94.02</v>
       </c>
       <c r="E11" t="n">
-        <v>99.06</v>
+        <v>99.31999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>95.81</v>
+        <v>99.06999999999999</v>
       </c>
       <c r="G11" t="n">
-        <v>105.06</v>
+        <v>104.54</v>
       </c>
       <c r="H11" t="n">
-        <v>104.42</v>
+        <v>102.45</v>
       </c>
       <c r="I11" t="n">
-        <v>106</v>
+        <v>87.05</v>
       </c>
       <c r="J11" t="n">
-        <v>106.72</v>
+        <v>106.47</v>
       </c>
       <c r="K11" t="n">
-        <v>108.87</v>
+        <v>107.27</v>
       </c>
       <c r="L11" t="n">
-        <v>89.02</v>
+        <v>88.7</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="n">
-        <v>103.76</v>
+        <v>103.95</v>
       </c>
       <c r="R11" t="n">
-        <v>100.8</v>
+        <v>106.58</v>
       </c>
       <c r="S11" t="n">
-        <v>101.6</v>
+        <v>101.37</v>
       </c>
       <c r="T11" t="n">
-        <v>90.88</v>
+        <v>100.6</v>
       </c>
       <c r="U11" t="n">
-        <v>95.67</v>
+        <v>97.64</v>
       </c>
       <c r="V11" t="n">
-        <v>96.78</v>
+        <v>102.52</v>
       </c>
       <c r="W11" t="n">
-        <v>105.77</v>
+        <v>107.48</v>
       </c>
       <c r="X11" t="n">
-        <v>98.34999999999999</v>
+        <v>101.41</v>
       </c>
       <c r="Y11" t="n">
-        <v>105.14</v>
+        <v>100.57</v>
       </c>
       <c r="Z11" t="n">
-        <v>96.78</v>
+        <v>99.45999999999999</v>
       </c>
       <c r="AA11" t="n">
-        <v>94.93000000000001</v>
+        <v>104.16</v>
       </c>
       <c r="AB11" t="n">
-        <v>100.08</v>
+        <v>102.21</v>
       </c>
       <c r="AC11" t="n">
-        <v>105.61</v>
+        <v>107.23</v>
       </c>
       <c r="AD11" t="n">
-        <v>104.11</v>
+        <v>101.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>108.87</v>
+        <v>107.79</v>
       </c>
       <c r="AF11" t="n">
-        <v>109.41</v>
+        <v>105.65</v>
       </c>
       <c r="AG11" t="n">
-        <v>102.92</v>
+        <v>106.47</v>
       </c>
       <c r="AH11" t="n">
-        <v>97.11</v>
+        <v>99.73999999999999</v>
       </c>
       <c r="AI11" t="n">
-        <v>92.73999999999999</v>
+        <v>95.41</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2005年第二季度</t>
+          <t>2005年C</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>100.59</v>
+        <v>100.6</v>
       </c>
       <c r="C12" t="n">
-        <v>101.75</v>
+        <v>99.72</v>
       </c>
       <c r="D12" t="n">
-        <v>94.02</v>
+        <v>90.89</v>
       </c>
       <c r="E12" t="n">
-        <v>99.31999999999999</v>
+        <v>99.06</v>
       </c>
       <c r="F12" t="n">
-        <v>99.06999999999999</v>
+        <v>95.81</v>
       </c>
       <c r="G12" t="n">
-        <v>104.54</v>
+        <v>105.06</v>
       </c>
       <c r="H12" t="n">
-        <v>102.45</v>
+        <v>104.42</v>
       </c>
       <c r="I12" t="n">
-        <v>87.05</v>
+        <v>106</v>
       </c>
       <c r="J12" t="n">
-        <v>106.47</v>
+        <v>106.72</v>
       </c>
       <c r="K12" t="n">
-        <v>107.27</v>
+        <v>108.87</v>
       </c>
       <c r="L12" t="n">
-        <v>88.7</v>
+        <v>89.02</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="n">
-        <v>103.95</v>
+        <v>103.76</v>
       </c>
       <c r="R12" t="n">
-        <v>106.58</v>
+        <v>100.8</v>
       </c>
       <c r="S12" t="n">
-        <v>101.37</v>
+        <v>101.6</v>
       </c>
       <c r="T12" t="n">
-        <v>100.6</v>
+        <v>90.88</v>
       </c>
       <c r="U12" t="n">
-        <v>97.64</v>
+        <v>95.67</v>
       </c>
       <c r="V12" t="n">
-        <v>102.52</v>
+        <v>96.78</v>
       </c>
       <c r="W12" t="n">
-        <v>107.48</v>
+        <v>105.77</v>
       </c>
       <c r="X12" t="n">
-        <v>101.41</v>
+        <v>98.34999999999999</v>
       </c>
       <c r="Y12" t="n">
-        <v>100.57</v>
+        <v>105.14</v>
       </c>
       <c r="Z12" t="n">
-        <v>99.45999999999999</v>
+        <v>96.78</v>
       </c>
       <c r="AA12" t="n">
-        <v>104.16</v>
+        <v>94.93000000000001</v>
       </c>
       <c r="AB12" t="n">
-        <v>102.21</v>
+        <v>100.08</v>
       </c>
       <c r="AC12" t="n">
-        <v>107.23</v>
+        <v>105.61</v>
       </c>
       <c r="AD12" t="n">
-        <v>101.5</v>
+        <v>104.11</v>
       </c>
       <c r="AE12" t="n">
-        <v>107.79</v>
+        <v>108.87</v>
       </c>
       <c r="AF12" t="n">
-        <v>105.65</v>
+        <v>109.41</v>
       </c>
       <c r="AG12" t="n">
-        <v>106.47</v>
+        <v>102.92</v>
       </c>
       <c r="AH12" t="n">
-        <v>99.73999999999999</v>
+        <v>97.11</v>
       </c>
       <c r="AI12" t="n">
-        <v>95.41</v>
+        <v>92.73999999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2005年第四季度</t>
+          <t>2005年D</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1800,7 +1800,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2006年第一季度</t>
+          <t>2006年A</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1901,209 +1901,209 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2006年第三季度</t>
+          <t>2006年B</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>103.41</v>
+        <v>105.09</v>
       </c>
       <c r="C15" t="n">
-        <v>100.84</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>99</v>
+        <v>94.29000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>101.16</v>
+        <v>103.99</v>
       </c>
       <c r="F15" t="n">
-        <v>100.96</v>
+        <v>96.15000000000001</v>
       </c>
       <c r="G15" t="n">
-        <v>107.22</v>
+        <v>104.5</v>
       </c>
       <c r="H15" t="n">
-        <v>117.49</v>
+        <v>112.14</v>
       </c>
       <c r="I15" t="n">
-        <v>105.47</v>
+        <v>113.35</v>
       </c>
       <c r="J15" t="n">
-        <v>104.26</v>
+        <v>108.15</v>
       </c>
       <c r="K15" t="n">
-        <v>103.53</v>
+        <v>118.64</v>
       </c>
       <c r="L15" t="n">
-        <v>105.71</v>
+        <v>99.28</v>
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="n">
-        <v>101.85</v>
+        <v>104.01</v>
       </c>
       <c r="R15" t="n">
-        <v>102.03</v>
+        <v>93.06</v>
       </c>
       <c r="S15" t="n">
-        <v>100.91</v>
+        <v>99.31999999999999</v>
       </c>
       <c r="T15" t="n">
-        <v>90.37</v>
+        <v>76.56999999999999</v>
       </c>
       <c r="U15" t="n">
-        <v>107.53</v>
+        <v>101.19</v>
       </c>
       <c r="V15" t="n">
-        <v>94.94</v>
+        <v>84.83</v>
       </c>
       <c r="W15" t="n">
-        <v>97.76000000000001</v>
+        <v>87.37</v>
       </c>
       <c r="X15" t="n">
-        <v>101.92</v>
+        <v>101.02</v>
       </c>
       <c r="Y15" t="n">
-        <v>120.41</v>
+        <v>109.97</v>
       </c>
       <c r="Z15" t="n">
-        <v>103.14</v>
+        <v>99.76000000000001</v>
       </c>
       <c r="AA15" t="n">
-        <v>108.73</v>
+        <v>130.25</v>
       </c>
       <c r="AB15" t="n">
-        <v>100.2</v>
+        <v>101.09</v>
       </c>
       <c r="AC15" t="n">
-        <v>100.74</v>
+        <v>88.36</v>
       </c>
       <c r="AD15" t="n">
-        <v>122.26</v>
+        <v>115.25</v>
       </c>
       <c r="AE15" t="n">
-        <v>105.7</v>
+        <v>107.28</v>
       </c>
       <c r="AF15" t="n">
-        <v>102.33</v>
+        <v>111.16</v>
       </c>
       <c r="AG15" t="n">
-        <v>104.61</v>
+        <v>113.44</v>
       </c>
       <c r="AH15" t="n">
-        <v>103.59</v>
+        <v>99.77</v>
       </c>
       <c r="AI15" t="n">
-        <v>99.95</v>
+        <v>95.03</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2006年第二季度</t>
+          <t>2006年C</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>105.09</v>
+        <v>103.41</v>
       </c>
       <c r="C16" t="n">
-        <v>97.90000000000001</v>
+        <v>100.84</v>
       </c>
       <c r="D16" t="n">
-        <v>94.29000000000001</v>
+        <v>99</v>
       </c>
       <c r="E16" t="n">
-        <v>103.99</v>
+        <v>101.16</v>
       </c>
       <c r="F16" t="n">
-        <v>96.15000000000001</v>
+        <v>100.96</v>
       </c>
       <c r="G16" t="n">
-        <v>104.5</v>
+        <v>107.22</v>
       </c>
       <c r="H16" t="n">
-        <v>112.14</v>
+        <v>117.49</v>
       </c>
       <c r="I16" t="n">
-        <v>113.35</v>
+        <v>105.47</v>
       </c>
       <c r="J16" t="n">
-        <v>108.15</v>
+        <v>104.26</v>
       </c>
       <c r="K16" t="n">
-        <v>118.64</v>
+        <v>103.53</v>
       </c>
       <c r="L16" t="n">
-        <v>99.28</v>
+        <v>105.71</v>
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="n">
-        <v>104.01</v>
+        <v>101.85</v>
       </c>
       <c r="R16" t="n">
-        <v>93.06</v>
+        <v>102.03</v>
       </c>
       <c r="S16" t="n">
-        <v>99.31999999999999</v>
+        <v>100.91</v>
       </c>
       <c r="T16" t="n">
-        <v>76.56999999999999</v>
+        <v>90.37</v>
       </c>
       <c r="U16" t="n">
-        <v>101.19</v>
+        <v>107.53</v>
       </c>
       <c r="V16" t="n">
-        <v>84.83</v>
+        <v>94.94</v>
       </c>
       <c r="W16" t="n">
-        <v>87.37</v>
+        <v>97.76000000000001</v>
       </c>
       <c r="X16" t="n">
-        <v>101.02</v>
+        <v>101.92</v>
       </c>
       <c r="Y16" t="n">
-        <v>109.97</v>
+        <v>120.41</v>
       </c>
       <c r="Z16" t="n">
-        <v>99.76000000000001</v>
+        <v>103.14</v>
       </c>
       <c r="AA16" t="n">
-        <v>130.25</v>
+        <v>108.73</v>
       </c>
       <c r="AB16" t="n">
-        <v>101.09</v>
+        <v>100.2</v>
       </c>
       <c r="AC16" t="n">
-        <v>88.36</v>
+        <v>100.74</v>
       </c>
       <c r="AD16" t="n">
-        <v>115.25</v>
+        <v>122.26</v>
       </c>
       <c r="AE16" t="n">
-        <v>107.28</v>
+        <v>105.7</v>
       </c>
       <c r="AF16" t="n">
-        <v>111.16</v>
+        <v>102.33</v>
       </c>
       <c r="AG16" t="n">
-        <v>113.44</v>
+        <v>104.61</v>
       </c>
       <c r="AH16" t="n">
-        <v>99.77</v>
+        <v>103.59</v>
       </c>
       <c r="AI16" t="n">
-        <v>95.03</v>
+        <v>99.95</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2006年第四季度</t>
+          <t>2006年D</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -2204,7 +2204,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2007年第一季度</t>
+          <t>2007年A</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -2305,209 +2305,209 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2007年第三季度</t>
+          <t>2007年B</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>108.58</v>
+        <v>105.98</v>
       </c>
       <c r="C19" t="n">
-        <v>120.72</v>
+        <v>110.18</v>
       </c>
       <c r="D19" t="n">
-        <v>110.54</v>
+        <v>108.35</v>
       </c>
       <c r="E19" t="n">
-        <v>104.74</v>
+        <v>101.64</v>
       </c>
       <c r="F19" t="n">
-        <v>105.12</v>
+        <v>104.79</v>
       </c>
       <c r="G19" t="n">
-        <v>107.19</v>
+        <v>109.53</v>
       </c>
       <c r="H19" t="n">
-        <v>101.54</v>
+        <v>103.37</v>
       </c>
       <c r="I19" t="n">
-        <v>104.9</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="J19" t="n">
-        <v>106.4</v>
+        <v>105.3</v>
       </c>
       <c r="K19" t="n">
-        <v>103.4</v>
+        <v>95.15000000000001</v>
       </c>
       <c r="L19" t="n">
-        <v>123.65</v>
+        <v>128.47</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="n">
-        <v>108.73</v>
+        <v>106.1</v>
       </c>
       <c r="R19" t="n">
-        <v>103.01</v>
+        <v>101.85</v>
       </c>
       <c r="S19" t="n">
-        <v>117.4</v>
+        <v>109.12</v>
       </c>
       <c r="T19" t="n">
-        <v>164.78</v>
+        <v>125.74</v>
       </c>
       <c r="U19" t="n">
-        <v>112.85</v>
+        <v>114.43</v>
       </c>
       <c r="V19" t="n">
-        <v>142.61</v>
+        <v>117.76</v>
       </c>
       <c r="W19" t="n">
-        <v>116.05</v>
+        <v>116.54</v>
       </c>
       <c r="X19" t="n">
-        <v>104.03</v>
+        <v>104.48</v>
       </c>
       <c r="Y19" t="n">
-        <v>108.66</v>
+        <v>112.8</v>
       </c>
       <c r="Z19" t="n">
-        <v>107.99</v>
+        <v>107.63</v>
       </c>
       <c r="AA19" t="n">
-        <v>94.27</v>
+        <v>98.84</v>
       </c>
       <c r="AB19" t="n">
-        <v>119.08</v>
+        <v>110.27</v>
       </c>
       <c r="AC19" t="n">
-        <v>118.16</v>
+        <v>114.89</v>
       </c>
       <c r="AD19" t="n">
-        <v>98.84</v>
+        <v>100.43</v>
       </c>
       <c r="AE19" t="n">
-        <v>121.03</v>
+        <v>135.21</v>
       </c>
       <c r="AF19" t="n">
-        <v>110.21</v>
+        <v>100.24</v>
       </c>
       <c r="AG19" t="n">
-        <v>109.5</v>
+        <v>99.37</v>
       </c>
       <c r="AH19" t="n">
-        <v>107.52</v>
+        <v>108</v>
       </c>
       <c r="AI19" t="n">
-        <v>110.24</v>
+        <v>108.26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2007年第二季度</t>
+          <t>2007年C</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>105.98</v>
+        <v>108.58</v>
       </c>
       <c r="C20" t="n">
-        <v>110.18</v>
+        <v>120.72</v>
       </c>
       <c r="D20" t="n">
-        <v>108.35</v>
+        <v>110.54</v>
       </c>
       <c r="E20" t="n">
-        <v>101.64</v>
+        <v>104.74</v>
       </c>
       <c r="F20" t="n">
-        <v>104.79</v>
+        <v>105.12</v>
       </c>
       <c r="G20" t="n">
-        <v>109.53</v>
+        <v>107.19</v>
       </c>
       <c r="H20" t="n">
-        <v>103.37</v>
+        <v>101.54</v>
       </c>
       <c r="I20" t="n">
-        <v>99.09999999999999</v>
+        <v>104.9</v>
       </c>
       <c r="J20" t="n">
-        <v>105.3</v>
+        <v>106.4</v>
       </c>
       <c r="K20" t="n">
-        <v>95.15000000000001</v>
+        <v>103.4</v>
       </c>
       <c r="L20" t="n">
-        <v>128.47</v>
+        <v>123.65</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="n">
-        <v>106.1</v>
+        <v>108.73</v>
       </c>
       <c r="R20" t="n">
-        <v>101.85</v>
+        <v>103.01</v>
       </c>
       <c r="S20" t="n">
-        <v>109.12</v>
+        <v>117.4</v>
       </c>
       <c r="T20" t="n">
-        <v>125.74</v>
+        <v>164.78</v>
       </c>
       <c r="U20" t="n">
-        <v>114.43</v>
+        <v>112.85</v>
       </c>
       <c r="V20" t="n">
-        <v>117.76</v>
+        <v>142.61</v>
       </c>
       <c r="W20" t="n">
-        <v>116.54</v>
+        <v>116.05</v>
       </c>
       <c r="X20" t="n">
-        <v>104.48</v>
+        <v>104.03</v>
       </c>
       <c r="Y20" t="n">
-        <v>112.8</v>
+        <v>108.66</v>
       </c>
       <c r="Z20" t="n">
-        <v>107.63</v>
+        <v>107.99</v>
       </c>
       <c r="AA20" t="n">
+        <v>94.27</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>119.08</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>118.16</v>
+      </c>
+      <c r="AD20" t="n">
         <v>98.84</v>
       </c>
-      <c r="AB20" t="n">
-        <v>110.27</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>114.89</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>100.43</v>
-      </c>
       <c r="AE20" t="n">
-        <v>135.21</v>
+        <v>121.03</v>
       </c>
       <c r="AF20" t="n">
-        <v>100.24</v>
+        <v>110.21</v>
       </c>
       <c r="AG20" t="n">
-        <v>99.37</v>
+        <v>109.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>108</v>
+        <v>107.52</v>
       </c>
       <c r="AI20" t="n">
-        <v>108.26</v>
+        <v>110.24</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2007年第四季度</t>
+          <t>2007年D</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -2608,7 +2608,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2008年第一季度</t>
+          <t>2008年A</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -2709,209 +2709,209 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2008年第三季度</t>
+          <t>2008年B</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>109.99</v>
+        <v>113.27</v>
       </c>
       <c r="C23" t="n">
-        <v>112.56</v>
+        <v>121.15</v>
       </c>
       <c r="D23" t="n">
-        <v>136.53</v>
+        <v>139.84</v>
       </c>
       <c r="E23" t="n">
-        <v>124.73</v>
+        <v>131.66</v>
       </c>
       <c r="F23" t="n">
-        <v>109.55</v>
+        <v>107.76</v>
       </c>
       <c r="G23" t="n">
-        <v>107.3</v>
+        <v>110.49</v>
       </c>
       <c r="H23" t="n">
-        <v>112.11</v>
+        <v>111.49</v>
       </c>
       <c r="I23" t="n">
-        <v>100.6</v>
+        <v>112.1</v>
       </c>
       <c r="J23" t="n">
-        <v>87.5</v>
+        <v>91.19</v>
       </c>
       <c r="K23" t="n">
-        <v>108.6</v>
+        <v>114.97</v>
       </c>
       <c r="L23" t="n">
-        <v>132.16</v>
+        <v>140.08</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="n">
-        <v>112.94</v>
+        <v>112.73</v>
       </c>
       <c r="R23" t="n">
-        <v>119.13</v>
+        <v>114.32</v>
       </c>
       <c r="S23" t="n">
-        <v>121.6</v>
+        <v>130.75</v>
       </c>
       <c r="T23" t="n">
-        <v>117.42</v>
+        <v>148.36</v>
       </c>
       <c r="U23" t="n">
-        <v>107.83</v>
+        <v>110.29</v>
       </c>
       <c r="V23" t="n">
-        <v>115.87</v>
+        <v>135.15</v>
       </c>
       <c r="W23" t="n">
-        <v>110.12</v>
+        <v>112.97</v>
       </c>
       <c r="X23" t="n">
-        <v>111.72</v>
+        <v>106.93</v>
       </c>
       <c r="Y23" t="n">
-        <v>108.51</v>
+        <v>108.75</v>
       </c>
       <c r="Z23" t="n">
-        <v>113.15</v>
+        <v>112.62</v>
       </c>
       <c r="AA23" t="n">
-        <v>100.11</v>
+        <v>99.31</v>
       </c>
       <c r="AB23" t="n">
-        <v>122.53</v>
+        <v>128.85</v>
       </c>
       <c r="AC23" t="n">
-        <v>111.13</v>
+        <v>115.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>114.38</v>
+        <v>111.97</v>
       </c>
       <c r="AE23" t="n">
-        <v>75.63</v>
+        <v>84.20999999999999</v>
       </c>
       <c r="AF23" t="n">
-        <v>99.83</v>
+        <v>108.61</v>
       </c>
       <c r="AG23" t="n">
-        <v>110.78</v>
+        <v>115.88</v>
       </c>
       <c r="AH23" t="n">
-        <v>109.96</v>
+        <v>108.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>132.87</v>
+        <v>135.92</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2008年第二季度</t>
+          <t>2008年C</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>113.27</v>
+        <v>109.99</v>
       </c>
       <c r="C24" t="n">
-        <v>121.15</v>
+        <v>112.56</v>
       </c>
       <c r="D24" t="n">
-        <v>139.84</v>
+        <v>136.53</v>
       </c>
       <c r="E24" t="n">
-        <v>131.66</v>
+        <v>124.73</v>
       </c>
       <c r="F24" t="n">
-        <v>107.76</v>
+        <v>109.55</v>
       </c>
       <c r="G24" t="n">
-        <v>110.49</v>
+        <v>107.3</v>
       </c>
       <c r="H24" t="n">
-        <v>111.49</v>
+        <v>112.11</v>
       </c>
       <c r="I24" t="n">
-        <v>112.1</v>
+        <v>100.6</v>
       </c>
       <c r="J24" t="n">
-        <v>91.19</v>
+        <v>87.5</v>
       </c>
       <c r="K24" t="n">
-        <v>114.97</v>
+        <v>108.6</v>
       </c>
       <c r="L24" t="n">
-        <v>140.08</v>
+        <v>132.16</v>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="n">
-        <v>112.73</v>
+        <v>112.94</v>
       </c>
       <c r="R24" t="n">
-        <v>114.32</v>
+        <v>119.13</v>
       </c>
       <c r="S24" t="n">
-        <v>130.75</v>
+        <v>121.6</v>
       </c>
       <c r="T24" t="n">
-        <v>148.36</v>
+        <v>117.42</v>
       </c>
       <c r="U24" t="n">
-        <v>110.29</v>
+        <v>107.83</v>
       </c>
       <c r="V24" t="n">
-        <v>135.15</v>
+        <v>115.87</v>
       </c>
       <c r="W24" t="n">
-        <v>112.97</v>
+        <v>110.12</v>
       </c>
       <c r="X24" t="n">
-        <v>106.93</v>
+        <v>111.72</v>
       </c>
       <c r="Y24" t="n">
-        <v>108.75</v>
+        <v>108.51</v>
       </c>
       <c r="Z24" t="n">
-        <v>112.62</v>
+        <v>113.15</v>
       </c>
       <c r="AA24" t="n">
-        <v>99.31</v>
+        <v>100.11</v>
       </c>
       <c r="AB24" t="n">
-        <v>128.85</v>
+        <v>122.53</v>
       </c>
       <c r="AC24" t="n">
-        <v>115.2</v>
+        <v>111.13</v>
       </c>
       <c r="AD24" t="n">
-        <v>111.97</v>
+        <v>114.38</v>
       </c>
       <c r="AE24" t="n">
-        <v>84.20999999999999</v>
+        <v>75.63</v>
       </c>
       <c r="AF24" t="n">
-        <v>108.61</v>
+        <v>99.83</v>
       </c>
       <c r="AG24" t="n">
-        <v>115.88</v>
+        <v>110.78</v>
       </c>
       <c r="AH24" t="n">
-        <v>108.5</v>
+        <v>109.96</v>
       </c>
       <c r="AI24" t="n">
-        <v>135.92</v>
+        <v>132.87</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2008年第四季度</t>
+          <t>2008年D</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -3012,7 +3012,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2009年第一季度</t>
+          <t>2009年A</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -3113,209 +3113,209 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2009年第三季度</t>
+          <t>2009年B</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>104.12</v>
+        <v>100.97</v>
       </c>
       <c r="C27" t="n">
-        <v>97.33</v>
+        <v>93.39</v>
       </c>
       <c r="D27" t="n">
-        <v>85.84</v>
+        <v>83.81</v>
       </c>
       <c r="E27" t="n">
-        <v>91.8</v>
+        <v>86.67</v>
       </c>
       <c r="F27" t="n">
-        <v>107.47</v>
+        <v>109.34</v>
       </c>
       <c r="G27" t="n">
-        <v>94.53</v>
+        <v>93.77</v>
       </c>
       <c r="H27" t="n">
-        <v>96.52</v>
+        <v>86.73</v>
       </c>
       <c r="I27" t="n">
-        <v>102.05</v>
+        <v>87.64</v>
       </c>
       <c r="J27" t="n">
-        <v>88.84</v>
+        <v>85.91</v>
       </c>
       <c r="K27" t="n">
-        <v>106.4</v>
+        <v>114.4</v>
       </c>
       <c r="L27" t="n">
-        <v>79.59</v>
+        <v>75.81999999999999</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="n">
-        <v>98.33</v>
+        <v>99.31999999999999</v>
       </c>
       <c r="R27" t="n">
-        <v>104.17</v>
+        <v>100.71</v>
       </c>
       <c r="S27" t="n">
-        <v>100.73</v>
+        <v>99.41</v>
       </c>
       <c r="T27" t="n">
-        <v>78.17</v>
+        <v>68.48</v>
       </c>
       <c r="U27" t="n">
-        <v>102.43</v>
+        <v>95.52</v>
       </c>
       <c r="V27" t="n">
-        <v>88.31999999999999</v>
+        <v>82.7</v>
       </c>
       <c r="W27" t="n">
-        <v>102.87</v>
+        <v>102.6</v>
       </c>
       <c r="X27" t="n">
-        <v>104.52</v>
+        <v>106.59</v>
       </c>
       <c r="Y27" t="n">
-        <v>97.31999999999999</v>
+        <v>99.76000000000001</v>
       </c>
       <c r="Z27" t="n">
-        <v>102.11</v>
+        <v>100.7</v>
       </c>
       <c r="AA27" t="n">
-        <v>100.83</v>
+        <v>94.8</v>
       </c>
       <c r="AB27" t="n">
-        <v>100.83</v>
+        <v>100.25</v>
       </c>
       <c r="AC27" t="n">
-        <v>101.51</v>
+        <v>101.64</v>
       </c>
       <c r="AD27" t="n">
-        <v>97.44</v>
+        <v>83.34999999999999</v>
       </c>
       <c r="AE27" t="n">
-        <v>101.58</v>
+        <v>97.91</v>
       </c>
       <c r="AF27" t="n">
-        <v>118.27</v>
+        <v>110.62</v>
       </c>
       <c r="AG27" t="n">
-        <v>104.52</v>
+        <v>102.12</v>
       </c>
       <c r="AH27" t="n">
-        <v>104.35</v>
+        <v>103.23</v>
       </c>
       <c r="AI27" t="n">
-        <v>87.98999999999999</v>
+        <v>85.2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2009年第二季度</t>
+          <t>2009年C</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100.97</v>
+        <v>104.12</v>
       </c>
       <c r="C28" t="n">
-        <v>93.39</v>
+        <v>97.33</v>
       </c>
       <c r="D28" t="n">
-        <v>83.81</v>
+        <v>85.84</v>
       </c>
       <c r="E28" t="n">
-        <v>86.67</v>
+        <v>91.8</v>
       </c>
       <c r="F28" t="n">
-        <v>109.34</v>
+        <v>107.47</v>
       </c>
       <c r="G28" t="n">
-        <v>93.77</v>
+        <v>94.53</v>
       </c>
       <c r="H28" t="n">
-        <v>86.73</v>
+        <v>96.52</v>
       </c>
       <c r="I28" t="n">
-        <v>87.64</v>
+        <v>102.05</v>
       </c>
       <c r="J28" t="n">
-        <v>85.91</v>
+        <v>88.84</v>
       </c>
       <c r="K28" t="n">
-        <v>114.4</v>
+        <v>106.4</v>
       </c>
       <c r="L28" t="n">
-        <v>75.81999999999999</v>
+        <v>79.59</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="n">
-        <v>99.31999999999999</v>
+        <v>98.33</v>
       </c>
       <c r="R28" t="n">
-        <v>100.71</v>
+        <v>104.17</v>
       </c>
       <c r="S28" t="n">
-        <v>99.41</v>
+        <v>100.73</v>
       </c>
       <c r="T28" t="n">
-        <v>68.48</v>
+        <v>78.17</v>
       </c>
       <c r="U28" t="n">
-        <v>95.52</v>
+        <v>102.43</v>
       </c>
       <c r="V28" t="n">
-        <v>82.7</v>
+        <v>88.31999999999999</v>
       </c>
       <c r="W28" t="n">
-        <v>102.6</v>
+        <v>102.87</v>
       </c>
       <c r="X28" t="n">
-        <v>106.59</v>
+        <v>104.52</v>
       </c>
       <c r="Y28" t="n">
-        <v>99.76000000000001</v>
+        <v>97.31999999999999</v>
       </c>
       <c r="Z28" t="n">
-        <v>100.7</v>
+        <v>102.11</v>
       </c>
       <c r="AA28" t="n">
-        <v>94.8</v>
+        <v>100.83</v>
       </c>
       <c r="AB28" t="n">
-        <v>100.25</v>
+        <v>100.83</v>
       </c>
       <c r="AC28" t="n">
-        <v>101.64</v>
+        <v>101.51</v>
       </c>
       <c r="AD28" t="n">
-        <v>83.34999999999999</v>
+        <v>97.44</v>
       </c>
       <c r="AE28" t="n">
-        <v>97.91</v>
+        <v>101.58</v>
       </c>
       <c r="AF28" t="n">
-        <v>110.62</v>
+        <v>118.27</v>
       </c>
       <c r="AG28" t="n">
-        <v>102.12</v>
+        <v>104.52</v>
       </c>
       <c r="AH28" t="n">
-        <v>103.23</v>
+        <v>104.35</v>
       </c>
       <c r="AI28" t="n">
-        <v>85.2</v>
+        <v>87.98999999999999</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2009年第四季度</t>
+          <t>2009年D</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -3416,7 +3416,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2010年第一季度</t>
+          <t>2010年A</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -3517,209 +3517,209 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2010年第三季度</t>
+          <t>2010年B</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>113.71</v>
+        <v>114.89</v>
       </c>
       <c r="C31" t="n">
-        <v>110.57</v>
+        <v>108.95</v>
       </c>
       <c r="D31" t="n">
-        <v>108.94</v>
+        <v>106.95</v>
       </c>
       <c r="E31" t="n">
-        <v>116.44</v>
+        <v>116.83</v>
       </c>
       <c r="F31" t="n">
-        <v>107.45</v>
+        <v>107.39</v>
       </c>
       <c r="G31" t="n">
-        <v>107.47</v>
+        <v>107.41</v>
       </c>
       <c r="H31" t="n">
-        <v>122.73</v>
+        <v>122.11</v>
       </c>
       <c r="I31" t="n">
-        <v>125.1</v>
+        <v>121.52</v>
       </c>
       <c r="J31" t="n">
-        <v>127.68</v>
+        <v>126.03</v>
       </c>
       <c r="K31" t="n">
-        <v>107.85</v>
+        <v>115.49</v>
       </c>
       <c r="L31" t="n">
-        <v>111.08</v>
+        <v>112.43</v>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="n">
-        <v>108.46</v>
+        <v>108.36</v>
       </c>
       <c r="R31" t="n">
-        <v>103.15</v>
+        <v>103.53</v>
       </c>
       <c r="S31" t="n">
-        <v>104.07</v>
+        <v>102.74</v>
       </c>
       <c r="T31" t="n">
-        <v>102.34</v>
+        <v>93.97</v>
       </c>
       <c r="U31" t="n">
-        <v>115.35</v>
+        <v>119.36</v>
       </c>
       <c r="V31" t="n">
-        <v>105.44</v>
+        <v>99.59</v>
       </c>
       <c r="W31" t="n">
-        <v>108.34</v>
+        <v>104.5</v>
       </c>
       <c r="X31" t="n">
-        <v>111.91</v>
+        <v>111.76</v>
       </c>
       <c r="Y31" t="n">
-        <v>104.94</v>
+        <v>108.87</v>
       </c>
       <c r="Z31" t="n">
-        <v>112.72</v>
+        <v>114.12</v>
       </c>
       <c r="AA31" t="n">
-        <v>113.14</v>
+        <v>97.19</v>
       </c>
       <c r="AB31" t="n">
-        <v>109.66</v>
+        <v>108.54</v>
       </c>
       <c r="AC31" t="n">
-        <v>108.68</v>
+        <v>103.74</v>
       </c>
       <c r="AD31" t="n">
-        <v>129.98</v>
+        <v>129.07</v>
       </c>
       <c r="AE31" t="n">
-        <v>119.71</v>
+        <v>124.1</v>
       </c>
       <c r="AF31" t="n">
-        <v>117.01</v>
+        <v>116.91</v>
       </c>
       <c r="AG31" t="n">
-        <v>123.8</v>
+        <v>136.98</v>
       </c>
       <c r="AH31" t="n">
-        <v>112.07</v>
+        <v>113.44</v>
       </c>
       <c r="AI31" t="n">
-        <v>112.77</v>
+        <v>110.33</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2010年第二季度</t>
+          <t>2010年C</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>114.89</v>
+        <v>113.71</v>
       </c>
       <c r="C32" t="n">
-        <v>108.95</v>
+        <v>110.57</v>
       </c>
       <c r="D32" t="n">
-        <v>106.95</v>
+        <v>108.94</v>
       </c>
       <c r="E32" t="n">
-        <v>116.83</v>
+        <v>116.44</v>
       </c>
       <c r="F32" t="n">
-        <v>107.39</v>
+        <v>107.45</v>
       </c>
       <c r="G32" t="n">
-        <v>107.41</v>
+        <v>107.47</v>
       </c>
       <c r="H32" t="n">
-        <v>122.11</v>
+        <v>122.73</v>
       </c>
       <c r="I32" t="n">
-        <v>121.52</v>
+        <v>125.1</v>
       </c>
       <c r="J32" t="n">
-        <v>126.03</v>
+        <v>127.68</v>
       </c>
       <c r="K32" t="n">
-        <v>115.49</v>
+        <v>107.85</v>
       </c>
       <c r="L32" t="n">
-        <v>112.43</v>
+        <v>111.08</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="n">
-        <v>108.36</v>
+        <v>108.46</v>
       </c>
       <c r="R32" t="n">
-        <v>103.53</v>
+        <v>103.15</v>
       </c>
       <c r="S32" t="n">
-        <v>102.74</v>
+        <v>104.07</v>
       </c>
       <c r="T32" t="n">
-        <v>93.97</v>
+        <v>102.34</v>
       </c>
       <c r="U32" t="n">
-        <v>119.36</v>
+        <v>115.35</v>
       </c>
       <c r="V32" t="n">
-        <v>99.59</v>
+        <v>105.44</v>
       </c>
       <c r="W32" t="n">
-        <v>104.5</v>
+        <v>108.34</v>
       </c>
       <c r="X32" t="n">
-        <v>111.76</v>
+        <v>111.91</v>
       </c>
       <c r="Y32" t="n">
-        <v>108.87</v>
+        <v>104.94</v>
       </c>
       <c r="Z32" t="n">
-        <v>114.12</v>
+        <v>112.72</v>
       </c>
       <c r="AA32" t="n">
-        <v>97.19</v>
+        <v>113.14</v>
       </c>
       <c r="AB32" t="n">
-        <v>108.54</v>
+        <v>109.66</v>
       </c>
       <c r="AC32" t="n">
-        <v>103.74</v>
+        <v>108.68</v>
       </c>
       <c r="AD32" t="n">
-        <v>129.07</v>
+        <v>129.98</v>
       </c>
       <c r="AE32" t="n">
-        <v>124.1</v>
+        <v>119.71</v>
       </c>
       <c r="AF32" t="n">
-        <v>116.91</v>
+        <v>117.01</v>
       </c>
       <c r="AG32" t="n">
-        <v>136.98</v>
+        <v>123.8</v>
       </c>
       <c r="AH32" t="n">
-        <v>113.44</v>
+        <v>112.07</v>
       </c>
       <c r="AI32" t="n">
-        <v>110.33</v>
+        <v>112.77</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2010年第四季度</t>
+          <t>2010年D</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -3820,7 +3820,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2011年第一季度</t>
+          <t>2011年A</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -3929,223 +3929,223 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2011年第三季度</t>
+          <t>2011年B</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>109</v>
+        <v>108.6</v>
       </c>
       <c r="C35" t="n">
-        <v>120.5</v>
+        <v>118.03</v>
       </c>
       <c r="D35" t="n">
-        <v>109.3</v>
+        <v>106</v>
       </c>
       <c r="E35" t="n">
-        <v>106.87</v>
+        <v>108.64</v>
       </c>
       <c r="F35" t="n">
-        <v>103.8</v>
+        <v>106.4</v>
       </c>
       <c r="G35" t="n">
-        <v>109.9</v>
+        <v>110.13</v>
       </c>
       <c r="H35" t="n">
-        <v>113.98</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>118.43</v>
+      </c>
+      <c r="I35" t="n">
+        <v>141</v>
+      </c>
       <c r="J35" t="n">
-        <v>116.93</v>
+        <v>119.1</v>
       </c>
       <c r="K35" t="n">
+        <v>104.8</v>
+      </c>
+      <c r="L35" t="n">
+        <v>114.3</v>
+      </c>
+      <c r="M35" t="n">
+        <v>112.58</v>
+      </c>
+      <c r="N35" t="n">
+        <v>109.15</v>
+      </c>
+      <c r="O35" t="n">
+        <v>109.13</v>
+      </c>
+      <c r="P35" t="n">
+        <v>107.04</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>109.83</v>
+      </c>
+      <c r="R35" t="n">
         <v>105</v>
       </c>
-      <c r="L35" t="n">
-        <v>116</v>
-      </c>
-      <c r="M35" t="n">
-        <v>112.32</v>
-      </c>
-      <c r="N35" t="n">
-        <v>112.64</v>
-      </c>
-      <c r="O35" t="n">
-        <v>112.32</v>
-      </c>
-      <c r="P35" t="n">
-        <v>103.08</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>111.88</v>
-      </c>
-      <c r="R35" t="n">
-        <v>110.6</v>
-      </c>
       <c r="S35" t="n">
-        <v>109.55</v>
+        <v>106.16</v>
       </c>
       <c r="T35" t="n">
-        <v>150.74</v>
+        <v>141.48</v>
       </c>
       <c r="U35" t="n">
-        <v>109.5</v>
+        <v>110.7</v>
       </c>
       <c r="V35" t="n">
-        <v>135.27</v>
+        <v>129.01</v>
       </c>
       <c r="W35" t="n">
-        <v>114.65</v>
+        <v>113.38</v>
       </c>
       <c r="X35" t="n">
-        <v>116.5</v>
+        <v>112.7</v>
       </c>
       <c r="Y35" t="n">
-        <v>110.14</v>
+        <v>111.18</v>
       </c>
       <c r="Z35" t="n">
-        <v>108.4</v>
+        <v>109.57</v>
       </c>
       <c r="AA35" t="n">
-        <v>119.3</v>
+        <v>126.7</v>
       </c>
       <c r="AB35" t="n">
-        <v>116.15</v>
+        <v>112.29</v>
       </c>
       <c r="AC35" t="n">
-        <v>115.65</v>
+        <v>112.78</v>
       </c>
       <c r="AD35" t="n">
-        <v>132.95</v>
+        <v>146.51</v>
       </c>
       <c r="AE35" t="n">
-        <v>113.9</v>
+        <v>116.7</v>
       </c>
       <c r="AF35" t="n">
-        <v>108.9</v>
+        <v>99.5</v>
       </c>
       <c r="AG35" t="n">
-        <v>103.4</v>
+        <v>104.1</v>
       </c>
       <c r="AH35" t="n">
-        <v>108.54</v>
+        <v>110.4</v>
       </c>
       <c r="AI35" t="n">
-        <v>107.9</v>
+        <v>105.8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2011年第二季度</t>
+          <t>2011年C</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>108.6</v>
+        <v>109</v>
       </c>
       <c r="C36" t="n">
-        <v>118.03</v>
+        <v>120.5</v>
       </c>
       <c r="D36" t="n">
-        <v>106</v>
+        <v>109.3</v>
       </c>
       <c r="E36" t="n">
-        <v>108.64</v>
+        <v>106.87</v>
       </c>
       <c r="F36" t="n">
-        <v>106.4</v>
+        <v>103.8</v>
       </c>
       <c r="G36" t="n">
-        <v>110.13</v>
+        <v>109.9</v>
       </c>
       <c r="H36" t="n">
-        <v>118.43</v>
-      </c>
-      <c r="I36" t="n">
-        <v>141</v>
-      </c>
+        <v>113.98</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>119.1</v>
+        <v>116.93</v>
       </c>
       <c r="K36" t="n">
-        <v>104.8</v>
+        <v>105</v>
       </c>
       <c r="L36" t="n">
-        <v>114.3</v>
+        <v>116</v>
       </c>
       <c r="M36" t="n">
-        <v>112.58</v>
+        <v>112.32</v>
       </c>
       <c r="N36" t="n">
-        <v>109.15</v>
+        <v>112.64</v>
       </c>
       <c r="O36" t="n">
-        <v>109.13</v>
+        <v>112.32</v>
       </c>
       <c r="P36" t="n">
-        <v>107.04</v>
+        <v>103.08</v>
       </c>
       <c r="Q36" t="n">
-        <v>109.83</v>
+        <v>111.88</v>
       </c>
       <c r="R36" t="n">
-        <v>105</v>
+        <v>110.6</v>
       </c>
       <c r="S36" t="n">
-        <v>106.16</v>
+        <v>109.55</v>
       </c>
       <c r="T36" t="n">
-        <v>141.48</v>
+        <v>150.74</v>
       </c>
       <c r="U36" t="n">
-        <v>110.7</v>
+        <v>109.5</v>
       </c>
       <c r="V36" t="n">
-        <v>129.01</v>
+        <v>135.27</v>
       </c>
       <c r="W36" t="n">
-        <v>113.38</v>
+        <v>114.65</v>
       </c>
       <c r="X36" t="n">
-        <v>112.7</v>
+        <v>116.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>111.18</v>
+        <v>110.14</v>
       </c>
       <c r="Z36" t="n">
-        <v>109.57</v>
+        <v>108.4</v>
       </c>
       <c r="AA36" t="n">
-        <v>126.7</v>
+        <v>119.3</v>
       </c>
       <c r="AB36" t="n">
-        <v>112.29</v>
+        <v>116.15</v>
       </c>
       <c r="AC36" t="n">
-        <v>112.78</v>
+        <v>115.65</v>
       </c>
       <c r="AD36" t="n">
-        <v>146.51</v>
+        <v>132.95</v>
       </c>
       <c r="AE36" t="n">
-        <v>116.7</v>
+        <v>113.9</v>
       </c>
       <c r="AF36" t="n">
-        <v>99.5</v>
+        <v>108.9</v>
       </c>
       <c r="AG36" t="n">
-        <v>104.1</v>
+        <v>103.4</v>
       </c>
       <c r="AH36" t="n">
-        <v>110.4</v>
+        <v>108.54</v>
       </c>
       <c r="AI36" t="n">
-        <v>105.8</v>
+        <v>107.9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2011年第四季度</t>
+          <t>2011年D</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -4254,7 +4254,7 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2012年第一季度</t>
+          <t>2012年A</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -4363,221 +4363,221 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2012年第三季度</t>
+          <t>2012年B</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>106.2</v>
+        <v>107.02</v>
       </c>
       <c r="C39" t="n">
-        <v>100.1</v>
+        <v>102.96</v>
       </c>
       <c r="D39" t="n">
-        <v>104.84</v>
+        <v>105.08</v>
       </c>
       <c r="E39" t="n">
-        <v>103.66</v>
+        <v>102.87</v>
       </c>
       <c r="F39" t="n">
-        <v>102.13</v>
+        <v>101.22</v>
       </c>
       <c r="G39" t="n">
-        <v>109.05</v>
+        <v>103.55</v>
       </c>
       <c r="H39" t="n">
-        <v>102.22</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>100.19</v>
+      </c>
+      <c r="I39" t="n">
+        <v>81.06999999999999</v>
+      </c>
       <c r="J39" t="n">
-        <v>96.52</v>
+        <v>107.97</v>
       </c>
       <c r="K39" t="n">
-        <v>111.41</v>
+        <v>103.73</v>
       </c>
       <c r="L39" t="n">
-        <v>104.38</v>
+        <v>107.57</v>
       </c>
       <c r="M39" t="n">
-        <v>99.23</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+        <v>101.41</v>
+      </c>
+      <c r="N39" t="n">
+        <v>108.53</v>
+      </c>
       <c r="O39" t="n">
-        <v>105.64</v>
+        <v>111.18</v>
       </c>
       <c r="P39" t="n">
-        <v>101.24</v>
+        <v>111.89</v>
       </c>
       <c r="Q39" t="n">
-        <v>103.7</v>
+        <v>108.36</v>
       </c>
       <c r="R39" t="n">
-        <v>111.78</v>
+        <v>98.48999999999999</v>
       </c>
       <c r="S39" t="n">
-        <v>114.44</v>
+        <v>115.06</v>
       </c>
       <c r="T39" t="n">
-        <v>80.83</v>
+        <v>93.68000000000001</v>
       </c>
       <c r="U39" t="n">
-        <v>106.2</v>
+        <v>107.36</v>
       </c>
       <c r="V39" t="n">
-        <v>90.2</v>
+        <v>98.06</v>
       </c>
       <c r="W39" t="n">
-        <v>98.91</v>
+        <v>98.44</v>
       </c>
       <c r="X39" t="n">
-        <v>105.63</v>
+        <v>105.77</v>
       </c>
       <c r="Y39" t="n">
-        <v>103.87</v>
+        <v>101.64</v>
       </c>
       <c r="Z39" t="n">
-        <v>103.83</v>
+        <v>105.08</v>
       </c>
       <c r="AA39" t="n">
-        <v>123.34</v>
+        <v>107.07</v>
       </c>
       <c r="AB39" t="n">
-        <v>105.84</v>
+        <v>112.02</v>
       </c>
       <c r="AC39" t="n">
-        <v>101.53</v>
+        <v>102.08</v>
       </c>
       <c r="AD39" t="n">
-        <v>66.40000000000001</v>
+        <v>84.94</v>
       </c>
       <c r="AE39" t="n">
-        <v>106.42</v>
+        <v>109.75</v>
       </c>
       <c r="AF39" t="n">
-        <v>109.09</v>
+        <v>116.35</v>
       </c>
       <c r="AG39" t="n">
-        <v>99.84</v>
+        <v>92.23</v>
       </c>
       <c r="AH39" t="n">
-        <v>104.01</v>
+        <v>105.89</v>
       </c>
       <c r="AI39" t="n">
-        <v>102.04</v>
+        <v>102.57</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2012年第二季度</t>
+          <t>2012年C</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>107.02</v>
+        <v>106.2</v>
       </c>
       <c r="C40" t="n">
-        <v>102.96</v>
+        <v>100.1</v>
       </c>
       <c r="D40" t="n">
-        <v>105.08</v>
+        <v>104.84</v>
       </c>
       <c r="E40" t="n">
-        <v>102.87</v>
+        <v>103.66</v>
       </c>
       <c r="F40" t="n">
-        <v>101.22</v>
+        <v>102.13</v>
       </c>
       <c r="G40" t="n">
-        <v>103.55</v>
+        <v>109.05</v>
       </c>
       <c r="H40" t="n">
-        <v>100.19</v>
-      </c>
-      <c r="I40" t="n">
-        <v>81.06999999999999</v>
-      </c>
+        <v>102.22</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>107.97</v>
+        <v>96.52</v>
       </c>
       <c r="K40" t="n">
-        <v>103.73</v>
+        <v>111.41</v>
       </c>
       <c r="L40" t="n">
-        <v>107.57</v>
+        <v>104.38</v>
       </c>
       <c r="M40" t="n">
-        <v>101.41</v>
-      </c>
-      <c r="N40" t="n">
-        <v>108.53</v>
-      </c>
+        <v>99.23</v>
+      </c>
+      <c r="N40" t="inlineStr"/>
       <c r="O40" t="n">
-        <v>111.18</v>
+        <v>105.64</v>
       </c>
       <c r="P40" t="n">
-        <v>111.89</v>
+        <v>101.24</v>
       </c>
       <c r="Q40" t="n">
-        <v>108.36</v>
+        <v>103.7</v>
       </c>
       <c r="R40" t="n">
-        <v>98.48999999999999</v>
+        <v>111.78</v>
       </c>
       <c r="S40" t="n">
-        <v>115.06</v>
+        <v>114.44</v>
       </c>
       <c r="T40" t="n">
-        <v>93.68000000000001</v>
+        <v>80.83</v>
       </c>
       <c r="U40" t="n">
-        <v>107.36</v>
+        <v>106.2</v>
       </c>
       <c r="V40" t="n">
-        <v>98.06</v>
+        <v>90.2</v>
       </c>
       <c r="W40" t="n">
-        <v>98.44</v>
+        <v>98.91</v>
       </c>
       <c r="X40" t="n">
-        <v>105.77</v>
+        <v>105.63</v>
       </c>
       <c r="Y40" t="n">
-        <v>101.64</v>
+        <v>103.87</v>
       </c>
       <c r="Z40" t="n">
-        <v>105.08</v>
+        <v>103.83</v>
       </c>
       <c r="AA40" t="n">
-        <v>107.07</v>
+        <v>123.34</v>
       </c>
       <c r="AB40" t="n">
-        <v>112.02</v>
+        <v>105.84</v>
       </c>
       <c r="AC40" t="n">
-        <v>102.08</v>
+        <v>101.53</v>
       </c>
       <c r="AD40" t="n">
-        <v>84.94</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="AE40" t="n">
-        <v>109.75</v>
+        <v>106.42</v>
       </c>
       <c r="AF40" t="n">
-        <v>116.35</v>
+        <v>109.09</v>
       </c>
       <c r="AG40" t="n">
-        <v>92.23</v>
+        <v>99.84</v>
       </c>
       <c r="AH40" t="n">
-        <v>105.89</v>
+        <v>104.01</v>
       </c>
       <c r="AI40" t="n">
-        <v>102.57</v>
+        <v>102.04</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2012年第四季度</t>
+          <t>2012年D</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -4686,7 +4686,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2013年第一季度</t>
+          <t>2013年A</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -4795,221 +4795,221 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2013年第三季度</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>104.7</v>
+        <v>103.7</v>
       </c>
       <c r="C43" t="n">
-        <v>104.3</v>
+        <v>101.1</v>
       </c>
       <c r="D43" t="n">
-        <v>106.5</v>
+        <v>107.3</v>
       </c>
       <c r="E43" t="n">
-        <v>111.2</v>
+        <v>108.1</v>
       </c>
       <c r="F43" t="n">
-        <v>106.6</v>
+        <v>107.3</v>
       </c>
       <c r="G43" t="n">
-        <v>98.59999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="H43" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>95.3</v>
+      </c>
+      <c r="I43" t="n">
+        <v>102.3</v>
+      </c>
       <c r="J43" t="n">
-        <v>98.8</v>
+        <v>110.4</v>
       </c>
       <c r="K43" t="n">
-        <v>102.6</v>
+        <v>111.4</v>
       </c>
       <c r="L43" t="n">
-        <v>103.9</v>
+        <v>102.2</v>
       </c>
       <c r="M43" t="n">
-        <v>102.3</v>
+        <v>100</v>
       </c>
       <c r="N43" t="n">
-        <v>104.2</v>
+        <v>111</v>
       </c>
       <c r="O43" t="n">
-        <v>104</v>
+        <v>103.2</v>
       </c>
       <c r="P43" t="n">
-        <v>101.3</v>
+        <v>105.6</v>
       </c>
       <c r="Q43" t="n">
-        <v>103.5</v>
+        <v>104.4</v>
       </c>
       <c r="R43" t="n">
-        <v>105.3</v>
+        <v>110.8</v>
       </c>
       <c r="S43" t="n">
-        <v>109.1</v>
+        <v>121.4</v>
       </c>
       <c r="T43" t="n">
-        <v>104.1</v>
+        <v>92.7</v>
       </c>
       <c r="U43" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="V43" t="n">
-        <v>104.7</v>
+        <v>98.5</v>
       </c>
       <c r="W43" t="n">
-        <v>104.6</v>
+        <v>106.2</v>
       </c>
       <c r="X43" t="n">
-        <v>100.4</v>
+        <v>101.8</v>
       </c>
       <c r="Y43" t="n">
-        <v>102.2</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="Z43" t="n">
-        <v>104.1</v>
-      </c>
-      <c r="AA43" t="inlineStr"/>
+        <v>103.3</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>98.7</v>
+      </c>
       <c r="AB43" t="n">
-        <v>109</v>
+        <v>112.5</v>
       </c>
       <c r="AC43" t="n">
-        <v>102</v>
+        <v>96.5</v>
       </c>
       <c r="AD43" t="n">
-        <v>86.8</v>
+        <v>83.8</v>
       </c>
       <c r="AE43" t="n">
-        <v>102.5</v>
+        <v>101.4</v>
       </c>
       <c r="AF43" t="n">
-        <v>108.9</v>
+        <v>103.8</v>
       </c>
       <c r="AG43" t="n">
-        <v>110.1</v>
+        <v>112.3</v>
       </c>
       <c r="AH43" t="n">
-        <v>103.9</v>
+        <v>102.4</v>
       </c>
       <c r="AI43" t="n">
-        <v>106.1</v>
+        <v>106.9</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2013年第二季度</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>103.7</v>
+        <v>104.7</v>
       </c>
       <c r="C44" t="n">
-        <v>101.1</v>
+        <v>104.3</v>
       </c>
       <c r="D44" t="n">
-        <v>107.3</v>
+        <v>106.5</v>
       </c>
       <c r="E44" t="n">
-        <v>108.1</v>
+        <v>111.2</v>
       </c>
       <c r="F44" t="n">
-        <v>107.3</v>
+        <v>106.6</v>
       </c>
       <c r="G44" t="n">
-        <v>92.90000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="H44" t="n">
-        <v>95.3</v>
-      </c>
-      <c r="I44" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="K44" t="n">
+        <v>102.6</v>
+      </c>
+      <c r="L44" t="n">
+        <v>103.9</v>
+      </c>
+      <c r="M44" t="n">
         <v>102.3</v>
       </c>
-      <c r="J44" t="n">
-        <v>110.4</v>
-      </c>
-      <c r="K44" t="n">
-        <v>111.4</v>
-      </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
+        <v>104.2</v>
+      </c>
+      <c r="O44" t="n">
+        <v>104</v>
+      </c>
+      <c r="P44" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>105.3</v>
+      </c>
+      <c r="S44" t="n">
+        <v>109.1</v>
+      </c>
+      <c r="T44" t="n">
+        <v>104.1</v>
+      </c>
+      <c r="U44" t="n">
+        <v>102</v>
+      </c>
+      <c r="V44" t="n">
+        <v>104.7</v>
+      </c>
+      <c r="W44" t="n">
+        <v>104.6</v>
+      </c>
+      <c r="X44" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="Y44" t="n">
         <v>102.2</v>
       </c>
-      <c r="M44" t="n">
-        <v>100</v>
-      </c>
-      <c r="N44" t="n">
-        <v>111</v>
-      </c>
-      <c r="O44" t="n">
-        <v>103.2</v>
-      </c>
-      <c r="P44" t="n">
-        <v>105.6</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>104.4</v>
-      </c>
-      <c r="R44" t="n">
-        <v>110.8</v>
-      </c>
-      <c r="S44" t="n">
-        <v>121.4</v>
-      </c>
-      <c r="T44" t="n">
-        <v>92.7</v>
-      </c>
-      <c r="U44" t="n">
-        <v>101</v>
-      </c>
-      <c r="V44" t="n">
-        <v>98.5</v>
-      </c>
-      <c r="W44" t="n">
-        <v>106.2</v>
-      </c>
-      <c r="X44" t="n">
-        <v>101.8</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>97.90000000000001</v>
-      </c>
       <c r="Z44" t="n">
-        <v>103.3</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>98.7</v>
-      </c>
+        <v>104.1</v>
+      </c>
+      <c r="AA44" t="inlineStr"/>
       <c r="AB44" t="n">
-        <v>112.5</v>
+        <v>109</v>
       </c>
       <c r="AC44" t="n">
-        <v>96.5</v>
+        <v>102</v>
       </c>
       <c r="AD44" t="n">
-        <v>83.8</v>
+        <v>86.8</v>
       </c>
       <c r="AE44" t="n">
-        <v>101.4</v>
+        <v>102.5</v>
       </c>
       <c r="AF44" t="n">
-        <v>103.8</v>
+        <v>108.9</v>
       </c>
       <c r="AG44" t="n">
-        <v>112.3</v>
+        <v>110.1</v>
       </c>
       <c r="AH44" t="n">
-        <v>102.4</v>
+        <v>103.9</v>
       </c>
       <c r="AI44" t="n">
-        <v>106.9</v>
+        <v>106.1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2013年第四季度</t>
+          <t>2013年D</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -5118,7 +5118,7 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2014年第一季度</t>
+          <t>2014年A</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -5227,223 +5227,223 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2014年第三季度</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>101.4</v>
+        <v>100.7</v>
       </c>
       <c r="C47" t="n">
         <v>100.3</v>
       </c>
       <c r="D47" t="n">
-        <v>103.3</v>
+        <v>100.6</v>
       </c>
       <c r="E47" t="n">
-        <v>103.7</v>
+        <v>115.3</v>
       </c>
       <c r="F47" t="n">
-        <v>104.3</v>
+        <v>105.8</v>
       </c>
       <c r="G47" t="n">
-        <v>108.2</v>
+        <v>105.8</v>
       </c>
       <c r="H47" t="n">
-        <v>103.2</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>99.40000000000001</v>
+      </c>
+      <c r="I47" t="n">
+        <v>100.3</v>
+      </c>
       <c r="J47" t="n">
-        <v>90.7</v>
+        <v>94.2</v>
       </c>
       <c r="K47" t="n">
-        <v>98.09999999999999</v>
+        <v>106.9</v>
       </c>
       <c r="L47" t="n">
-        <v>100.1</v>
+        <v>98.5</v>
       </c>
       <c r="M47" t="n">
-        <v>98.3</v>
+        <v>104.9</v>
       </c>
       <c r="N47" t="n">
-        <v>98.59999999999999</v>
+        <v>106.3</v>
       </c>
       <c r="O47" t="n">
-        <v>102.1</v>
+        <v>105.8</v>
       </c>
       <c r="P47" t="n">
-        <v>96.09999999999999</v>
+        <v>104.2</v>
       </c>
       <c r="Q47" t="n">
-        <v>100.1</v>
+        <v>105.6</v>
       </c>
       <c r="R47" t="n">
-        <v>101</v>
+        <v>110.9</v>
       </c>
       <c r="S47" t="n">
-        <v>105</v>
+        <v>107.6</v>
       </c>
       <c r="T47" t="n">
-        <v>95.3</v>
+        <v>92</v>
       </c>
       <c r="U47" t="n">
-        <v>103.9</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="V47" t="n">
-        <v>98.8</v>
+        <v>98.5</v>
       </c>
       <c r="W47" t="n">
-        <v>110.7</v>
+        <v>107.9</v>
       </c>
       <c r="X47" t="n">
-        <v>103.2</v>
+        <v>102.3</v>
       </c>
       <c r="Y47" t="n">
-        <v>100.9</v>
+        <v>101.4</v>
       </c>
       <c r="Z47" t="n">
-        <v>103.9</v>
+        <v>101.3</v>
       </c>
       <c r="AA47" t="n">
-        <v>100</v>
+        <v>96.3</v>
       </c>
       <c r="AB47" t="n">
+        <v>102.4</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>106.8</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>106.8</v>
+      </c>
+      <c r="AF47" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c r="AC47" t="n">
-        <v>106.5</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>103.5</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>97.40000000000001</v>
-      </c>
       <c r="AG47" t="n">
-        <v>97.5</v>
+        <v>106.1</v>
       </c>
       <c r="AH47" t="n">
-        <v>104</v>
+        <v>101.1</v>
       </c>
       <c r="AI47" t="n">
-        <v>104.1</v>
+        <v>101.8</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2014年第二季度</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>100.7</v>
+        <v>101.4</v>
       </c>
       <c r="C48" t="n">
         <v>100.3</v>
       </c>
       <c r="D48" t="n">
-        <v>100.6</v>
+        <v>103.3</v>
       </c>
       <c r="E48" t="n">
-        <v>115.3</v>
+        <v>103.7</v>
       </c>
       <c r="F48" t="n">
-        <v>105.8</v>
+        <v>104.3</v>
       </c>
       <c r="G48" t="n">
-        <v>105.8</v>
+        <v>108.2</v>
       </c>
       <c r="H48" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="I48" t="n">
-        <v>100.3</v>
-      </c>
+        <v>103.2</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>94.2</v>
+        <v>90.7</v>
       </c>
       <c r="K48" t="n">
-        <v>106.9</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="L48" t="n">
-        <v>98.5</v>
+        <v>100.1</v>
       </c>
       <c r="M48" t="n">
-        <v>104.9</v>
+        <v>98.3</v>
       </c>
       <c r="N48" t="n">
-        <v>106.3</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="O48" t="n">
-        <v>105.8</v>
+        <v>102.1</v>
       </c>
       <c r="P48" t="n">
-        <v>104.2</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="Q48" t="n">
-        <v>105.6</v>
+        <v>100.1</v>
       </c>
       <c r="R48" t="n">
-        <v>110.9</v>
+        <v>101</v>
       </c>
       <c r="S48" t="n">
-        <v>107.6</v>
+        <v>105</v>
       </c>
       <c r="T48" t="n">
-        <v>92</v>
+        <v>95.3</v>
       </c>
       <c r="U48" t="n">
-        <v>99.09999999999999</v>
+        <v>103.9</v>
       </c>
       <c r="V48" t="n">
-        <v>98.5</v>
+        <v>98.8</v>
       </c>
       <c r="W48" t="n">
-        <v>107.9</v>
+        <v>110.7</v>
       </c>
       <c r="X48" t="n">
-        <v>102.3</v>
+        <v>103.2</v>
       </c>
       <c r="Y48" t="n">
-        <v>101.4</v>
+        <v>100.9</v>
       </c>
       <c r="Z48" t="n">
-        <v>101.3</v>
+        <v>103.9</v>
       </c>
       <c r="AA48" t="n">
-        <v>96.3</v>
+        <v>100</v>
       </c>
       <c r="AB48" t="n">
-        <v>102.4</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC48" t="n">
-        <v>106.8</v>
+        <v>106.5</v>
       </c>
       <c r="AD48" t="n">
-        <v>86.7</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="AE48" t="n">
-        <v>106.8</v>
+        <v>103.5</v>
       </c>
       <c r="AF48" t="n">
-        <v>96.59999999999999</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="AG48" t="n">
-        <v>106.1</v>
+        <v>97.5</v>
       </c>
       <c r="AH48" t="n">
-        <v>101.1</v>
+        <v>104</v>
       </c>
       <c r="AI48" t="n">
-        <v>101.8</v>
+        <v>104.1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2014年第四季度</t>
+          <t>2014年D</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -5552,7 +5552,7 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2015年第一季度</t>
+          <t>2015年A</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -5659,221 +5659,221 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2015年第三季度</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>100</v>
+        <v>100.5</v>
       </c>
       <c r="C51" t="n">
-        <v>104.1</v>
+        <v>101.5</v>
       </c>
       <c r="D51" t="n">
+        <v>102.2</v>
+      </c>
+      <c r="E51" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="F51" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="G51" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c r="E51" t="n">
-        <v>92.59999999999999</v>
-      </c>
-      <c r="F51" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="G51" t="n">
+      <c r="H51" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="I51" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="J51" t="n">
+        <v>95</v>
+      </c>
+      <c r="K51" t="n">
+        <v>92.09999999999999</v>
+      </c>
+      <c r="L51" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="M51" t="n">
+        <v>103</v>
+      </c>
+      <c r="N51" t="n">
+        <v>107.2</v>
+      </c>
+      <c r="O51" t="n">
+        <v>104.3</v>
+      </c>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="n">
+        <v>104.3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="T51" t="n">
         <v>105.9</v>
       </c>
-      <c r="H51" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>105.5</v>
-      </c>
-      <c r="K51" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="L51" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="M51" t="n">
-        <v>105.4</v>
-      </c>
-      <c r="N51" t="n">
-        <v>103.1</v>
-      </c>
-      <c r="O51" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="P51" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="Q51" t="n">
+      <c r="U51" t="n">
         <v>101.3</v>
       </c>
-      <c r="R51" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="S51" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="T51" t="n">
-        <v>119.4</v>
-      </c>
-      <c r="U51" t="n">
-        <v>96.09999999999999</v>
-      </c>
       <c r="V51" t="n">
-        <v>109.4</v>
+        <v>102.2</v>
       </c>
       <c r="W51" t="n">
-        <v>96.5</v>
+        <v>95</v>
       </c>
       <c r="X51" t="n">
-        <v>101.5</v>
+        <v>102.6</v>
       </c>
       <c r="Y51" t="n">
-        <v>98.5</v>
+        <v>98.7</v>
       </c>
       <c r="Z51" t="n">
-        <v>98.09999999999999</v>
+        <v>101.4</v>
       </c>
       <c r="AA51" t="n">
-        <v>100</v>
+        <v>94.5</v>
       </c>
       <c r="AB51" t="n">
-        <v>86.3</v>
+        <v>90.7</v>
       </c>
       <c r="AC51" t="n">
-        <v>99.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AD51" t="n">
-        <v>84</v>
+        <v>90.5</v>
       </c>
       <c r="AE51" t="n">
-        <v>98.3</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AF51" t="n">
-        <v>108.4</v>
+        <v>103.8</v>
       </c>
       <c r="AG51" t="n">
-        <v>105.2</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="AH51" t="n">
-        <v>97.90000000000001</v>
+        <v>101.6</v>
       </c>
       <c r="AI51" t="n">
-        <v>99.59999999999999</v>
+        <v>101.6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2015年第二季度</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>100.5</v>
+        <v>100</v>
       </c>
       <c r="C52" t="n">
+        <v>104.1</v>
+      </c>
+      <c r="D52" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="E52" t="n">
+        <v>92.59999999999999</v>
+      </c>
+      <c r="F52" t="n">
+        <v>96.8</v>
+      </c>
+      <c r="G52" t="n">
+        <v>105.9</v>
+      </c>
+      <c r="H52" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>105.5</v>
+      </c>
+      <c r="K52" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L52" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="M52" t="n">
+        <v>105.4</v>
+      </c>
+      <c r="N52" t="n">
+        <v>103.1</v>
+      </c>
+      <c r="O52" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="P52" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="S52" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="T52" t="n">
+        <v>119.4</v>
+      </c>
+      <c r="U52" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="V52" t="n">
+        <v>109.4</v>
+      </c>
+      <c r="W52" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="X52" t="n">
         <v>101.5</v>
       </c>
-      <c r="D52" t="n">
-        <v>102.2</v>
-      </c>
-      <c r="E52" t="n">
-        <v>91.8</v>
-      </c>
-      <c r="F52" t="n">
-        <v>101.4</v>
-      </c>
-      <c r="G52" t="n">
+      <c r="Y52" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>86.3</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>84</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>108.4</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>105.2</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="AI52" t="n">
         <v>99.59999999999999</v>
-      </c>
-      <c r="H52" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="I52" t="n">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="J52" t="n">
-        <v>95</v>
-      </c>
-      <c r="K52" t="n">
-        <v>92.09999999999999</v>
-      </c>
-      <c r="L52" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="M52" t="n">
-        <v>103</v>
-      </c>
-      <c r="N52" t="n">
-        <v>107.2</v>
-      </c>
-      <c r="O52" t="n">
-        <v>104.3</v>
-      </c>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="n">
-        <v>104.3</v>
-      </c>
-      <c r="R52" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="S52" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="T52" t="n">
-        <v>105.9</v>
-      </c>
-      <c r="U52" t="n">
-        <v>101.3</v>
-      </c>
-      <c r="V52" t="n">
-        <v>102.2</v>
-      </c>
-      <c r="W52" t="n">
-        <v>95</v>
-      </c>
-      <c r="X52" t="n">
-        <v>102.6</v>
-      </c>
-      <c r="Y52" t="n">
-        <v>98.7</v>
-      </c>
-      <c r="Z52" t="n">
-        <v>101.4</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="AB52" t="n">
-        <v>90.7</v>
-      </c>
-      <c r="AC52" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>90.5</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>103.8</v>
-      </c>
-      <c r="AG52" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="AH52" t="n">
-        <v>101.6</v>
-      </c>
-      <c r="AI52" t="n">
-        <v>101.6</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2015年第四季度</t>
+          <t>2015年D</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -5980,7 +5980,7 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2016年第一季度</t>
+          <t>2016年A</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -6087,217 +6087,217 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2016年第三季度</t>
+          <t>2016年B</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>97.32108599999999</v>
+        <v>95.46605700000001</v>
       </c>
       <c r="C55" t="n">
-        <v>100.4</v>
+        <v>107.696584</v>
       </c>
       <c r="D55" t="n">
-        <v>97.200002</v>
+        <v>98.780002</v>
       </c>
       <c r="E55" t="n">
-        <v>95.599997</v>
+        <v>95.289998</v>
       </c>
       <c r="F55" t="n">
-        <v>95.782736</v>
+        <v>91.373662</v>
       </c>
       <c r="G55" t="n">
-        <v>89.086409</v>
+        <v>100.764668</v>
       </c>
       <c r="H55" t="n">
-        <v>92.22124599999999</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>96.871748</v>
+      </c>
+      <c r="I55" t="n">
+        <v>87.37999600000001</v>
+      </c>
       <c r="J55" t="n">
-        <v>91.06</v>
+        <v>100.34</v>
       </c>
       <c r="K55" t="n">
-        <v>102.555351</v>
+        <v>95.755466</v>
       </c>
       <c r="L55" t="n">
-        <v>100.442852</v>
+        <v>99.90279700000001</v>
       </c>
       <c r="M55" t="n">
-        <v>102.493658</v>
+        <v>104.483962</v>
       </c>
       <c r="N55" t="n">
-        <v>104.474487</v>
+        <v>108.165112</v>
       </c>
       <c r="O55" t="n">
-        <v>103.545651</v>
+        <v>102.539681</v>
       </c>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="n">
-        <v>103.3</v>
+        <v>104.137345</v>
       </c>
       <c r="R55" t="n">
-        <v>96.065</v>
+        <v>89.449935</v>
       </c>
       <c r="S55" t="n">
-        <v>97.249663</v>
+        <v>102.094998</v>
       </c>
       <c r="T55" t="n">
-        <v>109.94</v>
+        <v>138.11</v>
       </c>
       <c r="U55" t="n">
-        <v>86.711169</v>
+        <v>84.679815</v>
       </c>
       <c r="V55" t="n">
-        <v>103.772422</v>
+        <v>121.447988</v>
       </c>
       <c r="W55" t="n">
-        <v>91.84143299999999</v>
+        <v>95.801827</v>
       </c>
       <c r="X55" t="n">
-        <v>97.538402</v>
+        <v>98.097992</v>
       </c>
       <c r="Y55" t="n">
-        <v>97.505</v>
+        <v>96.08500600000001</v>
       </c>
       <c r="Z55" t="n">
-        <v>94.26000000000001</v>
-      </c>
-      <c r="AA55" t="inlineStr"/>
+        <v>91.164</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>101.670001</v>
+      </c>
       <c r="AB55" t="n">
-        <v>93.203332</v>
+        <v>94.93273499999999</v>
       </c>
       <c r="AC55" t="n">
-        <v>99.169307</v>
+        <v>99.664365</v>
       </c>
       <c r="AD55" t="n">
-        <v>93.835679</v>
+        <v>93.637981</v>
       </c>
       <c r="AE55" t="n">
-        <v>100.259769</v>
+        <v>98.159025</v>
       </c>
       <c r="AF55" t="n">
-        <v>96.57116000000001</v>
+        <v>104.66931</v>
       </c>
       <c r="AG55" t="n">
-        <v>90.89465199999999</v>
+        <v>119.860507</v>
       </c>
       <c r="AH55" t="n">
-        <v>94.074465</v>
+        <v>89.034565</v>
       </c>
       <c r="AI55" t="n">
-        <v>98.063211</v>
+        <v>98.759985</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2016年第二季度</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>95.46605700000001</v>
+        <v>97.32108599999999</v>
       </c>
       <c r="C56" t="n">
-        <v>107.696584</v>
+        <v>100.4</v>
       </c>
       <c r="D56" t="n">
-        <v>98.780002</v>
+        <v>97.200002</v>
       </c>
       <c r="E56" t="n">
-        <v>95.289998</v>
+        <v>95.599997</v>
       </c>
       <c r="F56" t="n">
-        <v>91.373662</v>
+        <v>95.782736</v>
       </c>
       <c r="G56" t="n">
-        <v>100.764668</v>
+        <v>89.086409</v>
       </c>
       <c r="H56" t="n">
-        <v>96.871748</v>
-      </c>
-      <c r="I56" t="n">
-        <v>87.37999600000001</v>
-      </c>
+        <v>92.22124599999999</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>100.34</v>
+        <v>91.06</v>
       </c>
       <c r="K56" t="n">
-        <v>95.755466</v>
+        <v>102.555351</v>
       </c>
       <c r="L56" t="n">
-        <v>99.90279700000001</v>
+        <v>100.442852</v>
       </c>
       <c r="M56" t="n">
-        <v>104.483962</v>
+        <v>102.493658</v>
       </c>
       <c r="N56" t="n">
-        <v>108.165112</v>
+        <v>104.474487</v>
       </c>
       <c r="O56" t="n">
-        <v>102.539681</v>
+        <v>103.545651</v>
       </c>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="n">
-        <v>104.137345</v>
+        <v>103.3</v>
       </c>
       <c r="R56" t="n">
-        <v>89.449935</v>
+        <v>96.065</v>
       </c>
       <c r="S56" t="n">
-        <v>102.094998</v>
+        <v>97.249663</v>
       </c>
       <c r="T56" t="n">
-        <v>138.11</v>
+        <v>109.94</v>
       </c>
       <c r="U56" t="n">
-        <v>84.679815</v>
+        <v>86.711169</v>
       </c>
       <c r="V56" t="n">
-        <v>121.447988</v>
+        <v>103.772422</v>
       </c>
       <c r="W56" t="n">
-        <v>95.801827</v>
+        <v>91.84143299999999</v>
       </c>
       <c r="X56" t="n">
-        <v>98.097992</v>
+        <v>97.538402</v>
       </c>
       <c r="Y56" t="n">
-        <v>96.08500600000001</v>
+        <v>97.505</v>
       </c>
       <c r="Z56" t="n">
-        <v>91.164</v>
-      </c>
-      <c r="AA56" t="n">
-        <v>101.670001</v>
-      </c>
+        <v>94.26000000000001</v>
+      </c>
+      <c r="AA56" t="inlineStr"/>
       <c r="AB56" t="n">
-        <v>94.93273499999999</v>
+        <v>93.203332</v>
       </c>
       <c r="AC56" t="n">
-        <v>99.664365</v>
+        <v>99.169307</v>
       </c>
       <c r="AD56" t="n">
-        <v>93.637981</v>
+        <v>93.835679</v>
       </c>
       <c r="AE56" t="n">
-        <v>98.159025</v>
+        <v>100.259769</v>
       </c>
       <c r="AF56" t="n">
-        <v>104.66931</v>
+        <v>96.57116000000001</v>
       </c>
       <c r="AG56" t="n">
-        <v>119.860507</v>
+        <v>90.89465199999999</v>
       </c>
       <c r="AH56" t="n">
-        <v>89.034565</v>
+        <v>94.074465</v>
       </c>
       <c r="AI56" t="n">
-        <v>98.759985</v>
+        <v>98.063211</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2016年第四季度</t>
+          <t>2016年D</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -6404,7 +6404,7 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2017年第一季度</t>
+          <t>2017年A</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -6511,217 +6511,217 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2017年第三季度</t>
+          <t>2017年B</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>102.567629</v>
+        <v>98.22806300000001</v>
       </c>
       <c r="C59" t="n">
-        <v>96.774582</v>
+        <v>93.61555199999999</v>
       </c>
       <c r="D59" t="n">
-        <v>99.580005</v>
+        <v>98.780002</v>
       </c>
       <c r="E59" t="n">
-        <v>101.559998</v>
+        <v>99.230003</v>
       </c>
       <c r="F59" t="n">
-        <v>104.964766</v>
+        <v>105.538355</v>
       </c>
       <c r="G59" t="n">
-        <v>106.200821</v>
+        <v>110.191467</v>
       </c>
       <c r="H59" t="n">
-        <v>106.214583</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>109.739532</v>
+      </c>
+      <c r="I59" t="n">
+        <v>104.929998</v>
+      </c>
       <c r="J59" t="n">
-        <v>109.9</v>
+        <v>105.08</v>
       </c>
       <c r="K59" t="n">
-        <v>96.318039</v>
+        <v>111.298746</v>
       </c>
       <c r="L59" t="n">
-        <v>105.203375</v>
+        <v>100.240794</v>
       </c>
       <c r="M59" t="n">
-        <v>107.312348</v>
+        <v>106.194237</v>
       </c>
       <c r="N59" t="n">
-        <v>102.2924</v>
+        <v>106.498316</v>
       </c>
       <c r="O59" t="n">
-        <v>105.084701</v>
+        <v>105.88437</v>
       </c>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="n">
-        <v>103.934627</v>
+        <v>106.089486</v>
       </c>
       <c r="R59" t="n">
-        <v>102.805</v>
+        <v>92.91495399999999</v>
       </c>
       <c r="S59" t="n">
-        <v>99.590175</v>
+        <v>95.08000199999999</v>
       </c>
       <c r="T59" t="n">
-        <v>79.25</v>
+        <v>78.72</v>
       </c>
       <c r="U59" t="n">
-        <v>99.78</v>
+        <v>97.348523</v>
       </c>
       <c r="V59" t="n">
-        <v>87.996312</v>
+        <v>83.74395</v>
       </c>
       <c r="W59" t="n">
-        <v>98.78278299999999</v>
+        <v>83.555581</v>
       </c>
       <c r="X59" t="n">
-        <v>101.164078</v>
+        <v>99.28072899999999</v>
       </c>
       <c r="Y59" t="n">
-        <v>97.115003</v>
+        <v>98.72000199999999</v>
       </c>
       <c r="Z59" t="n">
-        <v>102.4689407</v>
-      </c>
-      <c r="AA59" t="inlineStr"/>
+        <v>98.90000000000001</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>107.690001</v>
+      </c>
       <c r="AB59" t="n">
-        <v>107.329998</v>
+        <v>102.954621</v>
       </c>
       <c r="AC59" t="n">
-        <v>97.266464</v>
+        <v>89.561482</v>
       </c>
       <c r="AD59" t="n">
-        <v>125.491384</v>
+        <v>132.562313</v>
       </c>
       <c r="AE59" t="n">
-        <v>102.630676</v>
+        <v>103.782495</v>
       </c>
       <c r="AF59" t="n">
-        <v>105.115403</v>
+        <v>87.760262</v>
       </c>
       <c r="AG59" t="n">
-        <v>105.984008</v>
+        <v>88.63116599999999</v>
       </c>
       <c r="AH59" t="n">
-        <v>102.81808</v>
+        <v>99.16871</v>
       </c>
       <c r="AI59" t="n">
-        <v>99.556247</v>
+        <v>99.532411</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2017年第二季度</t>
+          <t>2017年C</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>98.22806300000001</v>
+        <v>102.567629</v>
       </c>
       <c r="C60" t="n">
-        <v>93.61555199999999</v>
+        <v>96.774582</v>
       </c>
       <c r="D60" t="n">
-        <v>98.780002</v>
+        <v>99.580005</v>
       </c>
       <c r="E60" t="n">
-        <v>99.230003</v>
+        <v>101.559998</v>
       </c>
       <c r="F60" t="n">
-        <v>105.538355</v>
+        <v>104.964766</v>
       </c>
       <c r="G60" t="n">
-        <v>110.191467</v>
+        <v>106.200821</v>
       </c>
       <c r="H60" t="n">
-        <v>109.739532</v>
-      </c>
-      <c r="I60" t="n">
-        <v>104.929998</v>
-      </c>
+        <v>106.214583</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>105.08</v>
+        <v>109.9</v>
       </c>
       <c r="K60" t="n">
-        <v>111.298746</v>
+        <v>96.318039</v>
       </c>
       <c r="L60" t="n">
-        <v>100.240794</v>
+        <v>105.203375</v>
       </c>
       <c r="M60" t="n">
-        <v>106.194237</v>
+        <v>107.312348</v>
       </c>
       <c r="N60" t="n">
-        <v>106.498316</v>
+        <v>102.2924</v>
       </c>
       <c r="O60" t="n">
-        <v>105.88437</v>
+        <v>105.084701</v>
       </c>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="n">
-        <v>106.089486</v>
+        <v>103.934627</v>
       </c>
       <c r="R60" t="n">
-        <v>92.91495399999999</v>
+        <v>102.805</v>
       </c>
       <c r="S60" t="n">
-        <v>95.08000199999999</v>
+        <v>99.590175</v>
       </c>
       <c r="T60" t="n">
-        <v>78.72</v>
+        <v>79.25</v>
       </c>
       <c r="U60" t="n">
-        <v>97.348523</v>
+        <v>99.78</v>
       </c>
       <c r="V60" t="n">
-        <v>83.74395</v>
+        <v>87.996312</v>
       </c>
       <c r="W60" t="n">
-        <v>83.555581</v>
+        <v>98.78278299999999</v>
       </c>
       <c r="X60" t="n">
-        <v>99.28072899999999</v>
+        <v>101.164078</v>
       </c>
       <c r="Y60" t="n">
-        <v>98.72000199999999</v>
+        <v>97.115003</v>
       </c>
       <c r="Z60" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="AA60" t="n">
-        <v>107.690001</v>
-      </c>
+        <v>102.4689407</v>
+      </c>
+      <c r="AA60" t="inlineStr"/>
       <c r="AB60" t="n">
-        <v>102.954621</v>
+        <v>107.329998</v>
       </c>
       <c r="AC60" t="n">
-        <v>89.561482</v>
+        <v>97.266464</v>
       </c>
       <c r="AD60" t="n">
-        <v>132.562313</v>
+        <v>125.491384</v>
       </c>
       <c r="AE60" t="n">
-        <v>103.782495</v>
+        <v>102.630676</v>
       </c>
       <c r="AF60" t="n">
-        <v>87.760262</v>
+        <v>105.115403</v>
       </c>
       <c r="AG60" t="n">
-        <v>88.63116599999999</v>
+        <v>105.984008</v>
       </c>
       <c r="AH60" t="n">
-        <v>99.16871</v>
+        <v>102.81808</v>
       </c>
       <c r="AI60" t="n">
-        <v>99.532411</v>
+        <v>99.556247</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2017年第四季度</t>
+          <t>2017年D</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -6828,7 +6828,7 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2018年第一季度</t>
+          <t>2018年A</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -6935,213 +6935,213 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2018年第三季度</t>
+          <t>2018年B</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>100.520641</v>
+        <v>102.305354</v>
       </c>
       <c r="C63" t="n">
-        <v>100.281144</v>
+        <v>97.004504</v>
       </c>
       <c r="D63" t="n">
-        <v>95.930001</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="E63" t="n">
-        <v>100.76</v>
+        <v>100</v>
       </c>
       <c r="F63" t="n">
-        <v>97.252365</v>
+        <v>100.838891</v>
       </c>
       <c r="G63" t="n">
-        <v>101.798823</v>
+        <v>99.68894899999999</v>
       </c>
       <c r="H63" t="n">
-        <v>99.30443099999999</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>95.390298</v>
+      </c>
+      <c r="I63" t="n">
+        <v>98.049995</v>
+      </c>
       <c r="J63" t="n">
-        <v>125.24</v>
+        <v>112.08</v>
       </c>
       <c r="K63" t="n">
-        <v>105.410014</v>
+        <v>94.623581</v>
       </c>
       <c r="L63" t="n">
-        <v>100.77</v>
+        <v>98.5</v>
       </c>
       <c r="M63" t="n">
-        <v>100.145396</v>
+        <v>102.613091</v>
       </c>
       <c r="N63" t="n">
-        <v>103.395511</v>
+        <v>101.587779</v>
       </c>
       <c r="O63" t="n">
-        <v>100.136851</v>
+        <v>100.762539</v>
       </c>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="n">
-        <v>100.883999</v>
+        <v>101.373902</v>
       </c>
       <c r="R63" t="n">
-        <v>100.189998</v>
+        <v>93.179974</v>
       </c>
       <c r="S63" t="n">
-        <v>103.959926</v>
+        <v>107.514999</v>
       </c>
       <c r="T63" t="n">
-        <v>91.2</v>
+        <v>74.54000000000001</v>
       </c>
       <c r="U63" t="n">
-        <v>102.445881</v>
+        <v>107.820653</v>
       </c>
       <c r="V63" t="n">
-        <v>99.99385599999999</v>
+        <v>91.080309</v>
       </c>
       <c r="W63" t="n">
-        <v>118.613778</v>
+        <v>127.418106</v>
       </c>
       <c r="X63" t="n">
-        <v>96.136713</v>
+        <v>100.255896</v>
       </c>
       <c r="Y63" t="n">
-        <v>105.179999</v>
+        <v>95.18000600000001</v>
       </c>
       <c r="Z63" t="inlineStr"/>
-      <c r="AA63" t="inlineStr"/>
+      <c r="AA63" t="n">
+        <v>97.179997</v>
+      </c>
       <c r="AB63" t="n">
-        <v>118.133331</v>
+        <v>112.61219</v>
       </c>
       <c r="AC63" t="n">
-        <v>108.230573</v>
+        <v>109.450167</v>
       </c>
       <c r="AD63" t="n">
-        <v>83.565361</v>
+        <v>82.60008500000001</v>
       </c>
       <c r="AE63" t="n">
-        <v>100.732803</v>
+        <v>98.120604</v>
       </c>
       <c r="AF63" t="n">
-        <v>106.434177</v>
+        <v>105.209245</v>
       </c>
       <c r="AG63" t="n">
-        <v>110.255935</v>
+        <v>93.5</v>
       </c>
       <c r="AH63" t="n">
-        <v>98.19189</v>
+        <v>104.815374</v>
       </c>
       <c r="AI63" t="n">
-        <v>96.157899</v>
+        <v>96.90000000000001</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2018年第二季度</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>102.305354</v>
+        <v>100.520641</v>
       </c>
       <c r="C64" t="n">
-        <v>97.004504</v>
+        <v>100.281144</v>
       </c>
       <c r="D64" t="n">
-        <v>96.09999999999999</v>
+        <v>95.930001</v>
       </c>
       <c r="E64" t="n">
-        <v>100</v>
+        <v>100.76</v>
       </c>
       <c r="F64" t="n">
-        <v>100.838891</v>
+        <v>97.252365</v>
       </c>
       <c r="G64" t="n">
-        <v>99.68894899999999</v>
+        <v>101.798823</v>
       </c>
       <c r="H64" t="n">
-        <v>95.390298</v>
-      </c>
-      <c r="I64" t="n">
-        <v>98.049995</v>
-      </c>
+        <v>99.30443099999999</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>112.08</v>
+        <v>125.24</v>
       </c>
       <c r="K64" t="n">
-        <v>94.623581</v>
+        <v>105.410014</v>
       </c>
       <c r="L64" t="n">
-        <v>98.5</v>
+        <v>100.77</v>
       </c>
       <c r="M64" t="n">
-        <v>102.613091</v>
+        <v>100.145396</v>
       </c>
       <c r="N64" t="n">
-        <v>101.587779</v>
+        <v>103.395511</v>
       </c>
       <c r="O64" t="n">
-        <v>100.762539</v>
+        <v>100.136851</v>
       </c>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="n">
-        <v>101.373902</v>
+        <v>100.883999</v>
       </c>
       <c r="R64" t="n">
-        <v>93.179974</v>
+        <v>100.189998</v>
       </c>
       <c r="S64" t="n">
-        <v>107.514999</v>
+        <v>103.959926</v>
       </c>
       <c r="T64" t="n">
-        <v>74.54000000000001</v>
+        <v>91.2</v>
       </c>
       <c r="U64" t="n">
-        <v>107.820653</v>
+        <v>102.445881</v>
       </c>
       <c r="V64" t="n">
-        <v>91.080309</v>
+        <v>99.99385599999999</v>
       </c>
       <c r="W64" t="n">
-        <v>127.418106</v>
+        <v>118.613778</v>
       </c>
       <c r="X64" t="n">
-        <v>100.255896</v>
+        <v>96.136713</v>
       </c>
       <c r="Y64" t="n">
-        <v>95.18000600000001</v>
+        <v>105.179999</v>
       </c>
       <c r="Z64" t="inlineStr"/>
-      <c r="AA64" t="n">
-        <v>97.179997</v>
-      </c>
+      <c r="AA64" t="inlineStr"/>
       <c r="AB64" t="n">
-        <v>112.61219</v>
+        <v>118.133331</v>
       </c>
       <c r="AC64" t="n">
-        <v>109.450167</v>
+        <v>108.230573</v>
       </c>
       <c r="AD64" t="n">
-        <v>82.60008500000001</v>
+        <v>83.565361</v>
       </c>
       <c r="AE64" t="n">
-        <v>98.120604</v>
+        <v>100.732803</v>
       </c>
       <c r="AF64" t="n">
-        <v>105.209245</v>
+        <v>106.434177</v>
       </c>
       <c r="AG64" t="n">
-        <v>93.5</v>
+        <v>110.255935</v>
       </c>
       <c r="AH64" t="n">
-        <v>104.815374</v>
+        <v>98.19189</v>
       </c>
       <c r="AI64" t="n">
-        <v>96.90000000000001</v>
+        <v>96.157899</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2018年第四季度</t>
+          <t>2018年D</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -7246,7 +7246,7 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2019年第一季度</t>
+          <t>2019年A</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -7349,213 +7349,213 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2019年第三季度</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>101.1</v>
+        <v>103.316244</v>
       </c>
       <c r="C67" t="n">
-        <v>113.92</v>
+        <v>109.127512</v>
       </c>
       <c r="D67" t="n">
-        <v>100.87</v>
+        <v>103.589999</v>
       </c>
       <c r="E67" t="n">
-        <v>105.82</v>
+        <v>104.919998</v>
       </c>
       <c r="F67" t="n">
-        <v>98.09</v>
+        <v>100.09</v>
       </c>
       <c r="G67" t="n">
-        <v>96.65000000000001</v>
+        <v>101.040135</v>
       </c>
       <c r="H67" t="n">
-        <v>98.23</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>100.046973</v>
+      </c>
+      <c r="I67" t="n">
+        <v>99.26000000000001</v>
+      </c>
       <c r="J67" t="n">
-        <v>85.44</v>
+        <v>93.23999999999999</v>
       </c>
       <c r="K67" t="n">
-        <v>108.1</v>
+        <v>116.151567</v>
       </c>
       <c r="L67" t="n">
-        <v>105.29</v>
+        <v>102.304294</v>
       </c>
       <c r="M67" t="n">
-        <v>98.54000000000001</v>
+        <v>97.352844</v>
       </c>
       <c r="N67" t="n">
-        <v>102.57</v>
+        <v>100.828944</v>
       </c>
       <c r="O67" t="n">
-        <v>101.8</v>
+        <v>101.596452</v>
       </c>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="n">
-        <v>101.17</v>
+        <v>100.437433</v>
       </c>
       <c r="R67" t="n">
-        <v>103.45</v>
+        <v>103.610143</v>
       </c>
       <c r="S67" t="n">
-        <v>111.64</v>
+        <v>102.849999</v>
       </c>
       <c r="T67" t="n">
-        <v>149.27</v>
+        <v>128.09</v>
       </c>
       <c r="U67" t="n">
-        <v>101.26</v>
+        <v>101.90619</v>
       </c>
       <c r="V67" t="n">
-        <v>131.99</v>
+        <v>118.13174</v>
       </c>
       <c r="W67" t="n">
-        <v>103.21</v>
+        <v>101.783988</v>
       </c>
       <c r="X67" t="n">
-        <v>98.67</v>
+        <v>93.434139</v>
       </c>
       <c r="Y67" t="n">
-        <v>101.1</v>
+        <v>103.374999</v>
       </c>
       <c r="Z67" t="inlineStr"/>
-      <c r="AA67" t="inlineStr"/>
+      <c r="AA67" t="n">
+        <v>98.509995</v>
+      </c>
       <c r="AB67" t="n">
-        <v>114.2</v>
+        <v>108.398818</v>
       </c>
       <c r="AC67" t="n">
-        <v>109.46</v>
+        <v>105.449578</v>
       </c>
       <c r="AD67" t="n">
-        <v>98.5</v>
+        <v>98.709604</v>
       </c>
       <c r="AE67" t="n">
-        <v>101.01</v>
+        <v>103.117103</v>
       </c>
       <c r="AF67" t="n">
-        <v>99.91</v>
+        <v>108.395321</v>
       </c>
       <c r="AG67" t="n">
-        <v>105.57</v>
+        <v>117.755079</v>
       </c>
       <c r="AH67" t="n">
-        <v>99</v>
+        <v>99.380287</v>
       </c>
       <c r="AI67" t="n">
-        <v>105.36</v>
+        <v>104.132713</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2019年第二季度</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>103.316244</v>
+        <v>101.1</v>
       </c>
       <c r="C68" t="n">
-        <v>109.127512</v>
+        <v>113.92</v>
       </c>
       <c r="D68" t="n">
-        <v>103.589999</v>
+        <v>100.87</v>
       </c>
       <c r="E68" t="n">
-        <v>104.919998</v>
+        <v>105.82</v>
       </c>
       <c r="F68" t="n">
-        <v>100.09</v>
+        <v>98.09</v>
       </c>
       <c r="G68" t="n">
-        <v>101.040135</v>
+        <v>96.65000000000001</v>
       </c>
       <c r="H68" t="n">
-        <v>100.046973</v>
-      </c>
-      <c r="I68" t="n">
-        <v>99.26000000000001</v>
-      </c>
+        <v>98.23</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>93.23999999999999</v>
+        <v>85.44</v>
       </c>
       <c r="K68" t="n">
-        <v>116.151567</v>
+        <v>108.1</v>
       </c>
       <c r="L68" t="n">
-        <v>102.304294</v>
+        <v>105.29</v>
       </c>
       <c r="M68" t="n">
-        <v>97.352844</v>
+        <v>98.54000000000001</v>
       </c>
       <c r="N68" t="n">
-        <v>100.828944</v>
+        <v>102.57</v>
       </c>
       <c r="O68" t="n">
-        <v>101.596452</v>
+        <v>101.8</v>
       </c>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="n">
-        <v>100.437433</v>
+        <v>101.17</v>
       </c>
       <c r="R68" t="n">
-        <v>103.610143</v>
+        <v>103.45</v>
       </c>
       <c r="S68" t="n">
-        <v>102.849999</v>
+        <v>111.64</v>
       </c>
       <c r="T68" t="n">
-        <v>128.09</v>
+        <v>149.27</v>
       </c>
       <c r="U68" t="n">
-        <v>101.90619</v>
+        <v>101.26</v>
       </c>
       <c r="V68" t="n">
-        <v>118.13174</v>
+        <v>131.99</v>
       </c>
       <c r="W68" t="n">
-        <v>101.783988</v>
+        <v>103.21</v>
       </c>
       <c r="X68" t="n">
-        <v>93.434139</v>
+        <v>98.67</v>
       </c>
       <c r="Y68" t="n">
-        <v>103.374999</v>
+        <v>101.1</v>
       </c>
       <c r="Z68" t="inlineStr"/>
-      <c r="AA68" t="n">
-        <v>98.509995</v>
-      </c>
+      <c r="AA68" t="inlineStr"/>
       <c r="AB68" t="n">
-        <v>108.398818</v>
+        <v>114.2</v>
       </c>
       <c r="AC68" t="n">
-        <v>105.449578</v>
+        <v>109.46</v>
       </c>
       <c r="AD68" t="n">
-        <v>98.709604</v>
+        <v>98.5</v>
       </c>
       <c r="AE68" t="n">
-        <v>103.117103</v>
+        <v>101.01</v>
       </c>
       <c r="AF68" t="n">
-        <v>108.395321</v>
+        <v>99.91</v>
       </c>
       <c r="AG68" t="n">
-        <v>117.755079</v>
+        <v>105.57</v>
       </c>
       <c r="AH68" t="n">
-        <v>99.380287</v>
+        <v>99</v>
       </c>
       <c r="AI68" t="n">
-        <v>104.132713</v>
+        <v>105.36</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2019年第四季度</t>
+          <t>2019年D</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -7660,7 +7660,7 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2020年第一季度</t>
+          <t>2020年A</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -7763,213 +7763,213 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2020年第三季度</t>
+          <t>2020年B</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>102.8</v>
+        <v>100.46</v>
       </c>
       <c r="C71" t="n">
-        <v>114.8</v>
+        <v>121.14</v>
       </c>
       <c r="D71" t="n">
-        <v>104.4</v>
+        <v>109.62</v>
       </c>
       <c r="E71" t="n">
-        <v>102.1</v>
+        <v>99.73999999999999</v>
       </c>
       <c r="F71" t="n">
-        <v>98.8</v>
+        <v>101.84</v>
       </c>
       <c r="G71" t="n">
-        <v>94.3</v>
+        <v>95.92</v>
       </c>
       <c r="H71" t="n">
-        <v>97</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>97.28</v>
+      </c>
+      <c r="I71" t="n">
+        <v>93.65000000000001</v>
+      </c>
       <c r="J71" t="n">
-        <v>115.9</v>
+        <v>99</v>
       </c>
       <c r="K71" t="n">
-        <v>97</v>
+        <v>90.01000000000001</v>
       </c>
       <c r="L71" t="n">
-        <v>106.7</v>
+        <v>105.83</v>
       </c>
       <c r="M71" t="n">
-        <v>94.90000000000001</v>
+        <v>86.7</v>
       </c>
       <c r="N71" t="n">
-        <v>103</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="O71" t="n">
-        <v>103.5</v>
+        <v>100.42</v>
       </c>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="n">
-        <v>101.3</v>
+        <v>96.5</v>
       </c>
       <c r="R71" t="n">
-        <v>104.4</v>
+        <v>96.76000000000001</v>
       </c>
       <c r="S71" t="n">
-        <v>108.9</v>
+        <v>112.56</v>
       </c>
       <c r="T71" t="n">
-        <v>159</v>
+        <v>189.29</v>
       </c>
       <c r="U71" t="n">
-        <v>108.5</v>
+        <v>104.81</v>
       </c>
       <c r="V71" t="n">
-        <v>132.4</v>
+        <v>150.31</v>
       </c>
       <c r="W71" t="n">
-        <v>83.3</v>
+        <v>85.86</v>
       </c>
       <c r="X71" t="n">
-        <v>102.3</v>
+        <v>101.22</v>
       </c>
       <c r="Y71" t="n">
-        <v>99.59999999999999</v>
+        <v>97.92</v>
       </c>
       <c r="Z71" t="inlineStr"/>
-      <c r="AA71" t="inlineStr"/>
+      <c r="AA71" t="n">
+        <v>106.76</v>
+      </c>
       <c r="AB71" t="n">
-        <v>110.3</v>
+        <v>110.18</v>
       </c>
       <c r="AC71" t="n">
-        <v>94.3</v>
+        <v>89.45</v>
       </c>
       <c r="AD71" t="n">
-        <v>102.4</v>
+        <v>97.39</v>
       </c>
       <c r="AE71" t="n">
-        <v>98.2</v>
+        <v>96.53</v>
       </c>
       <c r="AF71" t="n">
-        <v>109.1</v>
+        <v>96.79000000000001</v>
       </c>
       <c r="AG71" t="n">
-        <v>100.3</v>
+        <v>102.83</v>
       </c>
       <c r="AH71" t="n">
-        <v>102.1</v>
+        <v>103.64</v>
       </c>
       <c r="AI71" t="n">
-        <v>103.9</v>
+        <v>109.43</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2020年第二季度</t>
+          <t>2020年C</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>100.46</v>
+        <v>102.8</v>
       </c>
       <c r="C72" t="n">
-        <v>121.14</v>
+        <v>114.8</v>
       </c>
       <c r="D72" t="n">
-        <v>109.62</v>
+        <v>104.4</v>
       </c>
       <c r="E72" t="n">
-        <v>99.73999999999999</v>
+        <v>102.1</v>
       </c>
       <c r="F72" t="n">
-        <v>101.84</v>
+        <v>98.8</v>
       </c>
       <c r="G72" t="n">
-        <v>95.92</v>
+        <v>94.3</v>
       </c>
       <c r="H72" t="n">
-        <v>97.28</v>
-      </c>
-      <c r="I72" t="n">
-        <v>93.65000000000001</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>99</v>
+        <v>115.9</v>
       </c>
       <c r="K72" t="n">
-        <v>90.01000000000001</v>
+        <v>97</v>
       </c>
       <c r="L72" t="n">
-        <v>105.83</v>
+        <v>106.7</v>
       </c>
       <c r="M72" t="n">
-        <v>86.7</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="N72" t="n">
-        <v>99.90000000000001</v>
+        <v>103</v>
       </c>
       <c r="O72" t="n">
-        <v>100.42</v>
+        <v>103.5</v>
       </c>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="n">
-        <v>96.5</v>
+        <v>101.3</v>
       </c>
       <c r="R72" t="n">
-        <v>96.76000000000001</v>
+        <v>104.4</v>
       </c>
       <c r="S72" t="n">
-        <v>112.56</v>
+        <v>108.9</v>
       </c>
       <c r="T72" t="n">
-        <v>189.29</v>
+        <v>159</v>
       </c>
       <c r="U72" t="n">
-        <v>104.81</v>
+        <v>108.5</v>
       </c>
       <c r="V72" t="n">
-        <v>150.31</v>
+        <v>132.4</v>
       </c>
       <c r="W72" t="n">
-        <v>85.86</v>
+        <v>83.3</v>
       </c>
       <c r="X72" t="n">
-        <v>101.22</v>
+        <v>102.3</v>
       </c>
       <c r="Y72" t="n">
-        <v>97.92</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="Z72" t="inlineStr"/>
-      <c r="AA72" t="n">
-        <v>106.76</v>
-      </c>
+      <c r="AA72" t="inlineStr"/>
       <c r="AB72" t="n">
-        <v>110.18</v>
+        <v>110.3</v>
       </c>
       <c r="AC72" t="n">
-        <v>89.45</v>
+        <v>94.3</v>
       </c>
       <c r="AD72" t="n">
-        <v>97.39</v>
+        <v>102.4</v>
       </c>
       <c r="AE72" t="n">
-        <v>96.53</v>
+        <v>98.2</v>
       </c>
       <c r="AF72" t="n">
-        <v>96.79000000000001</v>
+        <v>109.1</v>
       </c>
       <c r="AG72" t="n">
-        <v>102.83</v>
+        <v>100.3</v>
       </c>
       <c r="AH72" t="n">
-        <v>103.64</v>
+        <v>102.1</v>
       </c>
       <c r="AI72" t="n">
-        <v>109.43</v>
+        <v>103.9</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2020年第四季度</t>
+          <t>2020年D</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -8074,7 +8074,7 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2021年第一季度</t>
+          <t>2021年A</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -8179,213 +8179,213 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2021年第三季度</t>
+          <t>2021年B</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>106.49775988</v>
+        <v>111.3</v>
       </c>
       <c r="C75" t="n">
-        <v>92.02578778</v>
+        <v>100.1</v>
       </c>
       <c r="D75" t="n">
-        <v>109.32555423</v>
+        <v>116</v>
       </c>
       <c r="E75" t="n">
-        <v>107.35181105</v>
+        <v>111.1</v>
       </c>
       <c r="F75" t="n">
-        <v>108.47780289</v>
+        <v>103.8</v>
       </c>
       <c r="G75" t="n">
-        <v>105.32690224</v>
+        <v>102.3</v>
       </c>
       <c r="H75" t="n">
-        <v>106.59449398</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>104.7</v>
+      </c>
+      <c r="I75" t="n">
+        <v>114.8</v>
+      </c>
       <c r="J75" t="n">
-        <v>110.591598</v>
+        <v>118.4</v>
       </c>
       <c r="K75" t="n">
-        <v>104.83543805</v>
+        <v>99.5</v>
       </c>
       <c r="L75" t="n">
-        <v>106.31510958</v>
+        <v>103.5</v>
       </c>
       <c r="M75" t="n">
-        <v>108.0943448</v>
+        <v>113.6</v>
       </c>
       <c r="N75" t="n">
-        <v>100.88046473</v>
+        <v>103.7</v>
       </c>
       <c r="O75" t="n">
-        <v>115.23813391</v>
+        <v>124.1</v>
       </c>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="n">
-        <v>110.18686485</v>
+        <v>117.3</v>
       </c>
       <c r="R75" t="n">
-        <v>105.72132528</v>
+        <v>111.6</v>
       </c>
       <c r="S75" t="n">
-        <v>102.86387324</v>
+        <v>105.8</v>
       </c>
       <c r="T75" t="n">
-        <v>44.47691081</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="U75" t="n">
-        <v>121.04239263</v>
+        <v>132.8</v>
       </c>
       <c r="V75" t="n">
-        <v>71.02976968</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="W75" t="n">
-        <v>117.64943105</v>
+        <v>116.2</v>
       </c>
       <c r="X75" t="n">
-        <v>102.47008617</v>
+        <v>100.8</v>
       </c>
       <c r="Y75" t="n">
-        <v>108.96662808</v>
+        <v>106.4</v>
       </c>
       <c r="Z75" t="inlineStr"/>
-      <c r="AA75" t="inlineStr"/>
+      <c r="AA75" t="n">
+        <v>99.09999999999999</v>
+      </c>
       <c r="AB75" t="n">
-        <v>99.95929151999999</v>
+        <v>105.5</v>
       </c>
       <c r="AC75" t="n">
-        <v>103.1098719</v>
+        <v>105.4</v>
       </c>
       <c r="AD75" t="n">
-        <v>113.93204504</v>
+        <v>115.2</v>
       </c>
       <c r="AE75" t="n">
-        <v>100.90488607</v>
+        <v>103.5</v>
       </c>
       <c r="AF75" t="n">
-        <v>98.15744918</v>
+        <v>100</v>
       </c>
       <c r="AG75" t="n">
-        <v>91.44369702</v>
+        <v>86.3</v>
       </c>
       <c r="AH75" t="n">
-        <v>109.78198473</v>
+        <v>120</v>
       </c>
       <c r="AI75" t="n">
-        <v>109.28874641</v>
+        <v>114.6</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2021年第二季度</t>
+          <t>2021年C</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>111.3</v>
+        <v>106.49775988</v>
       </c>
       <c r="C76" t="n">
-        <v>100.1</v>
+        <v>92.02578778</v>
       </c>
       <c r="D76" t="n">
-        <v>116</v>
+        <v>109.32555423</v>
       </c>
       <c r="E76" t="n">
-        <v>111.1</v>
+        <v>107.35181105</v>
       </c>
       <c r="F76" t="n">
-        <v>103.8</v>
+        <v>108.47780289</v>
       </c>
       <c r="G76" t="n">
-        <v>102.3</v>
+        <v>105.32690224</v>
       </c>
       <c r="H76" t="n">
-        <v>104.7</v>
-      </c>
-      <c r="I76" t="n">
-        <v>114.8</v>
-      </c>
+        <v>106.59449398</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>118.4</v>
+        <v>110.591598</v>
       </c>
       <c r="K76" t="n">
-        <v>99.5</v>
+        <v>104.83543805</v>
       </c>
       <c r="L76" t="n">
-        <v>103.5</v>
+        <v>106.31510958</v>
       </c>
       <c r="M76" t="n">
-        <v>113.6</v>
+        <v>108.0943448</v>
       </c>
       <c r="N76" t="n">
-        <v>103.7</v>
+        <v>100.88046473</v>
       </c>
       <c r="O76" t="n">
-        <v>124.1</v>
+        <v>115.23813391</v>
       </c>
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="n">
-        <v>117.3</v>
+        <v>110.18686485</v>
       </c>
       <c r="R76" t="n">
-        <v>111.6</v>
+        <v>105.72132528</v>
       </c>
       <c r="S76" t="n">
-        <v>105.8</v>
+        <v>102.86387324</v>
       </c>
       <c r="T76" t="n">
-        <v>66.59999999999999</v>
+        <v>44.47691081</v>
       </c>
       <c r="U76" t="n">
-        <v>132.8</v>
+        <v>121.04239263</v>
       </c>
       <c r="V76" t="n">
-        <v>84.40000000000001</v>
+        <v>71.02976968</v>
       </c>
       <c r="W76" t="n">
-        <v>116.2</v>
+        <v>117.64943105</v>
       </c>
       <c r="X76" t="n">
-        <v>100.8</v>
+        <v>102.47008617</v>
       </c>
       <c r="Y76" t="n">
-        <v>106.4</v>
+        <v>108.96662808</v>
       </c>
       <c r="Z76" t="inlineStr"/>
-      <c r="AA76" t="n">
-        <v>99.09999999999999</v>
-      </c>
+      <c r="AA76" t="inlineStr"/>
       <c r="AB76" t="n">
-        <v>105.5</v>
+        <v>99.95929151999999</v>
       </c>
       <c r="AC76" t="n">
-        <v>105.4</v>
+        <v>103.1098719</v>
       </c>
       <c r="AD76" t="n">
-        <v>115.2</v>
+        <v>113.93204504</v>
       </c>
       <c r="AE76" t="n">
-        <v>103.5</v>
+        <v>100.90488607</v>
       </c>
       <c r="AF76" t="n">
-        <v>100</v>
+        <v>98.15744918</v>
       </c>
       <c r="AG76" t="n">
-        <v>86.3</v>
+        <v>91.44369702</v>
       </c>
       <c r="AH76" t="n">
-        <v>120</v>
+        <v>109.78198473</v>
       </c>
       <c r="AI76" t="n">
-        <v>114.6</v>
+        <v>109.28874641</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2021年第四季度</t>
+          <t>2021年D</t>
         </is>
       </c>
       <c r="B77" t="n">

--- a/data_quarter/zb/价格指数/农产品生产者价格指数（上年同期=100）.xlsx
+++ b/data_quarter/zb/价格指数/农产品生产者价格指数（上年同期=100）.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -436,12 +436,12 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>农业产品生产价格指数_当季值（上年同期=100）</t>
+          <t>农业产品生产者价格指数_当季值（上年同期=100）</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>农产品生产价格指数_当季值（上年同期=100）</t>
+          <t>农产品生产者价格指数_当季值（上年同期=100）</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -705,195 +705,195 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2003年B</t>
+          <t>2003年C</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>106.7327</v>
+        <v>102.9058</v>
       </c>
       <c r="C3" t="n">
-        <v>102.6538</v>
+        <v>102.0535</v>
       </c>
       <c r="D3" t="n">
-        <v>121.54</v>
+        <v>116.77</v>
       </c>
       <c r="E3" t="n">
-        <v>99.9678</v>
+        <v>104.6919</v>
       </c>
       <c r="F3" t="n">
-        <v>103.2</v>
+        <v>100.69</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>101.2353</v>
+        <v>112.7925</v>
       </c>
       <c r="I3" t="n">
-        <v>131.6683</v>
+        <v>127.9109</v>
       </c>
       <c r="J3" t="n">
-        <v>92.9216</v>
+        <v>98.1339</v>
       </c>
       <c r="K3" t="n">
-        <v>98.6906</v>
+        <v>104.9112</v>
       </c>
       <c r="L3" t="n">
-        <v>125.8324</v>
+        <v>120.5537</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="n">
-        <v>98.99469999999999</v>
+        <v>97.7671</v>
       </c>
       <c r="R3" t="n">
-        <v>105.9859</v>
+        <v>92.25660000000001</v>
       </c>
       <c r="S3" t="n">
-        <v>103.4888</v>
+        <v>98.91930000000001</v>
       </c>
       <c r="T3" t="n">
-        <v>99.8813</v>
+        <v>102.0943</v>
       </c>
       <c r="U3" t="n">
-        <v>103.44</v>
+        <v>103.27</v>
       </c>
       <c r="V3" t="n">
-        <v>99.0806</v>
+        <v>101.4922</v>
       </c>
       <c r="W3" t="n">
-        <v>98.7392</v>
+        <v>102.2691</v>
       </c>
       <c r="X3" t="n">
-        <v>97.29000000000001</v>
+        <v>97.81</v>
       </c>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="n">
-        <v>103.9</v>
+        <v>101.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>87.13549999999999</v>
+        <v>87.563</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.2899</v>
+        <v>94.0056</v>
       </c>
       <c r="AC3" t="n">
-        <v>94.1704</v>
+        <v>104.5857</v>
       </c>
       <c r="AD3" t="n">
-        <v>117.3</v>
+        <v>124.4</v>
       </c>
       <c r="AE3" t="n">
-        <v>96.86539999999999</v>
+        <v>96.371</v>
       </c>
       <c r="AF3" t="n">
-        <v>108.4729</v>
+        <v>99.21720000000001</v>
       </c>
       <c r="AG3" t="n">
-        <v>94.8811</v>
+        <v>84.92189999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>101.5133</v>
+        <v>100.145</v>
       </c>
       <c r="AI3" t="n">
-        <v>120.9245</v>
+        <v>114.8045</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2003年C</t>
+          <t>2003年B</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>102.9058</v>
+        <v>106.7327</v>
       </c>
       <c r="C4" t="n">
-        <v>102.0535</v>
+        <v>102.6538</v>
       </c>
       <c r="D4" t="n">
-        <v>116.77</v>
+        <v>121.54</v>
       </c>
       <c r="E4" t="n">
-        <v>104.6919</v>
+        <v>99.9678</v>
       </c>
       <c r="F4" t="n">
-        <v>100.69</v>
+        <v>103.2</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>112.7925</v>
+        <v>101.2353</v>
       </c>
       <c r="I4" t="n">
-        <v>127.9109</v>
+        <v>131.6683</v>
       </c>
       <c r="J4" t="n">
-        <v>98.1339</v>
+        <v>92.9216</v>
       </c>
       <c r="K4" t="n">
-        <v>104.9112</v>
+        <v>98.6906</v>
       </c>
       <c r="L4" t="n">
-        <v>120.5537</v>
+        <v>125.8324</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="n">
-        <v>97.7671</v>
+        <v>98.99469999999999</v>
       </c>
       <c r="R4" t="n">
-        <v>92.25660000000001</v>
+        <v>105.9859</v>
       </c>
       <c r="S4" t="n">
-        <v>98.91930000000001</v>
+        <v>103.4888</v>
       </c>
       <c r="T4" t="n">
-        <v>102.0943</v>
+        <v>99.8813</v>
       </c>
       <c r="U4" t="n">
-        <v>103.27</v>
+        <v>103.44</v>
       </c>
       <c r="V4" t="n">
-        <v>101.4922</v>
+        <v>99.0806</v>
       </c>
       <c r="W4" t="n">
-        <v>102.2691</v>
+        <v>98.7392</v>
       </c>
       <c r="X4" t="n">
-        <v>97.81</v>
+        <v>97.29000000000001</v>
       </c>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="n">
-        <v>101.5</v>
+        <v>103.9</v>
       </c>
       <c r="AA4" t="n">
-        <v>87.563</v>
+        <v>87.13549999999999</v>
       </c>
       <c r="AB4" t="n">
-        <v>94.0056</v>
+        <v>100.2899</v>
       </c>
       <c r="AC4" t="n">
-        <v>104.5857</v>
+        <v>94.1704</v>
       </c>
       <c r="AD4" t="n">
-        <v>124.4</v>
+        <v>117.3</v>
       </c>
       <c r="AE4" t="n">
-        <v>96.371</v>
+        <v>96.86539999999999</v>
       </c>
       <c r="AF4" t="n">
-        <v>99.21720000000001</v>
+        <v>108.4729</v>
       </c>
       <c r="AG4" t="n">
-        <v>84.92189999999999</v>
+        <v>94.8811</v>
       </c>
       <c r="AH4" t="n">
-        <v>100.145</v>
+        <v>101.5133</v>
       </c>
       <c r="AI4" t="n">
-        <v>114.8045</v>
+        <v>120.9245</v>
       </c>
     </row>
     <row r="5">
@@ -1097,199 +1097,199 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2004年B</t>
+          <t>2004年C</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>117.37</v>
+        <v>122.26</v>
       </c>
       <c r="C7" t="n">
-        <v>110.89</v>
+        <v>114.71</v>
       </c>
       <c r="D7" t="n">
-        <v>127.48</v>
+        <v>122.66</v>
       </c>
       <c r="E7" t="n">
-        <v>102.13</v>
+        <v>103.87</v>
       </c>
       <c r="F7" t="n">
-        <v>138.13</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
+        <v>137.74</v>
+      </c>
+      <c r="G7" t="n">
+        <v>102.9</v>
+      </c>
       <c r="H7" t="n">
-        <v>108.91</v>
+        <v>103.84</v>
       </c>
       <c r="I7" t="n">
-        <v>122.61</v>
+        <v>95.55</v>
       </c>
       <c r="J7" t="n">
-        <v>112.29</v>
+        <v>103.99</v>
       </c>
       <c r="K7" t="n">
-        <v>101.09</v>
+        <v>97.18000000000001</v>
       </c>
       <c r="L7" t="n">
-        <v>121.61</v>
+        <v>115.2</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="n">
-        <v>111.91</v>
+        <v>112.08</v>
       </c>
       <c r="R7" t="n">
-        <v>107</v>
+        <v>112.91</v>
       </c>
       <c r="S7" t="n">
-        <v>103.77</v>
+        <v>106.1</v>
       </c>
       <c r="T7" t="n">
-        <v>100.76</v>
+        <v>104.28</v>
       </c>
       <c r="U7" t="n">
-        <v>118.97</v>
+        <v>124.49</v>
       </c>
       <c r="V7" t="n">
-        <v>103.87</v>
+        <v>107.05</v>
       </c>
       <c r="W7" t="n">
-        <v>111.77</v>
+        <v>118.07</v>
       </c>
       <c r="X7" t="n">
-        <v>141.42</v>
-      </c>
-      <c r="Y7" t="inlineStr"/>
+        <v>143.12</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>106.06</v>
+      </c>
       <c r="Z7" t="n">
-        <v>128.55</v>
+        <v>135.09</v>
       </c>
       <c r="AA7" t="n">
-        <v>104.59</v>
+        <v>103.2</v>
       </c>
       <c r="AB7" t="n">
-        <v>104.3</v>
+        <v>105.74</v>
       </c>
       <c r="AC7" t="n">
-        <v>109.76</v>
+        <v>115.97</v>
       </c>
       <c r="AD7" t="n">
-        <v>108.91</v>
+        <v>104.02</v>
       </c>
       <c r="AE7" t="n">
-        <v>116.86</v>
+        <v>108.14</v>
       </c>
       <c r="AF7" t="n">
-        <v>102.56</v>
+        <v>116.33</v>
       </c>
       <c r="AG7" t="n">
-        <v>101.94</v>
+        <v>111.1</v>
       </c>
       <c r="AH7" t="n">
-        <v>129.98</v>
+        <v>137.26</v>
       </c>
       <c r="AI7" t="n">
-        <v>127.09</v>
+        <v>121.86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2004年C</t>
+          <t>2004年B</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>122.26</v>
+        <v>117.37</v>
       </c>
       <c r="C8" t="n">
-        <v>114.71</v>
+        <v>110.89</v>
       </c>
       <c r="D8" t="n">
-        <v>122.66</v>
+        <v>127.48</v>
       </c>
       <c r="E8" t="n">
-        <v>103.87</v>
+        <v>102.13</v>
       </c>
       <c r="F8" t="n">
-        <v>137.74</v>
-      </c>
-      <c r="G8" t="n">
-        <v>102.9</v>
-      </c>
+        <v>138.13</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>103.84</v>
+        <v>108.91</v>
       </c>
       <c r="I8" t="n">
-        <v>95.55</v>
+        <v>122.61</v>
       </c>
       <c r="J8" t="n">
-        <v>103.99</v>
+        <v>112.29</v>
       </c>
       <c r="K8" t="n">
-        <v>97.18000000000001</v>
+        <v>101.09</v>
       </c>
       <c r="L8" t="n">
-        <v>115.2</v>
+        <v>121.61</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="n">
-        <v>112.08</v>
+        <v>111.91</v>
       </c>
       <c r="R8" t="n">
-        <v>112.91</v>
+        <v>107</v>
       </c>
       <c r="S8" t="n">
-        <v>106.1</v>
+        <v>103.77</v>
       </c>
       <c r="T8" t="n">
-        <v>104.28</v>
+        <v>100.76</v>
       </c>
       <c r="U8" t="n">
-        <v>124.49</v>
+        <v>118.97</v>
       </c>
       <c r="V8" t="n">
-        <v>107.05</v>
+        <v>103.87</v>
       </c>
       <c r="W8" t="n">
-        <v>118.07</v>
+        <v>111.77</v>
       </c>
       <c r="X8" t="n">
-        <v>143.12</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>106.06</v>
-      </c>
+        <v>141.42</v>
+      </c>
+      <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="n">
-        <v>135.09</v>
+        <v>128.55</v>
       </c>
       <c r="AA8" t="n">
-        <v>103.2</v>
+        <v>104.59</v>
       </c>
       <c r="AB8" t="n">
-        <v>105.74</v>
+        <v>104.3</v>
       </c>
       <c r="AC8" t="n">
-        <v>115.97</v>
+        <v>109.76</v>
       </c>
       <c r="AD8" t="n">
-        <v>104.02</v>
+        <v>108.91</v>
       </c>
       <c r="AE8" t="n">
-        <v>108.14</v>
+        <v>116.86</v>
       </c>
       <c r="AF8" t="n">
-        <v>116.33</v>
+        <v>102.56</v>
       </c>
       <c r="AG8" t="n">
-        <v>111.1</v>
+        <v>101.94</v>
       </c>
       <c r="AH8" t="n">
-        <v>137.26</v>
+        <v>129.98</v>
       </c>
       <c r="AI8" t="n">
-        <v>121.86</v>
+        <v>127.09</v>
       </c>
     </row>
     <row r="9">
@@ -1497,203 +1497,203 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2005年B</t>
+          <t>2005年C</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>100.59</v>
+        <v>100.6</v>
       </c>
       <c r="C11" t="n">
-        <v>101.75</v>
+        <v>99.72</v>
       </c>
       <c r="D11" t="n">
-        <v>94.02</v>
+        <v>90.89</v>
       </c>
       <c r="E11" t="n">
-        <v>99.31999999999999</v>
+        <v>99.06</v>
       </c>
       <c r="F11" t="n">
-        <v>99.06999999999999</v>
+        <v>95.81</v>
       </c>
       <c r="G11" t="n">
-        <v>104.54</v>
+        <v>105.06</v>
       </c>
       <c r="H11" t="n">
-        <v>102.45</v>
+        <v>104.42</v>
       </c>
       <c r="I11" t="n">
-        <v>87.05</v>
+        <v>106</v>
       </c>
       <c r="J11" t="n">
-        <v>106.47</v>
+        <v>106.72</v>
       </c>
       <c r="K11" t="n">
-        <v>107.27</v>
+        <v>108.87</v>
       </c>
       <c r="L11" t="n">
-        <v>88.7</v>
+        <v>89.02</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="n">
-        <v>103.95</v>
+        <v>103.76</v>
       </c>
       <c r="R11" t="n">
-        <v>106.58</v>
+        <v>100.8</v>
       </c>
       <c r="S11" t="n">
-        <v>101.37</v>
+        <v>101.6</v>
       </c>
       <c r="T11" t="n">
-        <v>100.6</v>
+        <v>90.88</v>
       </c>
       <c r="U11" t="n">
-        <v>97.64</v>
+        <v>95.67</v>
       </c>
       <c r="V11" t="n">
-        <v>102.52</v>
+        <v>96.78</v>
       </c>
       <c r="W11" t="n">
-        <v>107.48</v>
+        <v>105.77</v>
       </c>
       <c r="X11" t="n">
-        <v>101.41</v>
+        <v>98.34999999999999</v>
       </c>
       <c r="Y11" t="n">
-        <v>100.57</v>
+        <v>105.14</v>
       </c>
       <c r="Z11" t="n">
-        <v>99.45999999999999</v>
+        <v>96.78</v>
       </c>
       <c r="AA11" t="n">
-        <v>104.16</v>
+        <v>94.93000000000001</v>
       </c>
       <c r="AB11" t="n">
-        <v>102.21</v>
+        <v>100.08</v>
       </c>
       <c r="AC11" t="n">
-        <v>107.23</v>
+        <v>105.61</v>
       </c>
       <c r="AD11" t="n">
-        <v>101.5</v>
+        <v>104.11</v>
       </c>
       <c r="AE11" t="n">
-        <v>107.79</v>
+        <v>108.87</v>
       </c>
       <c r="AF11" t="n">
-        <v>105.65</v>
+        <v>109.41</v>
       </c>
       <c r="AG11" t="n">
-        <v>106.47</v>
+        <v>102.92</v>
       </c>
       <c r="AH11" t="n">
-        <v>99.73999999999999</v>
+        <v>97.11</v>
       </c>
       <c r="AI11" t="n">
-        <v>95.41</v>
+        <v>92.73999999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2005年C</t>
+          <t>2005年B</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>100.6</v>
+        <v>100.59</v>
       </c>
       <c r="C12" t="n">
-        <v>99.72</v>
+        <v>101.75</v>
       </c>
       <c r="D12" t="n">
-        <v>90.89</v>
+        <v>94.02</v>
       </c>
       <c r="E12" t="n">
-        <v>99.06</v>
+        <v>99.31999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>95.81</v>
+        <v>99.06999999999999</v>
       </c>
       <c r="G12" t="n">
-        <v>105.06</v>
+        <v>104.54</v>
       </c>
       <c r="H12" t="n">
-        <v>104.42</v>
+        <v>102.45</v>
       </c>
       <c r="I12" t="n">
-        <v>106</v>
+        <v>87.05</v>
       </c>
       <c r="J12" t="n">
-        <v>106.72</v>
+        <v>106.47</v>
       </c>
       <c r="K12" t="n">
-        <v>108.87</v>
+        <v>107.27</v>
       </c>
       <c r="L12" t="n">
-        <v>89.02</v>
+        <v>88.7</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="n">
-        <v>103.76</v>
+        <v>103.95</v>
       </c>
       <c r="R12" t="n">
-        <v>100.8</v>
+        <v>106.58</v>
       </c>
       <c r="S12" t="n">
-        <v>101.6</v>
+        <v>101.37</v>
       </c>
       <c r="T12" t="n">
-        <v>90.88</v>
+        <v>100.6</v>
       </c>
       <c r="U12" t="n">
-        <v>95.67</v>
+        <v>97.64</v>
       </c>
       <c r="V12" t="n">
-        <v>96.78</v>
+        <v>102.52</v>
       </c>
       <c r="W12" t="n">
-        <v>105.77</v>
+        <v>107.48</v>
       </c>
       <c r="X12" t="n">
-        <v>98.34999999999999</v>
+        <v>101.41</v>
       </c>
       <c r="Y12" t="n">
-        <v>105.14</v>
+        <v>100.57</v>
       </c>
       <c r="Z12" t="n">
-        <v>96.78</v>
+        <v>99.45999999999999</v>
       </c>
       <c r="AA12" t="n">
-        <v>94.93000000000001</v>
+        <v>104.16</v>
       </c>
       <c r="AB12" t="n">
-        <v>100.08</v>
+        <v>102.21</v>
       </c>
       <c r="AC12" t="n">
-        <v>105.61</v>
+        <v>107.23</v>
       </c>
       <c r="AD12" t="n">
-        <v>104.11</v>
+        <v>101.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>108.87</v>
+        <v>107.79</v>
       </c>
       <c r="AF12" t="n">
-        <v>109.41</v>
+        <v>105.65</v>
       </c>
       <c r="AG12" t="n">
-        <v>102.92</v>
+        <v>106.47</v>
       </c>
       <c r="AH12" t="n">
-        <v>97.11</v>
+        <v>99.73999999999999</v>
       </c>
       <c r="AI12" t="n">
-        <v>92.73999999999999</v>
+        <v>95.41</v>
       </c>
     </row>
     <row r="13">
@@ -1901,203 +1901,203 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2006年B</t>
+          <t>2006年C</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>105.09</v>
+        <v>103.41</v>
       </c>
       <c r="C15" t="n">
-        <v>97.90000000000001</v>
+        <v>100.84</v>
       </c>
       <c r="D15" t="n">
-        <v>94.29000000000001</v>
+        <v>99</v>
       </c>
       <c r="E15" t="n">
-        <v>103.99</v>
+        <v>101.16</v>
       </c>
       <c r="F15" t="n">
-        <v>96.15000000000001</v>
+        <v>100.96</v>
       </c>
       <c r="G15" t="n">
-        <v>104.5</v>
+        <v>107.22</v>
       </c>
       <c r="H15" t="n">
-        <v>112.14</v>
+        <v>117.49</v>
       </c>
       <c r="I15" t="n">
-        <v>113.35</v>
+        <v>105.47</v>
       </c>
       <c r="J15" t="n">
-        <v>108.15</v>
+        <v>104.26</v>
       </c>
       <c r="K15" t="n">
-        <v>118.64</v>
+        <v>103.53</v>
       </c>
       <c r="L15" t="n">
-        <v>99.28</v>
+        <v>105.71</v>
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="n">
-        <v>104.01</v>
+        <v>101.85</v>
       </c>
       <c r="R15" t="n">
-        <v>93.06</v>
+        <v>102.03</v>
       </c>
       <c r="S15" t="n">
-        <v>99.31999999999999</v>
+        <v>100.91</v>
       </c>
       <c r="T15" t="n">
-        <v>76.56999999999999</v>
+        <v>90.37</v>
       </c>
       <c r="U15" t="n">
-        <v>101.19</v>
+        <v>107.53</v>
       </c>
       <c r="V15" t="n">
-        <v>84.83</v>
+        <v>94.94</v>
       </c>
       <c r="W15" t="n">
-        <v>87.37</v>
+        <v>97.76000000000001</v>
       </c>
       <c r="X15" t="n">
-        <v>101.02</v>
+        <v>101.92</v>
       </c>
       <c r="Y15" t="n">
-        <v>109.97</v>
+        <v>120.41</v>
       </c>
       <c r="Z15" t="n">
-        <v>99.76000000000001</v>
+        <v>103.14</v>
       </c>
       <c r="AA15" t="n">
-        <v>130.25</v>
+        <v>108.73</v>
       </c>
       <c r="AB15" t="n">
-        <v>101.09</v>
+        <v>100.2</v>
       </c>
       <c r="AC15" t="n">
-        <v>88.36</v>
+        <v>100.74</v>
       </c>
       <c r="AD15" t="n">
-        <v>115.25</v>
+        <v>122.26</v>
       </c>
       <c r="AE15" t="n">
-        <v>107.28</v>
+        <v>105.7</v>
       </c>
       <c r="AF15" t="n">
-        <v>111.16</v>
+        <v>102.33</v>
       </c>
       <c r="AG15" t="n">
-        <v>113.44</v>
+        <v>104.61</v>
       </c>
       <c r="AH15" t="n">
-        <v>99.77</v>
+        <v>103.59</v>
       </c>
       <c r="AI15" t="n">
-        <v>95.03</v>
+        <v>99.95</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2006年C</t>
+          <t>2006年B</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>103.41</v>
+        <v>105.09</v>
       </c>
       <c r="C16" t="n">
-        <v>100.84</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>99</v>
+        <v>94.29000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>101.16</v>
+        <v>103.99</v>
       </c>
       <c r="F16" t="n">
-        <v>100.96</v>
+        <v>96.15000000000001</v>
       </c>
       <c r="G16" t="n">
-        <v>107.22</v>
+        <v>104.5</v>
       </c>
       <c r="H16" t="n">
-        <v>117.49</v>
+        <v>112.14</v>
       </c>
       <c r="I16" t="n">
-        <v>105.47</v>
+        <v>113.35</v>
       </c>
       <c r="J16" t="n">
-        <v>104.26</v>
+        <v>108.15</v>
       </c>
       <c r="K16" t="n">
-        <v>103.53</v>
+        <v>118.64</v>
       </c>
       <c r="L16" t="n">
-        <v>105.71</v>
+        <v>99.28</v>
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="n">
-        <v>101.85</v>
+        <v>104.01</v>
       </c>
       <c r="R16" t="n">
-        <v>102.03</v>
+        <v>93.06</v>
       </c>
       <c r="S16" t="n">
-        <v>100.91</v>
+        <v>99.31999999999999</v>
       </c>
       <c r="T16" t="n">
-        <v>90.37</v>
+        <v>76.56999999999999</v>
       </c>
       <c r="U16" t="n">
-        <v>107.53</v>
+        <v>101.19</v>
       </c>
       <c r="V16" t="n">
-        <v>94.94</v>
+        <v>84.83</v>
       </c>
       <c r="W16" t="n">
-        <v>97.76000000000001</v>
+        <v>87.37</v>
       </c>
       <c r="X16" t="n">
-        <v>101.92</v>
+        <v>101.02</v>
       </c>
       <c r="Y16" t="n">
-        <v>120.41</v>
+        <v>109.97</v>
       </c>
       <c r="Z16" t="n">
-        <v>103.14</v>
+        <v>99.76000000000001</v>
       </c>
       <c r="AA16" t="n">
-        <v>108.73</v>
+        <v>130.25</v>
       </c>
       <c r="AB16" t="n">
-        <v>100.2</v>
+        <v>101.09</v>
       </c>
       <c r="AC16" t="n">
-        <v>100.74</v>
+        <v>88.36</v>
       </c>
       <c r="AD16" t="n">
-        <v>122.26</v>
+        <v>115.25</v>
       </c>
       <c r="AE16" t="n">
-        <v>105.7</v>
+        <v>107.28</v>
       </c>
       <c r="AF16" t="n">
-        <v>102.33</v>
+        <v>111.16</v>
       </c>
       <c r="AG16" t="n">
-        <v>104.61</v>
+        <v>113.44</v>
       </c>
       <c r="AH16" t="n">
-        <v>103.59</v>
+        <v>99.77</v>
       </c>
       <c r="AI16" t="n">
-        <v>99.95</v>
+        <v>95.03</v>
       </c>
     </row>
     <row r="17">
@@ -2305,203 +2305,203 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2007年B</t>
+          <t>2007年C</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.98</v>
+        <v>108.58</v>
       </c>
       <c r="C19" t="n">
-        <v>110.18</v>
+        <v>120.72</v>
       </c>
       <c r="D19" t="n">
-        <v>108.35</v>
+        <v>110.54</v>
       </c>
       <c r="E19" t="n">
-        <v>101.64</v>
+        <v>104.74</v>
       </c>
       <c r="F19" t="n">
-        <v>104.79</v>
+        <v>105.12</v>
       </c>
       <c r="G19" t="n">
-        <v>109.53</v>
+        <v>107.19</v>
       </c>
       <c r="H19" t="n">
-        <v>103.37</v>
+        <v>101.54</v>
       </c>
       <c r="I19" t="n">
-        <v>99.09999999999999</v>
+        <v>104.9</v>
       </c>
       <c r="J19" t="n">
-        <v>105.3</v>
+        <v>106.4</v>
       </c>
       <c r="K19" t="n">
-        <v>95.15000000000001</v>
+        <v>103.4</v>
       </c>
       <c r="L19" t="n">
-        <v>128.47</v>
+        <v>123.65</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="n">
-        <v>106.1</v>
+        <v>108.73</v>
       </c>
       <c r="R19" t="n">
-        <v>101.85</v>
+        <v>103.01</v>
       </c>
       <c r="S19" t="n">
-        <v>109.12</v>
+        <v>117.4</v>
       </c>
       <c r="T19" t="n">
-        <v>125.74</v>
+        <v>164.78</v>
       </c>
       <c r="U19" t="n">
-        <v>114.43</v>
+        <v>112.85</v>
       </c>
       <c r="V19" t="n">
-        <v>117.76</v>
+        <v>142.61</v>
       </c>
       <c r="W19" t="n">
-        <v>116.54</v>
+        <v>116.05</v>
       </c>
       <c r="X19" t="n">
-        <v>104.48</v>
+        <v>104.03</v>
       </c>
       <c r="Y19" t="n">
-        <v>112.8</v>
+        <v>108.66</v>
       </c>
       <c r="Z19" t="n">
-        <v>107.63</v>
+        <v>107.99</v>
       </c>
       <c r="AA19" t="n">
+        <v>94.27</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>119.08</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>118.16</v>
+      </c>
+      <c r="AD19" t="n">
         <v>98.84</v>
       </c>
-      <c r="AB19" t="n">
-        <v>110.27</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>114.89</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>100.43</v>
-      </c>
       <c r="AE19" t="n">
-        <v>135.21</v>
+        <v>121.03</v>
       </c>
       <c r="AF19" t="n">
-        <v>100.24</v>
+        <v>110.21</v>
       </c>
       <c r="AG19" t="n">
-        <v>99.37</v>
+        <v>109.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>108</v>
+        <v>107.52</v>
       </c>
       <c r="AI19" t="n">
-        <v>108.26</v>
+        <v>110.24</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2007年C</t>
+          <t>2007年B</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>108.58</v>
+        <v>105.98</v>
       </c>
       <c r="C20" t="n">
-        <v>120.72</v>
+        <v>110.18</v>
       </c>
       <c r="D20" t="n">
-        <v>110.54</v>
+        <v>108.35</v>
       </c>
       <c r="E20" t="n">
-        <v>104.74</v>
+        <v>101.64</v>
       </c>
       <c r="F20" t="n">
-        <v>105.12</v>
+        <v>104.79</v>
       </c>
       <c r="G20" t="n">
-        <v>107.19</v>
+        <v>109.53</v>
       </c>
       <c r="H20" t="n">
-        <v>101.54</v>
+        <v>103.37</v>
       </c>
       <c r="I20" t="n">
-        <v>104.9</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="J20" t="n">
-        <v>106.4</v>
+        <v>105.3</v>
       </c>
       <c r="K20" t="n">
-        <v>103.4</v>
+        <v>95.15000000000001</v>
       </c>
       <c r="L20" t="n">
-        <v>123.65</v>
+        <v>128.47</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="n">
-        <v>108.73</v>
+        <v>106.1</v>
       </c>
       <c r="R20" t="n">
-        <v>103.01</v>
+        <v>101.85</v>
       </c>
       <c r="S20" t="n">
-        <v>117.4</v>
+        <v>109.12</v>
       </c>
       <c r="T20" t="n">
-        <v>164.78</v>
+        <v>125.74</v>
       </c>
       <c r="U20" t="n">
-        <v>112.85</v>
+        <v>114.43</v>
       </c>
       <c r="V20" t="n">
-        <v>142.61</v>
+        <v>117.76</v>
       </c>
       <c r="W20" t="n">
-        <v>116.05</v>
+        <v>116.54</v>
       </c>
       <c r="X20" t="n">
-        <v>104.03</v>
+        <v>104.48</v>
       </c>
       <c r="Y20" t="n">
-        <v>108.66</v>
+        <v>112.8</v>
       </c>
       <c r="Z20" t="n">
-        <v>107.99</v>
+        <v>107.63</v>
       </c>
       <c r="AA20" t="n">
-        <v>94.27</v>
+        <v>98.84</v>
       </c>
       <c r="AB20" t="n">
-        <v>119.08</v>
+        <v>110.27</v>
       </c>
       <c r="AC20" t="n">
-        <v>118.16</v>
+        <v>114.89</v>
       </c>
       <c r="AD20" t="n">
-        <v>98.84</v>
+        <v>100.43</v>
       </c>
       <c r="AE20" t="n">
-        <v>121.03</v>
+        <v>135.21</v>
       </c>
       <c r="AF20" t="n">
-        <v>110.21</v>
+        <v>100.24</v>
       </c>
       <c r="AG20" t="n">
-        <v>109.5</v>
+        <v>99.37</v>
       </c>
       <c r="AH20" t="n">
-        <v>107.52</v>
+        <v>108</v>
       </c>
       <c r="AI20" t="n">
-        <v>110.24</v>
+        <v>108.26</v>
       </c>
     </row>
     <row r="21">
@@ -2709,203 +2709,203 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2008年B</t>
+          <t>2008年C</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>113.27</v>
+        <v>109.99</v>
       </c>
       <c r="C23" t="n">
-        <v>121.15</v>
+        <v>112.56</v>
       </c>
       <c r="D23" t="n">
-        <v>139.84</v>
+        <v>136.53</v>
       </c>
       <c r="E23" t="n">
-        <v>131.66</v>
+        <v>124.73</v>
       </c>
       <c r="F23" t="n">
-        <v>107.76</v>
+        <v>109.55</v>
       </c>
       <c r="G23" t="n">
-        <v>110.49</v>
+        <v>107.3</v>
       </c>
       <c r="H23" t="n">
-        <v>111.49</v>
+        <v>112.11</v>
       </c>
       <c r="I23" t="n">
-        <v>112.1</v>
+        <v>100.6</v>
       </c>
       <c r="J23" t="n">
-        <v>91.19</v>
+        <v>87.5</v>
       </c>
       <c r="K23" t="n">
-        <v>114.97</v>
+        <v>108.6</v>
       </c>
       <c r="L23" t="n">
-        <v>140.08</v>
+        <v>132.16</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="n">
-        <v>112.73</v>
+        <v>112.94</v>
       </c>
       <c r="R23" t="n">
-        <v>114.32</v>
+        <v>119.13</v>
       </c>
       <c r="S23" t="n">
-        <v>130.75</v>
+        <v>121.6</v>
       </c>
       <c r="T23" t="n">
-        <v>148.36</v>
+        <v>117.42</v>
       </c>
       <c r="U23" t="n">
-        <v>110.29</v>
+        <v>107.83</v>
       </c>
       <c r="V23" t="n">
-        <v>135.15</v>
+        <v>115.87</v>
       </c>
       <c r="W23" t="n">
-        <v>112.97</v>
+        <v>110.12</v>
       </c>
       <c r="X23" t="n">
-        <v>106.93</v>
+        <v>111.72</v>
       </c>
       <c r="Y23" t="n">
-        <v>108.75</v>
+        <v>108.51</v>
       </c>
       <c r="Z23" t="n">
-        <v>112.62</v>
+        <v>113.15</v>
       </c>
       <c r="AA23" t="n">
-        <v>99.31</v>
+        <v>100.11</v>
       </c>
       <c r="AB23" t="n">
-        <v>128.85</v>
+        <v>122.53</v>
       </c>
       <c r="AC23" t="n">
-        <v>115.2</v>
+        <v>111.13</v>
       </c>
       <c r="AD23" t="n">
-        <v>111.97</v>
+        <v>114.38</v>
       </c>
       <c r="AE23" t="n">
-        <v>84.20999999999999</v>
+        <v>75.63</v>
       </c>
       <c r="AF23" t="n">
-        <v>108.61</v>
+        <v>99.83</v>
       </c>
       <c r="AG23" t="n">
-        <v>115.88</v>
+        <v>110.78</v>
       </c>
       <c r="AH23" t="n">
-        <v>108.5</v>
+        <v>109.96</v>
       </c>
       <c r="AI23" t="n">
-        <v>135.92</v>
+        <v>132.87</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2008年C</t>
+          <t>2008年B</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>109.99</v>
+        <v>113.27</v>
       </c>
       <c r="C24" t="n">
-        <v>112.56</v>
+        <v>121.15</v>
       </c>
       <c r="D24" t="n">
-        <v>136.53</v>
+        <v>139.84</v>
       </c>
       <c r="E24" t="n">
-        <v>124.73</v>
+        <v>131.66</v>
       </c>
       <c r="F24" t="n">
-        <v>109.55</v>
+        <v>107.76</v>
       </c>
       <c r="G24" t="n">
-        <v>107.3</v>
+        <v>110.49</v>
       </c>
       <c r="H24" t="n">
-        <v>112.11</v>
+        <v>111.49</v>
       </c>
       <c r="I24" t="n">
-        <v>100.6</v>
+        <v>112.1</v>
       </c>
       <c r="J24" t="n">
-        <v>87.5</v>
+        <v>91.19</v>
       </c>
       <c r="K24" t="n">
-        <v>108.6</v>
+        <v>114.97</v>
       </c>
       <c r="L24" t="n">
-        <v>132.16</v>
+        <v>140.08</v>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="n">
-        <v>112.94</v>
+        <v>112.73</v>
       </c>
       <c r="R24" t="n">
-        <v>119.13</v>
+        <v>114.32</v>
       </c>
       <c r="S24" t="n">
-        <v>121.6</v>
+        <v>130.75</v>
       </c>
       <c r="T24" t="n">
-        <v>117.42</v>
+        <v>148.36</v>
       </c>
       <c r="U24" t="n">
-        <v>107.83</v>
+        <v>110.29</v>
       </c>
       <c r="V24" t="n">
-        <v>115.87</v>
+        <v>135.15</v>
       </c>
       <c r="W24" t="n">
-        <v>110.12</v>
+        <v>112.97</v>
       </c>
       <c r="X24" t="n">
-        <v>111.72</v>
+        <v>106.93</v>
       </c>
       <c r="Y24" t="n">
-        <v>108.51</v>
+        <v>108.75</v>
       </c>
       <c r="Z24" t="n">
-        <v>113.15</v>
+        <v>112.62</v>
       </c>
       <c r="AA24" t="n">
-        <v>100.11</v>
+        <v>99.31</v>
       </c>
       <c r="AB24" t="n">
-        <v>122.53</v>
+        <v>128.85</v>
       </c>
       <c r="AC24" t="n">
-        <v>111.13</v>
+        <v>115.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>114.38</v>
+        <v>111.97</v>
       </c>
       <c r="AE24" t="n">
-        <v>75.63</v>
+        <v>84.20999999999999</v>
       </c>
       <c r="AF24" t="n">
-        <v>99.83</v>
+        <v>108.61</v>
       </c>
       <c r="AG24" t="n">
-        <v>110.78</v>
+        <v>115.88</v>
       </c>
       <c r="AH24" t="n">
-        <v>109.96</v>
+        <v>108.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>132.87</v>
+        <v>135.92</v>
       </c>
     </row>
     <row r="25">
@@ -3113,203 +3113,203 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2009年B</t>
+          <t>2009年C</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>100.97</v>
+        <v>104.12</v>
       </c>
       <c r="C27" t="n">
-        <v>93.39</v>
+        <v>97.33</v>
       </c>
       <c r="D27" t="n">
-        <v>83.81</v>
+        <v>85.84</v>
       </c>
       <c r="E27" t="n">
-        <v>86.67</v>
+        <v>91.8</v>
       </c>
       <c r="F27" t="n">
-        <v>109.34</v>
+        <v>107.47</v>
       </c>
       <c r="G27" t="n">
-        <v>93.77</v>
+        <v>94.53</v>
       </c>
       <c r="H27" t="n">
-        <v>86.73</v>
+        <v>96.52</v>
       </c>
       <c r="I27" t="n">
-        <v>87.64</v>
+        <v>102.05</v>
       </c>
       <c r="J27" t="n">
-        <v>85.91</v>
+        <v>88.84</v>
       </c>
       <c r="K27" t="n">
-        <v>114.4</v>
+        <v>106.4</v>
       </c>
       <c r="L27" t="n">
-        <v>75.81999999999999</v>
+        <v>79.59</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="n">
-        <v>99.31999999999999</v>
+        <v>98.33</v>
       </c>
       <c r="R27" t="n">
-        <v>100.71</v>
+        <v>104.17</v>
       </c>
       <c r="S27" t="n">
-        <v>99.41</v>
+        <v>100.73</v>
       </c>
       <c r="T27" t="n">
-        <v>68.48</v>
+        <v>78.17</v>
       </c>
       <c r="U27" t="n">
-        <v>95.52</v>
+        <v>102.43</v>
       </c>
       <c r="V27" t="n">
-        <v>82.7</v>
+        <v>88.31999999999999</v>
       </c>
       <c r="W27" t="n">
-        <v>102.6</v>
+        <v>102.87</v>
       </c>
       <c r="X27" t="n">
-        <v>106.59</v>
+        <v>104.52</v>
       </c>
       <c r="Y27" t="n">
-        <v>99.76000000000001</v>
+        <v>97.31999999999999</v>
       </c>
       <c r="Z27" t="n">
-        <v>100.7</v>
+        <v>102.11</v>
       </c>
       <c r="AA27" t="n">
-        <v>94.8</v>
+        <v>100.83</v>
       </c>
       <c r="AB27" t="n">
-        <v>100.25</v>
+        <v>100.83</v>
       </c>
       <c r="AC27" t="n">
-        <v>101.64</v>
+        <v>101.51</v>
       </c>
       <c r="AD27" t="n">
-        <v>83.34999999999999</v>
+        <v>97.44</v>
       </c>
       <c r="AE27" t="n">
-        <v>97.91</v>
+        <v>101.58</v>
       </c>
       <c r="AF27" t="n">
-        <v>110.62</v>
+        <v>118.27</v>
       </c>
       <c r="AG27" t="n">
-        <v>102.12</v>
+        <v>104.52</v>
       </c>
       <c r="AH27" t="n">
-        <v>103.23</v>
+        <v>104.35</v>
       </c>
       <c r="AI27" t="n">
-        <v>85.2</v>
+        <v>87.98999999999999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2009年C</t>
+          <t>2009年B</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>104.12</v>
+        <v>100.97</v>
       </c>
       <c r="C28" t="n">
-        <v>97.33</v>
+        <v>93.39</v>
       </c>
       <c r="D28" t="n">
-        <v>85.84</v>
+        <v>83.81</v>
       </c>
       <c r="E28" t="n">
-        <v>91.8</v>
+        <v>86.67</v>
       </c>
       <c r="F28" t="n">
-        <v>107.47</v>
+        <v>109.34</v>
       </c>
       <c r="G28" t="n">
-        <v>94.53</v>
+        <v>93.77</v>
       </c>
       <c r="H28" t="n">
-        <v>96.52</v>
+        <v>86.73</v>
       </c>
       <c r="I28" t="n">
-        <v>102.05</v>
+        <v>87.64</v>
       </c>
       <c r="J28" t="n">
-        <v>88.84</v>
+        <v>85.91</v>
       </c>
       <c r="K28" t="n">
-        <v>106.4</v>
+        <v>114.4</v>
       </c>
       <c r="L28" t="n">
-        <v>79.59</v>
+        <v>75.81999999999999</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="n">
-        <v>98.33</v>
+        <v>99.31999999999999</v>
       </c>
       <c r="R28" t="n">
-        <v>104.17</v>
+        <v>100.71</v>
       </c>
       <c r="S28" t="n">
-        <v>100.73</v>
+        <v>99.41</v>
       </c>
       <c r="T28" t="n">
-        <v>78.17</v>
+        <v>68.48</v>
       </c>
       <c r="U28" t="n">
-        <v>102.43</v>
+        <v>95.52</v>
       </c>
       <c r="V28" t="n">
-        <v>88.31999999999999</v>
+        <v>82.7</v>
       </c>
       <c r="W28" t="n">
-        <v>102.87</v>
+        <v>102.6</v>
       </c>
       <c r="X28" t="n">
-        <v>104.52</v>
+        <v>106.59</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.31999999999999</v>
+        <v>99.76000000000001</v>
       </c>
       <c r="Z28" t="n">
-        <v>102.11</v>
+        <v>100.7</v>
       </c>
       <c r="AA28" t="n">
-        <v>100.83</v>
+        <v>94.8</v>
       </c>
       <c r="AB28" t="n">
-        <v>100.83</v>
+        <v>100.25</v>
       </c>
       <c r="AC28" t="n">
-        <v>101.51</v>
+        <v>101.64</v>
       </c>
       <c r="AD28" t="n">
-        <v>97.44</v>
+        <v>83.34999999999999</v>
       </c>
       <c r="AE28" t="n">
-        <v>101.58</v>
+        <v>97.91</v>
       </c>
       <c r="AF28" t="n">
-        <v>118.27</v>
+        <v>110.62</v>
       </c>
       <c r="AG28" t="n">
-        <v>104.52</v>
+        <v>102.12</v>
       </c>
       <c r="AH28" t="n">
-        <v>104.35</v>
+        <v>103.23</v>
       </c>
       <c r="AI28" t="n">
-        <v>87.98999999999999</v>
+        <v>85.2</v>
       </c>
     </row>
     <row r="29">
@@ -3517,203 +3517,203 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2010年B</t>
+          <t>2010年C</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>114.89</v>
+        <v>113.71</v>
       </c>
       <c r="C31" t="n">
-        <v>108.95</v>
+        <v>110.57</v>
       </c>
       <c r="D31" t="n">
-        <v>106.95</v>
+        <v>108.94</v>
       </c>
       <c r="E31" t="n">
-        <v>116.83</v>
+        <v>116.44</v>
       </c>
       <c r="F31" t="n">
-        <v>107.39</v>
+        <v>107.45</v>
       </c>
       <c r="G31" t="n">
-        <v>107.41</v>
+        <v>107.47</v>
       </c>
       <c r="H31" t="n">
-        <v>122.11</v>
+        <v>122.73</v>
       </c>
       <c r="I31" t="n">
-        <v>121.52</v>
+        <v>125.1</v>
       </c>
       <c r="J31" t="n">
-        <v>126.03</v>
+        <v>127.68</v>
       </c>
       <c r="K31" t="n">
-        <v>115.49</v>
+        <v>107.85</v>
       </c>
       <c r="L31" t="n">
-        <v>112.43</v>
+        <v>111.08</v>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="n">
-        <v>108.36</v>
+        <v>108.46</v>
       </c>
       <c r="R31" t="n">
-        <v>103.53</v>
+        <v>103.15</v>
       </c>
       <c r="S31" t="n">
-        <v>102.74</v>
+        <v>104.07</v>
       </c>
       <c r="T31" t="n">
-        <v>93.97</v>
+        <v>102.34</v>
       </c>
       <c r="U31" t="n">
-        <v>119.36</v>
+        <v>115.35</v>
       </c>
       <c r="V31" t="n">
-        <v>99.59</v>
+        <v>105.44</v>
       </c>
       <c r="W31" t="n">
-        <v>104.5</v>
+        <v>108.34</v>
       </c>
       <c r="X31" t="n">
-        <v>111.76</v>
+        <v>111.91</v>
       </c>
       <c r="Y31" t="n">
-        <v>108.87</v>
+        <v>104.94</v>
       </c>
       <c r="Z31" t="n">
-        <v>114.12</v>
+        <v>112.72</v>
       </c>
       <c r="AA31" t="n">
-        <v>97.19</v>
+        <v>113.14</v>
       </c>
       <c r="AB31" t="n">
-        <v>108.54</v>
+        <v>109.66</v>
       </c>
       <c r="AC31" t="n">
-        <v>103.74</v>
+        <v>108.68</v>
       </c>
       <c r="AD31" t="n">
-        <v>129.07</v>
+        <v>129.98</v>
       </c>
       <c r="AE31" t="n">
-        <v>124.1</v>
+        <v>119.71</v>
       </c>
       <c r="AF31" t="n">
-        <v>116.91</v>
+        <v>117.01</v>
       </c>
       <c r="AG31" t="n">
-        <v>136.98</v>
+        <v>123.8</v>
       </c>
       <c r="AH31" t="n">
-        <v>113.44</v>
+        <v>112.07</v>
       </c>
       <c r="AI31" t="n">
-        <v>110.33</v>
+        <v>112.77</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2010年C</t>
+          <t>2010年B</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>113.71</v>
+        <v>114.89</v>
       </c>
       <c r="C32" t="n">
-        <v>110.57</v>
+        <v>108.95</v>
       </c>
       <c r="D32" t="n">
-        <v>108.94</v>
+        <v>106.95</v>
       </c>
       <c r="E32" t="n">
-        <v>116.44</v>
+        <v>116.83</v>
       </c>
       <c r="F32" t="n">
-        <v>107.45</v>
+        <v>107.39</v>
       </c>
       <c r="G32" t="n">
-        <v>107.47</v>
+        <v>107.41</v>
       </c>
       <c r="H32" t="n">
-        <v>122.73</v>
+        <v>122.11</v>
       </c>
       <c r="I32" t="n">
-        <v>125.1</v>
+        <v>121.52</v>
       </c>
       <c r="J32" t="n">
-        <v>127.68</v>
+        <v>126.03</v>
       </c>
       <c r="K32" t="n">
-        <v>107.85</v>
+        <v>115.49</v>
       </c>
       <c r="L32" t="n">
-        <v>111.08</v>
+        <v>112.43</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="n">
-        <v>108.46</v>
+        <v>108.36</v>
       </c>
       <c r="R32" t="n">
-        <v>103.15</v>
+        <v>103.53</v>
       </c>
       <c r="S32" t="n">
-        <v>104.07</v>
+        <v>102.74</v>
       </c>
       <c r="T32" t="n">
-        <v>102.34</v>
+        <v>93.97</v>
       </c>
       <c r="U32" t="n">
-        <v>115.35</v>
+        <v>119.36</v>
       </c>
       <c r="V32" t="n">
-        <v>105.44</v>
+        <v>99.59</v>
       </c>
       <c r="W32" t="n">
-        <v>108.34</v>
+        <v>104.5</v>
       </c>
       <c r="X32" t="n">
-        <v>111.91</v>
+        <v>111.76</v>
       </c>
       <c r="Y32" t="n">
-        <v>104.94</v>
+        <v>108.87</v>
       </c>
       <c r="Z32" t="n">
-        <v>112.72</v>
+        <v>114.12</v>
       </c>
       <c r="AA32" t="n">
-        <v>113.14</v>
+        <v>97.19</v>
       </c>
       <c r="AB32" t="n">
-        <v>109.66</v>
+        <v>108.54</v>
       </c>
       <c r="AC32" t="n">
-        <v>108.68</v>
+        <v>103.74</v>
       </c>
       <c r="AD32" t="n">
-        <v>129.98</v>
+        <v>129.07</v>
       </c>
       <c r="AE32" t="n">
-        <v>119.71</v>
+        <v>124.1</v>
       </c>
       <c r="AF32" t="n">
-        <v>117.01</v>
+        <v>116.91</v>
       </c>
       <c r="AG32" t="n">
-        <v>123.8</v>
+        <v>136.98</v>
       </c>
       <c r="AH32" t="n">
-        <v>112.07</v>
+        <v>113.44</v>
       </c>
       <c r="AI32" t="n">
-        <v>112.77</v>
+        <v>110.33</v>
       </c>
     </row>
     <row r="33">
@@ -3929,217 +3929,217 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2011年B</t>
+          <t>2011年C</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>108.6</v>
+        <v>109</v>
       </c>
       <c r="C35" t="n">
-        <v>118.03</v>
+        <v>120.5</v>
       </c>
       <c r="D35" t="n">
-        <v>106</v>
+        <v>109.3</v>
       </c>
       <c r="E35" t="n">
-        <v>108.64</v>
+        <v>106.87</v>
       </c>
       <c r="F35" t="n">
-        <v>106.4</v>
+        <v>103.8</v>
       </c>
       <c r="G35" t="n">
-        <v>110.13</v>
+        <v>109.9</v>
       </c>
       <c r="H35" t="n">
-        <v>118.43</v>
-      </c>
-      <c r="I35" t="n">
-        <v>141</v>
-      </c>
+        <v>113.98</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>119.1</v>
+        <v>116.93</v>
       </c>
       <c r="K35" t="n">
-        <v>104.8</v>
+        <v>105</v>
       </c>
       <c r="L35" t="n">
-        <v>114.3</v>
+        <v>116</v>
       </c>
       <c r="M35" t="n">
-        <v>112.58</v>
+        <v>112.32</v>
       </c>
       <c r="N35" t="n">
-        <v>109.15</v>
+        <v>112.64</v>
       </c>
       <c r="O35" t="n">
-        <v>109.13</v>
+        <v>112.32</v>
       </c>
       <c r="P35" t="n">
-        <v>107.04</v>
+        <v>103.08</v>
       </c>
       <c r="Q35" t="n">
-        <v>109.83</v>
+        <v>111.88</v>
       </c>
       <c r="R35" t="n">
-        <v>105</v>
+        <v>110.6</v>
       </c>
       <c r="S35" t="n">
-        <v>106.16</v>
+        <v>109.55</v>
       </c>
       <c r="T35" t="n">
-        <v>141.48</v>
+        <v>150.74</v>
       </c>
       <c r="U35" t="n">
-        <v>110.7</v>
+        <v>109.5</v>
       </c>
       <c r="V35" t="n">
-        <v>129.01</v>
+        <v>135.27</v>
       </c>
       <c r="W35" t="n">
-        <v>113.38</v>
+        <v>114.65</v>
       </c>
       <c r="X35" t="n">
-        <v>112.7</v>
+        <v>116.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>111.18</v>
+        <v>110.14</v>
       </c>
       <c r="Z35" t="n">
-        <v>109.57</v>
+        <v>108.4</v>
       </c>
       <c r="AA35" t="n">
-        <v>126.7</v>
+        <v>119.3</v>
       </c>
       <c r="AB35" t="n">
-        <v>112.29</v>
+        <v>116.15</v>
       </c>
       <c r="AC35" t="n">
-        <v>112.78</v>
+        <v>115.65</v>
       </c>
       <c r="AD35" t="n">
-        <v>146.51</v>
+        <v>132.95</v>
       </c>
       <c r="AE35" t="n">
-        <v>116.7</v>
+        <v>113.9</v>
       </c>
       <c r="AF35" t="n">
-        <v>99.5</v>
+        <v>108.9</v>
       </c>
       <c r="AG35" t="n">
-        <v>104.1</v>
+        <v>103.4</v>
       </c>
       <c r="AH35" t="n">
-        <v>110.4</v>
+        <v>108.54</v>
       </c>
       <c r="AI35" t="n">
-        <v>105.8</v>
+        <v>107.9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2011年C</t>
+          <t>2011年B</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>109</v>
+        <v>108.6</v>
       </c>
       <c r="C36" t="n">
-        <v>120.5</v>
+        <v>118.03</v>
       </c>
       <c r="D36" t="n">
-        <v>109.3</v>
+        <v>106</v>
       </c>
       <c r="E36" t="n">
-        <v>106.87</v>
+        <v>108.64</v>
       </c>
       <c r="F36" t="n">
-        <v>103.8</v>
+        <v>106.4</v>
       </c>
       <c r="G36" t="n">
-        <v>109.9</v>
+        <v>110.13</v>
       </c>
       <c r="H36" t="n">
-        <v>113.98</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>118.43</v>
+      </c>
+      <c r="I36" t="n">
+        <v>141</v>
+      </c>
       <c r="J36" t="n">
-        <v>116.93</v>
+        <v>119.1</v>
       </c>
       <c r="K36" t="n">
+        <v>104.8</v>
+      </c>
+      <c r="L36" t="n">
+        <v>114.3</v>
+      </c>
+      <c r="M36" t="n">
+        <v>112.58</v>
+      </c>
+      <c r="N36" t="n">
+        <v>109.15</v>
+      </c>
+      <c r="O36" t="n">
+        <v>109.13</v>
+      </c>
+      <c r="P36" t="n">
+        <v>107.04</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>109.83</v>
+      </c>
+      <c r="R36" t="n">
         <v>105</v>
       </c>
-      <c r="L36" t="n">
-        <v>116</v>
-      </c>
-      <c r="M36" t="n">
-        <v>112.32</v>
-      </c>
-      <c r="N36" t="n">
-        <v>112.64</v>
-      </c>
-      <c r="O36" t="n">
-        <v>112.32</v>
-      </c>
-      <c r="P36" t="n">
-        <v>103.08</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>111.88</v>
-      </c>
-      <c r="R36" t="n">
-        <v>110.6</v>
-      </c>
       <c r="S36" t="n">
-        <v>109.55</v>
+        <v>106.16</v>
       </c>
       <c r="T36" t="n">
-        <v>150.74</v>
+        <v>141.48</v>
       </c>
       <c r="U36" t="n">
-        <v>109.5</v>
+        <v>110.7</v>
       </c>
       <c r="V36" t="n">
-        <v>135.27</v>
+        <v>129.01</v>
       </c>
       <c r="W36" t="n">
-        <v>114.65</v>
+        <v>113.38</v>
       </c>
       <c r="X36" t="n">
-        <v>116.5</v>
+        <v>112.7</v>
       </c>
       <c r="Y36" t="n">
-        <v>110.14</v>
+        <v>111.18</v>
       </c>
       <c r="Z36" t="n">
-        <v>108.4</v>
+        <v>109.57</v>
       </c>
       <c r="AA36" t="n">
-        <v>119.3</v>
+        <v>126.7</v>
       </c>
       <c r="AB36" t="n">
-        <v>116.15</v>
+        <v>112.29</v>
       </c>
       <c r="AC36" t="n">
-        <v>115.65</v>
+        <v>112.78</v>
       </c>
       <c r="AD36" t="n">
-        <v>132.95</v>
+        <v>146.51</v>
       </c>
       <c r="AE36" t="n">
-        <v>113.9</v>
+        <v>116.7</v>
       </c>
       <c r="AF36" t="n">
-        <v>108.9</v>
+        <v>99.5</v>
       </c>
       <c r="AG36" t="n">
-        <v>103.4</v>
+        <v>104.1</v>
       </c>
       <c r="AH36" t="n">
-        <v>108.54</v>
+        <v>110.4</v>
       </c>
       <c r="AI36" t="n">
-        <v>107.9</v>
+        <v>105.8</v>
       </c>
     </row>
     <row r="37">
@@ -4363,215 +4363,215 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2012年B</t>
+          <t>2012年C</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>107.02</v>
+        <v>106.2</v>
       </c>
       <c r="C39" t="n">
-        <v>102.96</v>
+        <v>100.1</v>
       </c>
       <c r="D39" t="n">
-        <v>105.08</v>
+        <v>104.84</v>
       </c>
       <c r="E39" t="n">
-        <v>102.87</v>
+        <v>103.66</v>
       </c>
       <c r="F39" t="n">
-        <v>101.22</v>
+        <v>102.13</v>
       </c>
       <c r="G39" t="n">
-        <v>103.55</v>
+        <v>109.05</v>
       </c>
       <c r="H39" t="n">
-        <v>100.19</v>
-      </c>
-      <c r="I39" t="n">
-        <v>81.06999999999999</v>
-      </c>
+        <v>102.22</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>107.97</v>
+        <v>96.52</v>
       </c>
       <c r="K39" t="n">
-        <v>103.73</v>
+        <v>111.41</v>
       </c>
       <c r="L39" t="n">
-        <v>107.57</v>
+        <v>104.38</v>
       </c>
       <c r="M39" t="n">
-        <v>101.41</v>
-      </c>
-      <c r="N39" t="n">
-        <v>108.53</v>
-      </c>
+        <v>99.23</v>
+      </c>
+      <c r="N39" t="inlineStr"/>
       <c r="O39" t="n">
-        <v>111.18</v>
+        <v>105.64</v>
       </c>
       <c r="P39" t="n">
-        <v>111.89</v>
+        <v>101.24</v>
       </c>
       <c r="Q39" t="n">
-        <v>108.36</v>
+        <v>103.7</v>
       </c>
       <c r="R39" t="n">
-        <v>98.48999999999999</v>
+        <v>111.78</v>
       </c>
       <c r="S39" t="n">
-        <v>115.06</v>
+        <v>114.44</v>
       </c>
       <c r="T39" t="n">
-        <v>93.68000000000001</v>
+        <v>80.83</v>
       </c>
       <c r="U39" t="n">
-        <v>107.36</v>
+        <v>106.2</v>
       </c>
       <c r="V39" t="n">
-        <v>98.06</v>
+        <v>90.2</v>
       </c>
       <c r="W39" t="n">
-        <v>98.44</v>
+        <v>98.91</v>
       </c>
       <c r="X39" t="n">
-        <v>105.77</v>
+        <v>105.63</v>
       </c>
       <c r="Y39" t="n">
-        <v>101.64</v>
+        <v>103.87</v>
       </c>
       <c r="Z39" t="n">
-        <v>105.08</v>
+        <v>103.83</v>
       </c>
       <c r="AA39" t="n">
-        <v>107.07</v>
+        <v>123.34</v>
       </c>
       <c r="AB39" t="n">
-        <v>112.02</v>
+        <v>105.84</v>
       </c>
       <c r="AC39" t="n">
-        <v>102.08</v>
+        <v>101.53</v>
       </c>
       <c r="AD39" t="n">
-        <v>84.94</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="AE39" t="n">
-        <v>109.75</v>
+        <v>106.42</v>
       </c>
       <c r="AF39" t="n">
-        <v>116.35</v>
+        <v>109.09</v>
       </c>
       <c r="AG39" t="n">
-        <v>92.23</v>
+        <v>99.84</v>
       </c>
       <c r="AH39" t="n">
-        <v>105.89</v>
+        <v>104.01</v>
       </c>
       <c r="AI39" t="n">
-        <v>102.57</v>
+        <v>102.04</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2012年C</t>
+          <t>2012年B</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>106.2</v>
+        <v>107.02</v>
       </c>
       <c r="C40" t="n">
-        <v>100.1</v>
+        <v>102.96</v>
       </c>
       <c r="D40" t="n">
-        <v>104.84</v>
+        <v>105.08</v>
       </c>
       <c r="E40" t="n">
-        <v>103.66</v>
+        <v>102.87</v>
       </c>
       <c r="F40" t="n">
-        <v>102.13</v>
+        <v>101.22</v>
       </c>
       <c r="G40" t="n">
-        <v>109.05</v>
+        <v>103.55</v>
       </c>
       <c r="H40" t="n">
-        <v>102.22</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>100.19</v>
+      </c>
+      <c r="I40" t="n">
+        <v>81.06999999999999</v>
+      </c>
       <c r="J40" t="n">
-        <v>96.52</v>
+        <v>107.97</v>
       </c>
       <c r="K40" t="n">
-        <v>111.41</v>
+        <v>103.73</v>
       </c>
       <c r="L40" t="n">
-        <v>104.38</v>
+        <v>107.57</v>
       </c>
       <c r="M40" t="n">
-        <v>99.23</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+        <v>101.41</v>
+      </c>
+      <c r="N40" t="n">
+        <v>108.53</v>
+      </c>
       <c r="O40" t="n">
-        <v>105.64</v>
+        <v>111.18</v>
       </c>
       <c r="P40" t="n">
-        <v>101.24</v>
+        <v>111.89</v>
       </c>
       <c r="Q40" t="n">
-        <v>103.7</v>
+        <v>108.36</v>
       </c>
       <c r="R40" t="n">
-        <v>111.78</v>
+        <v>98.48999999999999</v>
       </c>
       <c r="S40" t="n">
-        <v>114.44</v>
+        <v>115.06</v>
       </c>
       <c r="T40" t="n">
-        <v>80.83</v>
+        <v>93.68000000000001</v>
       </c>
       <c r="U40" t="n">
-        <v>106.2</v>
+        <v>107.36</v>
       </c>
       <c r="V40" t="n">
-        <v>90.2</v>
+        <v>98.06</v>
       </c>
       <c r="W40" t="n">
-        <v>98.91</v>
+        <v>98.44</v>
       </c>
       <c r="X40" t="n">
-        <v>105.63</v>
+        <v>105.77</v>
       </c>
       <c r="Y40" t="n">
-        <v>103.87</v>
+        <v>101.64</v>
       </c>
       <c r="Z40" t="n">
-        <v>103.83</v>
+        <v>105.08</v>
       </c>
       <c r="AA40" t="n">
-        <v>123.34</v>
+        <v>107.07</v>
       </c>
       <c r="AB40" t="n">
-        <v>105.84</v>
+        <v>112.02</v>
       </c>
       <c r="AC40" t="n">
-        <v>101.53</v>
+        <v>102.08</v>
       </c>
       <c r="AD40" t="n">
-        <v>66.40000000000001</v>
+        <v>84.94</v>
       </c>
       <c r="AE40" t="n">
-        <v>106.42</v>
+        <v>109.75</v>
       </c>
       <c r="AF40" t="n">
-        <v>109.09</v>
+        <v>116.35</v>
       </c>
       <c r="AG40" t="n">
-        <v>99.84</v>
+        <v>92.23</v>
       </c>
       <c r="AH40" t="n">
-        <v>104.01</v>
+        <v>105.89</v>
       </c>
       <c r="AI40" t="n">
-        <v>102.04</v>
+        <v>102.57</v>
       </c>
     </row>
     <row r="41">
@@ -4795,215 +4795,215 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2013年B</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>103.7</v>
+        <v>104.7</v>
       </c>
       <c r="C43" t="n">
-        <v>101.1</v>
+        <v>104.3</v>
       </c>
       <c r="D43" t="n">
-        <v>107.3</v>
+        <v>106.5</v>
       </c>
       <c r="E43" t="n">
-        <v>108.1</v>
+        <v>111.2</v>
       </c>
       <c r="F43" t="n">
-        <v>107.3</v>
+        <v>106.6</v>
       </c>
       <c r="G43" t="n">
-        <v>92.90000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="H43" t="n">
-        <v>95.3</v>
-      </c>
-      <c r="I43" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="K43" t="n">
+        <v>102.6</v>
+      </c>
+      <c r="L43" t="n">
+        <v>103.9</v>
+      </c>
+      <c r="M43" t="n">
         <v>102.3</v>
       </c>
-      <c r="J43" t="n">
-        <v>110.4</v>
-      </c>
-      <c r="K43" t="n">
-        <v>111.4</v>
-      </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
+        <v>104.2</v>
+      </c>
+      <c r="O43" t="n">
+        <v>104</v>
+      </c>
+      <c r="P43" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>105.3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>109.1</v>
+      </c>
+      <c r="T43" t="n">
+        <v>104.1</v>
+      </c>
+      <c r="U43" t="n">
+        <v>102</v>
+      </c>
+      <c r="V43" t="n">
+        <v>104.7</v>
+      </c>
+      <c r="W43" t="n">
+        <v>104.6</v>
+      </c>
+      <c r="X43" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="Y43" t="n">
         <v>102.2</v>
       </c>
-      <c r="M43" t="n">
-        <v>100</v>
-      </c>
-      <c r="N43" t="n">
-        <v>111</v>
-      </c>
-      <c r="O43" t="n">
-        <v>103.2</v>
-      </c>
-      <c r="P43" t="n">
-        <v>105.6</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>104.4</v>
-      </c>
-      <c r="R43" t="n">
-        <v>110.8</v>
-      </c>
-      <c r="S43" t="n">
-        <v>121.4</v>
-      </c>
-      <c r="T43" t="n">
-        <v>92.7</v>
-      </c>
-      <c r="U43" t="n">
-        <v>101</v>
-      </c>
-      <c r="V43" t="n">
-        <v>98.5</v>
-      </c>
-      <c r="W43" t="n">
-        <v>106.2</v>
-      </c>
-      <c r="X43" t="n">
-        <v>101.8</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>97.90000000000001</v>
-      </c>
       <c r="Z43" t="n">
-        <v>103.3</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>98.7</v>
-      </c>
+        <v>104.1</v>
+      </c>
+      <c r="AA43" t="inlineStr"/>
       <c r="AB43" t="n">
-        <v>112.5</v>
+        <v>109</v>
       </c>
       <c r="AC43" t="n">
-        <v>96.5</v>
+        <v>102</v>
       </c>
       <c r="AD43" t="n">
-        <v>83.8</v>
+        <v>86.8</v>
       </c>
       <c r="AE43" t="n">
-        <v>101.4</v>
+        <v>102.5</v>
       </c>
       <c r="AF43" t="n">
-        <v>103.8</v>
+        <v>108.9</v>
       </c>
       <c r="AG43" t="n">
-        <v>112.3</v>
+        <v>110.1</v>
       </c>
       <c r="AH43" t="n">
-        <v>102.4</v>
+        <v>103.9</v>
       </c>
       <c r="AI43" t="n">
-        <v>106.9</v>
+        <v>106.1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2013年C</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>104.7</v>
+        <v>103.7</v>
       </c>
       <c r="C44" t="n">
-        <v>104.3</v>
+        <v>101.1</v>
       </c>
       <c r="D44" t="n">
-        <v>106.5</v>
+        <v>107.3</v>
       </c>
       <c r="E44" t="n">
-        <v>111.2</v>
+        <v>108.1</v>
       </c>
       <c r="F44" t="n">
-        <v>106.6</v>
+        <v>107.3</v>
       </c>
       <c r="G44" t="n">
-        <v>98.59999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="H44" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>95.3</v>
+      </c>
+      <c r="I44" t="n">
+        <v>102.3</v>
+      </c>
       <c r="J44" t="n">
-        <v>98.8</v>
+        <v>110.4</v>
       </c>
       <c r="K44" t="n">
-        <v>102.6</v>
+        <v>111.4</v>
       </c>
       <c r="L44" t="n">
-        <v>103.9</v>
+        <v>102.2</v>
       </c>
       <c r="M44" t="n">
-        <v>102.3</v>
+        <v>100</v>
       </c>
       <c r="N44" t="n">
-        <v>104.2</v>
+        <v>111</v>
       </c>
       <c r="O44" t="n">
-        <v>104</v>
+        <v>103.2</v>
       </c>
       <c r="P44" t="n">
-        <v>101.3</v>
+        <v>105.6</v>
       </c>
       <c r="Q44" t="n">
-        <v>103.5</v>
+        <v>104.4</v>
       </c>
       <c r="R44" t="n">
-        <v>105.3</v>
+        <v>110.8</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1</v>
+        <v>121.4</v>
       </c>
       <c r="T44" t="n">
-        <v>104.1</v>
+        <v>92.7</v>
       </c>
       <c r="U44" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="V44" t="n">
-        <v>104.7</v>
+        <v>98.5</v>
       </c>
       <c r="W44" t="n">
-        <v>104.6</v>
+        <v>106.2</v>
       </c>
       <c r="X44" t="n">
-        <v>100.4</v>
+        <v>101.8</v>
       </c>
       <c r="Y44" t="n">
-        <v>102.2</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="Z44" t="n">
-        <v>104.1</v>
-      </c>
-      <c r="AA44" t="inlineStr"/>
+        <v>103.3</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>98.7</v>
+      </c>
       <c r="AB44" t="n">
-        <v>109</v>
+        <v>112.5</v>
       </c>
       <c r="AC44" t="n">
-        <v>102</v>
+        <v>96.5</v>
       </c>
       <c r="AD44" t="n">
-        <v>86.8</v>
+        <v>83.8</v>
       </c>
       <c r="AE44" t="n">
-        <v>102.5</v>
+        <v>101.4</v>
       </c>
       <c r="AF44" t="n">
-        <v>108.9</v>
+        <v>103.8</v>
       </c>
       <c r="AG44" t="n">
-        <v>110.1</v>
+        <v>112.3</v>
       </c>
       <c r="AH44" t="n">
-        <v>103.9</v>
+        <v>102.4</v>
       </c>
       <c r="AI44" t="n">
-        <v>106.1</v>
+        <v>106.9</v>
       </c>
     </row>
     <row r="45">
@@ -5227,217 +5227,217 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2014年B</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>100.7</v>
+        <v>101.4</v>
       </c>
       <c r="C47" t="n">
         <v>100.3</v>
       </c>
       <c r="D47" t="n">
-        <v>100.6</v>
+        <v>103.3</v>
       </c>
       <c r="E47" t="n">
-        <v>115.3</v>
+        <v>103.7</v>
       </c>
       <c r="F47" t="n">
-        <v>105.8</v>
+        <v>104.3</v>
       </c>
       <c r="G47" t="n">
-        <v>105.8</v>
+        <v>108.2</v>
       </c>
       <c r="H47" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="I47" t="n">
-        <v>100.3</v>
-      </c>
+        <v>103.2</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>94.2</v>
+        <v>90.7</v>
       </c>
       <c r="K47" t="n">
-        <v>106.9</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="L47" t="n">
-        <v>98.5</v>
+        <v>100.1</v>
       </c>
       <c r="M47" t="n">
-        <v>104.9</v>
+        <v>98.3</v>
       </c>
       <c r="N47" t="n">
-        <v>106.3</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="O47" t="n">
-        <v>105.8</v>
+        <v>102.1</v>
       </c>
       <c r="P47" t="n">
-        <v>104.2</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="Q47" t="n">
-        <v>105.6</v>
+        <v>100.1</v>
       </c>
       <c r="R47" t="n">
-        <v>110.9</v>
+        <v>101</v>
       </c>
       <c r="S47" t="n">
-        <v>107.6</v>
+        <v>105</v>
       </c>
       <c r="T47" t="n">
-        <v>92</v>
+        <v>95.3</v>
       </c>
       <c r="U47" t="n">
-        <v>99.09999999999999</v>
+        <v>103.9</v>
       </c>
       <c r="V47" t="n">
-        <v>98.5</v>
+        <v>98.8</v>
       </c>
       <c r="W47" t="n">
-        <v>107.9</v>
+        <v>110.7</v>
       </c>
       <c r="X47" t="n">
-        <v>102.3</v>
+        <v>103.2</v>
       </c>
       <c r="Y47" t="n">
-        <v>101.4</v>
+        <v>100.9</v>
       </c>
       <c r="Z47" t="n">
-        <v>101.3</v>
+        <v>103.9</v>
       </c>
       <c r="AA47" t="n">
-        <v>96.3</v>
+        <v>100</v>
       </c>
       <c r="AB47" t="n">
-        <v>102.4</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC47" t="n">
-        <v>106.8</v>
+        <v>106.5</v>
       </c>
       <c r="AD47" t="n">
-        <v>86.7</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="AE47" t="n">
-        <v>106.8</v>
+        <v>103.5</v>
       </c>
       <c r="AF47" t="n">
-        <v>96.59999999999999</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="AG47" t="n">
-        <v>106.1</v>
+        <v>97.5</v>
       </c>
       <c r="AH47" t="n">
-        <v>101.1</v>
+        <v>104</v>
       </c>
       <c r="AI47" t="n">
-        <v>101.8</v>
+        <v>104.1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2014年C</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>101.4</v>
+        <v>100.7</v>
       </c>
       <c r="C48" t="n">
         <v>100.3</v>
       </c>
       <c r="D48" t="n">
-        <v>103.3</v>
+        <v>100.6</v>
       </c>
       <c r="E48" t="n">
-        <v>103.7</v>
+        <v>115.3</v>
       </c>
       <c r="F48" t="n">
-        <v>104.3</v>
+        <v>105.8</v>
       </c>
       <c r="G48" t="n">
-        <v>108.2</v>
+        <v>105.8</v>
       </c>
       <c r="H48" t="n">
-        <v>103.2</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>99.40000000000001</v>
+      </c>
+      <c r="I48" t="n">
+        <v>100.3</v>
+      </c>
       <c r="J48" t="n">
-        <v>90.7</v>
+        <v>94.2</v>
       </c>
       <c r="K48" t="n">
-        <v>98.09999999999999</v>
+        <v>106.9</v>
       </c>
       <c r="L48" t="n">
-        <v>100.1</v>
+        <v>98.5</v>
       </c>
       <c r="M48" t="n">
-        <v>98.3</v>
+        <v>104.9</v>
       </c>
       <c r="N48" t="n">
-        <v>98.59999999999999</v>
+        <v>106.3</v>
       </c>
       <c r="O48" t="n">
-        <v>102.1</v>
+        <v>105.8</v>
       </c>
       <c r="P48" t="n">
-        <v>96.09999999999999</v>
+        <v>104.2</v>
       </c>
       <c r="Q48" t="n">
-        <v>100.1</v>
+        <v>105.6</v>
       </c>
       <c r="R48" t="n">
-        <v>101</v>
+        <v>110.9</v>
       </c>
       <c r="S48" t="n">
-        <v>105</v>
+        <v>107.6</v>
       </c>
       <c r="T48" t="n">
-        <v>95.3</v>
+        <v>92</v>
       </c>
       <c r="U48" t="n">
-        <v>103.9</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="V48" t="n">
-        <v>98.8</v>
+        <v>98.5</v>
       </c>
       <c r="W48" t="n">
-        <v>110.7</v>
+        <v>107.9</v>
       </c>
       <c r="X48" t="n">
-        <v>103.2</v>
+        <v>102.3</v>
       </c>
       <c r="Y48" t="n">
-        <v>100.9</v>
+        <v>101.4</v>
       </c>
       <c r="Z48" t="n">
-        <v>103.9</v>
+        <v>101.3</v>
       </c>
       <c r="AA48" t="n">
-        <v>100</v>
+        <v>96.3</v>
       </c>
       <c r="AB48" t="n">
+        <v>102.4</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>106.8</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>106.8</v>
+      </c>
+      <c r="AF48" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c r="AC48" t="n">
-        <v>106.5</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>103.5</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>97.40000000000001</v>
-      </c>
       <c r="AG48" t="n">
-        <v>97.5</v>
+        <v>106.1</v>
       </c>
       <c r="AH48" t="n">
-        <v>104</v>
+        <v>101.1</v>
       </c>
       <c r="AI48" t="n">
-        <v>104.1</v>
+        <v>101.8</v>
       </c>
     </row>
     <row r="49">
@@ -5659,215 +5659,215 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2015年B</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>100.5</v>
+        <v>100</v>
       </c>
       <c r="C51" t="n">
+        <v>104.1</v>
+      </c>
+      <c r="D51" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="E51" t="n">
+        <v>92.59999999999999</v>
+      </c>
+      <c r="F51" t="n">
+        <v>96.8</v>
+      </c>
+      <c r="G51" t="n">
+        <v>105.9</v>
+      </c>
+      <c r="H51" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>105.5</v>
+      </c>
+      <c r="K51" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="L51" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="M51" t="n">
+        <v>105.4</v>
+      </c>
+      <c r="N51" t="n">
+        <v>103.1</v>
+      </c>
+      <c r="O51" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="P51" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="S51" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="T51" t="n">
+        <v>119.4</v>
+      </c>
+      <c r="U51" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="V51" t="n">
+        <v>109.4</v>
+      </c>
+      <c r="W51" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="X51" t="n">
         <v>101.5</v>
       </c>
-      <c r="D51" t="n">
-        <v>102.2</v>
-      </c>
-      <c r="E51" t="n">
-        <v>91.8</v>
-      </c>
-      <c r="F51" t="n">
-        <v>101.4</v>
-      </c>
-      <c r="G51" t="n">
+      <c r="Y51" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>86.3</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>84</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>108.4</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>105.2</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="AI51" t="n">
         <v>99.59999999999999</v>
-      </c>
-      <c r="H51" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="I51" t="n">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="J51" t="n">
-        <v>95</v>
-      </c>
-      <c r="K51" t="n">
-        <v>92.09999999999999</v>
-      </c>
-      <c r="L51" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="M51" t="n">
-        <v>103</v>
-      </c>
-      <c r="N51" t="n">
-        <v>107.2</v>
-      </c>
-      <c r="O51" t="n">
-        <v>104.3</v>
-      </c>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="n">
-        <v>104.3</v>
-      </c>
-      <c r="R51" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="S51" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="T51" t="n">
-        <v>105.9</v>
-      </c>
-      <c r="U51" t="n">
-        <v>101.3</v>
-      </c>
-      <c r="V51" t="n">
-        <v>102.2</v>
-      </c>
-      <c r="W51" t="n">
-        <v>95</v>
-      </c>
-      <c r="X51" t="n">
-        <v>102.6</v>
-      </c>
-      <c r="Y51" t="n">
-        <v>98.7</v>
-      </c>
-      <c r="Z51" t="n">
-        <v>101.4</v>
-      </c>
-      <c r="AA51" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="AB51" t="n">
-        <v>90.7</v>
-      </c>
-      <c r="AC51" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>90.5</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="AF51" t="n">
-        <v>103.8</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>101.6</v>
-      </c>
-      <c r="AI51" t="n">
-        <v>101.6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2015年C</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>100</v>
+        <v>100.5</v>
       </c>
       <c r="C52" t="n">
-        <v>104.1</v>
+        <v>101.5</v>
       </c>
       <c r="D52" t="n">
+        <v>102.2</v>
+      </c>
+      <c r="E52" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="F52" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="G52" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c r="E52" t="n">
-        <v>92.59999999999999</v>
-      </c>
-      <c r="F52" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="G52" t="n">
+      <c r="H52" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="I52" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="J52" t="n">
+        <v>95</v>
+      </c>
+      <c r="K52" t="n">
+        <v>92.09999999999999</v>
+      </c>
+      <c r="L52" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="M52" t="n">
+        <v>103</v>
+      </c>
+      <c r="N52" t="n">
+        <v>107.2</v>
+      </c>
+      <c r="O52" t="n">
+        <v>104.3</v>
+      </c>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="n">
+        <v>104.3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="T52" t="n">
         <v>105.9</v>
       </c>
-      <c r="H52" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>105.5</v>
-      </c>
-      <c r="K52" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="L52" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="M52" t="n">
-        <v>105.4</v>
-      </c>
-      <c r="N52" t="n">
-        <v>103.1</v>
-      </c>
-      <c r="O52" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="P52" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="Q52" t="n">
+      <c r="U52" t="n">
         <v>101.3</v>
       </c>
-      <c r="R52" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="S52" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="T52" t="n">
-        <v>119.4</v>
-      </c>
-      <c r="U52" t="n">
-        <v>96.09999999999999</v>
-      </c>
       <c r="V52" t="n">
-        <v>109.4</v>
+        <v>102.2</v>
       </c>
       <c r="W52" t="n">
-        <v>96.5</v>
+        <v>95</v>
       </c>
       <c r="X52" t="n">
-        <v>101.5</v>
+        <v>102.6</v>
       </c>
       <c r="Y52" t="n">
-        <v>98.5</v>
+        <v>98.7</v>
       </c>
       <c r="Z52" t="n">
-        <v>98.09999999999999</v>
+        <v>101.4</v>
       </c>
       <c r="AA52" t="n">
-        <v>100</v>
+        <v>94.5</v>
       </c>
       <c r="AB52" t="n">
-        <v>86.3</v>
+        <v>90.7</v>
       </c>
       <c r="AC52" t="n">
-        <v>99.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AD52" t="n">
-        <v>84</v>
+        <v>90.5</v>
       </c>
       <c r="AE52" t="n">
-        <v>98.3</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AF52" t="n">
-        <v>108.4</v>
+        <v>103.8</v>
       </c>
       <c r="AG52" t="n">
-        <v>105.2</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="AH52" t="n">
-        <v>97.90000000000001</v>
+        <v>101.6</v>
       </c>
       <c r="AI52" t="n">
-        <v>99.59999999999999</v>
+        <v>101.6</v>
       </c>
     </row>
     <row r="53">
@@ -6087,211 +6087,211 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2016年B</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>95.46605700000001</v>
+        <v>97.32108599999999</v>
       </c>
       <c r="C55" t="n">
-        <v>107.696584</v>
+        <v>100.4</v>
       </c>
       <c r="D55" t="n">
-        <v>98.780002</v>
+        <v>97.200002</v>
       </c>
       <c r="E55" t="n">
-        <v>95.289998</v>
+        <v>95.599997</v>
       </c>
       <c r="F55" t="n">
-        <v>91.373662</v>
+        <v>95.782736</v>
       </c>
       <c r="G55" t="n">
-        <v>100.764668</v>
+        <v>89.086409</v>
       </c>
       <c r="H55" t="n">
-        <v>96.871748</v>
-      </c>
-      <c r="I55" t="n">
-        <v>87.37999600000001</v>
-      </c>
+        <v>92.22124599999999</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>100.34</v>
+        <v>91.06</v>
       </c>
       <c r="K55" t="n">
-        <v>95.755466</v>
+        <v>102.555351</v>
       </c>
       <c r="L55" t="n">
-        <v>99.90279700000001</v>
+        <v>100.442852</v>
       </c>
       <c r="M55" t="n">
-        <v>104.483962</v>
+        <v>102.493658</v>
       </c>
       <c r="N55" t="n">
-        <v>108.165112</v>
+        <v>104.474487</v>
       </c>
       <c r="O55" t="n">
-        <v>102.539681</v>
+        <v>103.545651</v>
       </c>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="n">
-        <v>104.137345</v>
+        <v>103.3</v>
       </c>
       <c r="R55" t="n">
-        <v>89.449935</v>
+        <v>96.065</v>
       </c>
       <c r="S55" t="n">
-        <v>102.094998</v>
+        <v>97.249663</v>
       </c>
       <c r="T55" t="n">
-        <v>138.11</v>
+        <v>109.94</v>
       </c>
       <c r="U55" t="n">
-        <v>84.679815</v>
+        <v>86.711169</v>
       </c>
       <c r="V55" t="n">
-        <v>121.447988</v>
+        <v>103.772422</v>
       </c>
       <c r="W55" t="n">
-        <v>95.801827</v>
+        <v>91.84143299999999</v>
       </c>
       <c r="X55" t="n">
-        <v>98.097992</v>
+        <v>97.538402</v>
       </c>
       <c r="Y55" t="n">
-        <v>96.08500600000001</v>
+        <v>97.505</v>
       </c>
       <c r="Z55" t="n">
-        <v>91.164</v>
-      </c>
-      <c r="AA55" t="n">
-        <v>101.670001</v>
-      </c>
+        <v>94.26000000000001</v>
+      </c>
+      <c r="AA55" t="inlineStr"/>
       <c r="AB55" t="n">
-        <v>94.93273499999999</v>
+        <v>93.203332</v>
       </c>
       <c r="AC55" t="n">
-        <v>99.664365</v>
+        <v>99.169307</v>
       </c>
       <c r="AD55" t="n">
-        <v>93.637981</v>
+        <v>93.835679</v>
       </c>
       <c r="AE55" t="n">
-        <v>98.159025</v>
+        <v>100.259769</v>
       </c>
       <c r="AF55" t="n">
-        <v>104.66931</v>
+        <v>96.57116000000001</v>
       </c>
       <c r="AG55" t="n">
-        <v>119.860507</v>
+        <v>90.89465199999999</v>
       </c>
       <c r="AH55" t="n">
-        <v>89.034565</v>
+        <v>94.074465</v>
       </c>
       <c r="AI55" t="n">
-        <v>98.759985</v>
+        <v>98.063211</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2016年C</t>
+          <t>2016年B</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>97.32108599999999</v>
+        <v>95.46605700000001</v>
       </c>
       <c r="C56" t="n">
-        <v>100.4</v>
+        <v>107.696584</v>
       </c>
       <c r="D56" t="n">
-        <v>97.200002</v>
+        <v>98.780002</v>
       </c>
       <c r="E56" t="n">
-        <v>95.599997</v>
+        <v>95.289998</v>
       </c>
       <c r="F56" t="n">
-        <v>95.782736</v>
+        <v>91.373662</v>
       </c>
       <c r="G56" t="n">
-        <v>89.086409</v>
+        <v>100.764668</v>
       </c>
       <c r="H56" t="n">
-        <v>92.22124599999999</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>96.871748</v>
+      </c>
+      <c r="I56" t="n">
+        <v>87.37999600000001</v>
+      </c>
       <c r="J56" t="n">
-        <v>91.06</v>
+        <v>100.34</v>
       </c>
       <c r="K56" t="n">
-        <v>102.555351</v>
+        <v>95.755466</v>
       </c>
       <c r="L56" t="n">
-        <v>100.442852</v>
+        <v>99.90279700000001</v>
       </c>
       <c r="M56" t="n">
-        <v>102.493658</v>
+        <v>104.483962</v>
       </c>
       <c r="N56" t="n">
-        <v>104.474487</v>
+        <v>108.165112</v>
       </c>
       <c r="O56" t="n">
-        <v>103.545651</v>
+        <v>102.539681</v>
       </c>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="n">
-        <v>103.3</v>
+        <v>104.137345</v>
       </c>
       <c r="R56" t="n">
-        <v>96.065</v>
+        <v>89.449935</v>
       </c>
       <c r="S56" t="n">
-        <v>97.249663</v>
+        <v>102.094998</v>
       </c>
       <c r="T56" t="n">
-        <v>109.94</v>
+        <v>138.11</v>
       </c>
       <c r="U56" t="n">
-        <v>86.711169</v>
+        <v>84.679815</v>
       </c>
       <c r="V56" t="n">
-        <v>103.772422</v>
+        <v>121.447988</v>
       </c>
       <c r="W56" t="n">
-        <v>91.84143299999999</v>
+        <v>95.801827</v>
       </c>
       <c r="X56" t="n">
-        <v>97.538402</v>
+        <v>98.097992</v>
       </c>
       <c r="Y56" t="n">
-        <v>97.505</v>
+        <v>96.08500600000001</v>
       </c>
       <c r="Z56" t="n">
-        <v>94.26000000000001</v>
-      </c>
-      <c r="AA56" t="inlineStr"/>
+        <v>91.164</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>101.670001</v>
+      </c>
       <c r="AB56" t="n">
-        <v>93.203332</v>
+        <v>94.93273499999999</v>
       </c>
       <c r="AC56" t="n">
-        <v>99.169307</v>
+        <v>99.664365</v>
       </c>
       <c r="AD56" t="n">
-        <v>93.835679</v>
+        <v>93.637981</v>
       </c>
       <c r="AE56" t="n">
-        <v>100.259769</v>
+        <v>98.159025</v>
       </c>
       <c r="AF56" t="n">
-        <v>96.57116000000001</v>
+        <v>104.66931</v>
       </c>
       <c r="AG56" t="n">
-        <v>90.89465199999999</v>
+        <v>119.860507</v>
       </c>
       <c r="AH56" t="n">
-        <v>94.074465</v>
+        <v>89.034565</v>
       </c>
       <c r="AI56" t="n">
-        <v>98.063211</v>
+        <v>98.759985</v>
       </c>
     </row>
     <row r="57">
@@ -6511,211 +6511,211 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2017年B</t>
+          <t>2017年C</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>98.22806300000001</v>
+        <v>102.567629</v>
       </c>
       <c r="C59" t="n">
-        <v>93.61555199999999</v>
+        <v>96.774582</v>
       </c>
       <c r="D59" t="n">
-        <v>98.780002</v>
+        <v>99.580005</v>
       </c>
       <c r="E59" t="n">
-        <v>99.230003</v>
+        <v>101.559998</v>
       </c>
       <c r="F59" t="n">
-        <v>105.538355</v>
+        <v>104.964766</v>
       </c>
       <c r="G59" t="n">
-        <v>110.191467</v>
+        <v>106.200821</v>
       </c>
       <c r="H59" t="n">
-        <v>109.739532</v>
-      </c>
-      <c r="I59" t="n">
-        <v>104.929998</v>
-      </c>
+        <v>106.214583</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>105.08</v>
+        <v>109.9</v>
       </c>
       <c r="K59" t="n">
-        <v>111.298746</v>
+        <v>96.318039</v>
       </c>
       <c r="L59" t="n">
-        <v>100.240794</v>
+        <v>105.203375</v>
       </c>
       <c r="M59" t="n">
-        <v>106.194237</v>
+        <v>107.312348</v>
       </c>
       <c r="N59" t="n">
-        <v>106.498316</v>
+        <v>102.2924</v>
       </c>
       <c r="O59" t="n">
-        <v>105.88437</v>
+        <v>105.084701</v>
       </c>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="n">
-        <v>106.089486</v>
+        <v>103.934627</v>
       </c>
       <c r="R59" t="n">
-        <v>92.91495399999999</v>
+        <v>102.805</v>
       </c>
       <c r="S59" t="n">
-        <v>95.08000199999999</v>
+        <v>99.590175</v>
       </c>
       <c r="T59" t="n">
-        <v>78.72</v>
+        <v>79.25</v>
       </c>
       <c r="U59" t="n">
-        <v>97.348523</v>
+        <v>99.78</v>
       </c>
       <c r="V59" t="n">
-        <v>83.74395</v>
+        <v>87.996312</v>
       </c>
       <c r="W59" t="n">
-        <v>83.555581</v>
+        <v>98.78278299999999</v>
       </c>
       <c r="X59" t="n">
-        <v>99.28072899999999</v>
+        <v>101.164078</v>
       </c>
       <c r="Y59" t="n">
-        <v>98.72000199999999</v>
+        <v>97.115003</v>
       </c>
       <c r="Z59" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="AA59" t="n">
-        <v>107.690001</v>
-      </c>
+        <v>102.4689407</v>
+      </c>
+      <c r="AA59" t="inlineStr"/>
       <c r="AB59" t="n">
-        <v>102.954621</v>
+        <v>107.329998</v>
       </c>
       <c r="AC59" t="n">
-        <v>89.561482</v>
+        <v>97.266464</v>
       </c>
       <c r="AD59" t="n">
-        <v>132.562313</v>
+        <v>125.491384</v>
       </c>
       <c r="AE59" t="n">
-        <v>103.782495</v>
+        <v>102.630676</v>
       </c>
       <c r="AF59" t="n">
-        <v>87.760262</v>
+        <v>105.115403</v>
       </c>
       <c r="AG59" t="n">
-        <v>88.63116599999999</v>
+        <v>105.984008</v>
       </c>
       <c r="AH59" t="n">
-        <v>99.16871</v>
+        <v>102.81808</v>
       </c>
       <c r="AI59" t="n">
-        <v>99.532411</v>
+        <v>99.556247</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2017年C</t>
+          <t>2017年B</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>102.567629</v>
+        <v>98.22806300000001</v>
       </c>
       <c r="C60" t="n">
-        <v>96.774582</v>
+        <v>93.61555199999999</v>
       </c>
       <c r="D60" t="n">
-        <v>99.580005</v>
+        <v>98.780002</v>
       </c>
       <c r="E60" t="n">
-        <v>101.559998</v>
+        <v>99.230003</v>
       </c>
       <c r="F60" t="n">
-        <v>104.964766</v>
+        <v>105.538355</v>
       </c>
       <c r="G60" t="n">
-        <v>106.200821</v>
+        <v>110.191467</v>
       </c>
       <c r="H60" t="n">
-        <v>106.214583</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>109.739532</v>
+      </c>
+      <c r="I60" t="n">
+        <v>104.929998</v>
+      </c>
       <c r="J60" t="n">
-        <v>109.9</v>
+        <v>105.08</v>
       </c>
       <c r="K60" t="n">
-        <v>96.318039</v>
+        <v>111.298746</v>
       </c>
       <c r="L60" t="n">
-        <v>105.203375</v>
+        <v>100.240794</v>
       </c>
       <c r="M60" t="n">
-        <v>107.312348</v>
+        <v>106.194237</v>
       </c>
       <c r="N60" t="n">
-        <v>102.2924</v>
+        <v>106.498316</v>
       </c>
       <c r="O60" t="n">
-        <v>105.084701</v>
+        <v>105.88437</v>
       </c>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="n">
-        <v>103.934627</v>
+        <v>106.089486</v>
       </c>
       <c r="R60" t="n">
-        <v>102.805</v>
+        <v>92.91495399999999</v>
       </c>
       <c r="S60" t="n">
-        <v>99.590175</v>
+        <v>95.08000199999999</v>
       </c>
       <c r="T60" t="n">
-        <v>79.25</v>
+        <v>78.72</v>
       </c>
       <c r="U60" t="n">
-        <v>99.78</v>
+        <v>97.348523</v>
       </c>
       <c r="V60" t="n">
-        <v>87.996312</v>
+        <v>83.74395</v>
       </c>
       <c r="W60" t="n">
-        <v>98.78278299999999</v>
+        <v>83.555581</v>
       </c>
       <c r="X60" t="n">
-        <v>101.164078</v>
+        <v>99.28072899999999</v>
       </c>
       <c r="Y60" t="n">
-        <v>97.115003</v>
+        <v>98.72000199999999</v>
       </c>
       <c r="Z60" t="n">
-        <v>102.4689407</v>
-      </c>
-      <c r="AA60" t="inlineStr"/>
+        <v>98.90000000000001</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>107.690001</v>
+      </c>
       <c r="AB60" t="n">
-        <v>107.329998</v>
+        <v>102.954621</v>
       </c>
       <c r="AC60" t="n">
-        <v>97.266464</v>
+        <v>89.561482</v>
       </c>
       <c r="AD60" t="n">
-        <v>125.491384</v>
+        <v>132.562313</v>
       </c>
       <c r="AE60" t="n">
-        <v>102.630676</v>
+        <v>103.782495</v>
       </c>
       <c r="AF60" t="n">
-        <v>105.115403</v>
+        <v>87.760262</v>
       </c>
       <c r="AG60" t="n">
-        <v>105.984008</v>
+        <v>88.63116599999999</v>
       </c>
       <c r="AH60" t="n">
-        <v>102.81808</v>
+        <v>99.16871</v>
       </c>
       <c r="AI60" t="n">
-        <v>99.556247</v>
+        <v>99.532411</v>
       </c>
     </row>
     <row r="61">
@@ -6935,207 +6935,207 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2018年B</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>102.305354</v>
+        <v>100.520641</v>
       </c>
       <c r="C63" t="n">
-        <v>97.004504</v>
+        <v>100.281144</v>
       </c>
       <c r="D63" t="n">
-        <v>96.09999999999999</v>
+        <v>95.930001</v>
       </c>
       <c r="E63" t="n">
-        <v>100</v>
+        <v>100.76</v>
       </c>
       <c r="F63" t="n">
-        <v>100.838891</v>
+        <v>97.252365</v>
       </c>
       <c r="G63" t="n">
-        <v>99.68894899999999</v>
+        <v>101.798823</v>
       </c>
       <c r="H63" t="n">
-        <v>95.390298</v>
-      </c>
-      <c r="I63" t="n">
-        <v>98.049995</v>
-      </c>
+        <v>99.30443099999999</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>112.08</v>
+        <v>125.24</v>
       </c>
       <c r="K63" t="n">
-        <v>94.623581</v>
+        <v>105.410014</v>
       </c>
       <c r="L63" t="n">
-        <v>98.5</v>
+        <v>100.77</v>
       </c>
       <c r="M63" t="n">
-        <v>102.613091</v>
+        <v>100.145396</v>
       </c>
       <c r="N63" t="n">
-        <v>101.587779</v>
+        <v>103.395511</v>
       </c>
       <c r="O63" t="n">
-        <v>100.762539</v>
+        <v>100.136851</v>
       </c>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="n">
-        <v>101.373902</v>
+        <v>100.883999</v>
       </c>
       <c r="R63" t="n">
-        <v>93.179974</v>
+        <v>100.189998</v>
       </c>
       <c r="S63" t="n">
-        <v>107.514999</v>
+        <v>103.959926</v>
       </c>
       <c r="T63" t="n">
-        <v>74.54000000000001</v>
+        <v>91.2</v>
       </c>
       <c r="U63" t="n">
-        <v>107.820653</v>
+        <v>102.445881</v>
       </c>
       <c r="V63" t="n">
-        <v>91.080309</v>
+        <v>99.99385599999999</v>
       </c>
       <c r="W63" t="n">
-        <v>127.418106</v>
+        <v>118.613778</v>
       </c>
       <c r="X63" t="n">
-        <v>100.255896</v>
+        <v>96.136713</v>
       </c>
       <c r="Y63" t="n">
-        <v>95.18000600000001</v>
+        <v>105.179999</v>
       </c>
       <c r="Z63" t="inlineStr"/>
-      <c r="AA63" t="n">
-        <v>97.179997</v>
-      </c>
+      <c r="AA63" t="inlineStr"/>
       <c r="AB63" t="n">
-        <v>112.61219</v>
+        <v>118.133331</v>
       </c>
       <c r="AC63" t="n">
-        <v>109.450167</v>
+        <v>108.230573</v>
       </c>
       <c r="AD63" t="n">
-        <v>82.60008500000001</v>
+        <v>83.565361</v>
       </c>
       <c r="AE63" t="n">
-        <v>98.120604</v>
+        <v>100.732803</v>
       </c>
       <c r="AF63" t="n">
-        <v>105.209245</v>
+        <v>106.434177</v>
       </c>
       <c r="AG63" t="n">
-        <v>93.5</v>
+        <v>110.255935</v>
       </c>
       <c r="AH63" t="n">
-        <v>104.815374</v>
+        <v>98.19189</v>
       </c>
       <c r="AI63" t="n">
-        <v>96.90000000000001</v>
+        <v>96.157899</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2018年C</t>
+          <t>2018年B</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>100.520641</v>
+        <v>102.305354</v>
       </c>
       <c r="C64" t="n">
-        <v>100.281144</v>
+        <v>97.004504</v>
       </c>
       <c r="D64" t="n">
-        <v>95.930001</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="E64" t="n">
-        <v>100.76</v>
+        <v>100</v>
       </c>
       <c r="F64" t="n">
-        <v>97.252365</v>
+        <v>100.838891</v>
       </c>
       <c r="G64" t="n">
-        <v>101.798823</v>
+        <v>99.68894899999999</v>
       </c>
       <c r="H64" t="n">
-        <v>99.30443099999999</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>95.390298</v>
+      </c>
+      <c r="I64" t="n">
+        <v>98.049995</v>
+      </c>
       <c r="J64" t="n">
-        <v>125.24</v>
+        <v>112.08</v>
       </c>
       <c r="K64" t="n">
-        <v>105.410014</v>
+        <v>94.623581</v>
       </c>
       <c r="L64" t="n">
-        <v>100.77</v>
+        <v>98.5</v>
       </c>
       <c r="M64" t="n">
-        <v>100.145396</v>
+        <v>102.613091</v>
       </c>
       <c r="N64" t="n">
-        <v>103.395511</v>
+        <v>101.587779</v>
       </c>
       <c r="O64" t="n">
-        <v>100.136851</v>
+        <v>100.762539</v>
       </c>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="n">
-        <v>100.883999</v>
+        <v>101.373902</v>
       </c>
       <c r="R64" t="n">
-        <v>100.189998</v>
+        <v>93.179974</v>
       </c>
       <c r="S64" t="n">
-        <v>103.959926</v>
+        <v>107.514999</v>
       </c>
       <c r="T64" t="n">
-        <v>91.2</v>
+        <v>74.54000000000001</v>
       </c>
       <c r="U64" t="n">
-        <v>102.445881</v>
+        <v>107.820653</v>
       </c>
       <c r="V64" t="n">
-        <v>99.99385599999999</v>
+        <v>91.080309</v>
       </c>
       <c r="W64" t="n">
-        <v>118.613778</v>
+        <v>127.418106</v>
       </c>
       <c r="X64" t="n">
-        <v>96.136713</v>
+        <v>100.255896</v>
       </c>
       <c r="Y64" t="n">
-        <v>105.179999</v>
+        <v>95.18000600000001</v>
       </c>
       <c r="Z64" t="inlineStr"/>
-      <c r="AA64" t="inlineStr"/>
+      <c r="AA64" t="n">
+        <v>97.179997</v>
+      </c>
       <c r="AB64" t="n">
-        <v>118.133331</v>
+        <v>112.61219</v>
       </c>
       <c r="AC64" t="n">
-        <v>108.230573</v>
+        <v>109.450167</v>
       </c>
       <c r="AD64" t="n">
-        <v>83.565361</v>
+        <v>82.60008500000001</v>
       </c>
       <c r="AE64" t="n">
-        <v>100.732803</v>
+        <v>98.120604</v>
       </c>
       <c r="AF64" t="n">
-        <v>106.434177</v>
+        <v>105.209245</v>
       </c>
       <c r="AG64" t="n">
-        <v>110.255935</v>
+        <v>93.5</v>
       </c>
       <c r="AH64" t="n">
-        <v>98.19189</v>
+        <v>104.815374</v>
       </c>
       <c r="AI64" t="n">
-        <v>96.157899</v>
+        <v>96.90000000000001</v>
       </c>
     </row>
     <row r="65">
@@ -7349,207 +7349,207 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2019年B</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>103.316244</v>
+        <v>101.1</v>
       </c>
       <c r="C67" t="n">
-        <v>109.127512</v>
+        <v>113.92</v>
       </c>
       <c r="D67" t="n">
-        <v>103.589999</v>
+        <v>100.87</v>
       </c>
       <c r="E67" t="n">
-        <v>104.919998</v>
+        <v>105.82</v>
       </c>
       <c r="F67" t="n">
-        <v>100.09</v>
+        <v>98.09</v>
       </c>
       <c r="G67" t="n">
-        <v>101.040135</v>
+        <v>96.65000000000001</v>
       </c>
       <c r="H67" t="n">
-        <v>100.046973</v>
-      </c>
-      <c r="I67" t="n">
-        <v>99.26000000000001</v>
-      </c>
+        <v>98.23</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>93.23999999999999</v>
+        <v>85.44</v>
       </c>
       <c r="K67" t="n">
-        <v>116.151567</v>
+        <v>108.1</v>
       </c>
       <c r="L67" t="n">
-        <v>102.304294</v>
+        <v>105.29</v>
       </c>
       <c r="M67" t="n">
-        <v>97.352844</v>
+        <v>98.54000000000001</v>
       </c>
       <c r="N67" t="n">
-        <v>100.828944</v>
+        <v>102.57</v>
       </c>
       <c r="O67" t="n">
-        <v>101.596452</v>
+        <v>101.8</v>
       </c>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="n">
-        <v>100.437433</v>
+        <v>101.17</v>
       </c>
       <c r="R67" t="n">
-        <v>103.610143</v>
+        <v>103.45</v>
       </c>
       <c r="S67" t="n">
-        <v>102.849999</v>
+        <v>111.64</v>
       </c>
       <c r="T67" t="n">
-        <v>128.09</v>
+        <v>149.27</v>
       </c>
       <c r="U67" t="n">
-        <v>101.90619</v>
+        <v>101.26</v>
       </c>
       <c r="V67" t="n">
-        <v>118.13174</v>
+        <v>131.99</v>
       </c>
       <c r="W67" t="n">
-        <v>101.783988</v>
+        <v>103.21</v>
       </c>
       <c r="X67" t="n">
-        <v>93.434139</v>
+        <v>98.67</v>
       </c>
       <c r="Y67" t="n">
-        <v>103.374999</v>
+        <v>101.1</v>
       </c>
       <c r="Z67" t="inlineStr"/>
-      <c r="AA67" t="n">
-        <v>98.509995</v>
-      </c>
+      <c r="AA67" t="inlineStr"/>
       <c r="AB67" t="n">
-        <v>108.398818</v>
+        <v>114.2</v>
       </c>
       <c r="AC67" t="n">
-        <v>105.449578</v>
+        <v>109.46</v>
       </c>
       <c r="AD67" t="n">
-        <v>98.709604</v>
+        <v>98.5</v>
       </c>
       <c r="AE67" t="n">
-        <v>103.117103</v>
+        <v>101.01</v>
       </c>
       <c r="AF67" t="n">
-        <v>108.395321</v>
+        <v>99.91</v>
       </c>
       <c r="AG67" t="n">
-        <v>117.755079</v>
+        <v>105.57</v>
       </c>
       <c r="AH67" t="n">
-        <v>99.380287</v>
+        <v>99</v>
       </c>
       <c r="AI67" t="n">
-        <v>104.132713</v>
+        <v>105.36</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2019年C</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>101.1</v>
+        <v>103.316244</v>
       </c>
       <c r="C68" t="n">
-        <v>113.92</v>
+        <v>109.127512</v>
       </c>
       <c r="D68" t="n">
-        <v>100.87</v>
+        <v>103.589999</v>
       </c>
       <c r="E68" t="n">
-        <v>105.82</v>
+        <v>104.919998</v>
       </c>
       <c r="F68" t="n">
-        <v>98.09</v>
+        <v>100.09</v>
       </c>
       <c r="G68" t="n">
-        <v>96.65000000000001</v>
+        <v>101.040135</v>
       </c>
       <c r="H68" t="n">
-        <v>98.23</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>100.046973</v>
+      </c>
+      <c r="I68" t="n">
+        <v>99.26000000000001</v>
+      </c>
       <c r="J68" t="n">
-        <v>85.44</v>
+        <v>93.23999999999999</v>
       </c>
       <c r="K68" t="n">
-        <v>108.1</v>
+        <v>116.151567</v>
       </c>
       <c r="L68" t="n">
-        <v>105.29</v>
+        <v>102.304294</v>
       </c>
       <c r="M68" t="n">
-        <v>98.54000000000001</v>
+        <v>97.352844</v>
       </c>
       <c r="N68" t="n">
-        <v>102.57</v>
+        <v>100.828944</v>
       </c>
       <c r="O68" t="n">
-        <v>101.8</v>
+        <v>101.596452</v>
       </c>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="n">
-        <v>101.17</v>
+        <v>100.437433</v>
       </c>
       <c r="R68" t="n">
-        <v>103.45</v>
+        <v>103.610143</v>
       </c>
       <c r="S68" t="n">
-        <v>111.64</v>
+        <v>102.849999</v>
       </c>
       <c r="T68" t="n">
-        <v>149.27</v>
+        <v>128.09</v>
       </c>
       <c r="U68" t="n">
-        <v>101.26</v>
+        <v>101.90619</v>
       </c>
       <c r="V68" t="n">
-        <v>131.99</v>
+        <v>118.13174</v>
       </c>
       <c r="W68" t="n">
-        <v>103.21</v>
+        <v>101.783988</v>
       </c>
       <c r="X68" t="n">
-        <v>98.67</v>
+        <v>93.434139</v>
       </c>
       <c r="Y68" t="n">
-        <v>101.1</v>
+        <v>103.374999</v>
       </c>
       <c r="Z68" t="inlineStr"/>
-      <c r="AA68" t="inlineStr"/>
+      <c r="AA68" t="n">
+        <v>98.509995</v>
+      </c>
       <c r="AB68" t="n">
-        <v>114.2</v>
+        <v>108.398818</v>
       </c>
       <c r="AC68" t="n">
-        <v>109.46</v>
+        <v>105.449578</v>
       </c>
       <c r="AD68" t="n">
-        <v>98.5</v>
+        <v>98.709604</v>
       </c>
       <c r="AE68" t="n">
-        <v>101.01</v>
+        <v>103.117103</v>
       </c>
       <c r="AF68" t="n">
-        <v>99.91</v>
+        <v>108.395321</v>
       </c>
       <c r="AG68" t="n">
-        <v>105.57</v>
+        <v>117.755079</v>
       </c>
       <c r="AH68" t="n">
-        <v>99</v>
+        <v>99.380287</v>
       </c>
       <c r="AI68" t="n">
-        <v>105.36</v>
+        <v>104.132713</v>
       </c>
     </row>
     <row r="69">
@@ -7763,207 +7763,207 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2020年B</t>
+          <t>2020年C</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>100.46</v>
+        <v>102.8</v>
       </c>
       <c r="C71" t="n">
-        <v>121.14</v>
+        <v>114.8</v>
       </c>
       <c r="D71" t="n">
-        <v>109.62</v>
+        <v>104.4</v>
       </c>
       <c r="E71" t="n">
-        <v>99.73999999999999</v>
+        <v>102.1</v>
       </c>
       <c r="F71" t="n">
-        <v>101.84</v>
+        <v>98.8</v>
       </c>
       <c r="G71" t="n">
-        <v>95.92</v>
+        <v>94.3</v>
       </c>
       <c r="H71" t="n">
-        <v>97.28</v>
-      </c>
-      <c r="I71" t="n">
-        <v>93.65000000000001</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>99</v>
+        <v>115.9</v>
       </c>
       <c r="K71" t="n">
-        <v>90.01000000000001</v>
+        <v>97</v>
       </c>
       <c r="L71" t="n">
-        <v>105.83</v>
+        <v>106.7</v>
       </c>
       <c r="M71" t="n">
-        <v>86.7</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="N71" t="n">
-        <v>99.90000000000001</v>
+        <v>103</v>
       </c>
       <c r="O71" t="n">
-        <v>100.42</v>
+        <v>103.5</v>
       </c>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="n">
-        <v>96.5</v>
+        <v>101.3</v>
       </c>
       <c r="R71" t="n">
-        <v>96.76000000000001</v>
+        <v>104.4</v>
       </c>
       <c r="S71" t="n">
-        <v>112.56</v>
+        <v>108.9</v>
       </c>
       <c r="T71" t="n">
-        <v>189.29</v>
+        <v>159</v>
       </c>
       <c r="U71" t="n">
-        <v>104.81</v>
+        <v>108.5</v>
       </c>
       <c r="V71" t="n">
-        <v>150.31</v>
+        <v>132.4</v>
       </c>
       <c r="W71" t="n">
-        <v>85.86</v>
+        <v>83.3</v>
       </c>
       <c r="X71" t="n">
-        <v>101.22</v>
+        <v>102.3</v>
       </c>
       <c r="Y71" t="n">
-        <v>97.92</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="Z71" t="inlineStr"/>
-      <c r="AA71" t="n">
-        <v>106.76</v>
-      </c>
+      <c r="AA71" t="inlineStr"/>
       <c r="AB71" t="n">
-        <v>110.18</v>
+        <v>110.3</v>
       </c>
       <c r="AC71" t="n">
-        <v>89.45</v>
+        <v>94.3</v>
       </c>
       <c r="AD71" t="n">
-        <v>97.39</v>
+        <v>102.4</v>
       </c>
       <c r="AE71" t="n">
-        <v>96.53</v>
+        <v>98.2</v>
       </c>
       <c r="AF71" t="n">
-        <v>96.79000000000001</v>
+        <v>109.1</v>
       </c>
       <c r="AG71" t="n">
-        <v>102.83</v>
+        <v>100.3</v>
       </c>
       <c r="AH71" t="n">
-        <v>103.64</v>
+        <v>102.1</v>
       </c>
       <c r="AI71" t="n">
-        <v>109.43</v>
+        <v>103.9</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2020年C</t>
+          <t>2020年B</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>102.8</v>
+        <v>100.46</v>
       </c>
       <c r="C72" t="n">
-        <v>114.8</v>
+        <v>121.14</v>
       </c>
       <c r="D72" t="n">
-        <v>104.4</v>
+        <v>109.62</v>
       </c>
       <c r="E72" t="n">
-        <v>102.1</v>
+        <v>99.73999999999999</v>
       </c>
       <c r="F72" t="n">
-        <v>98.8</v>
+        <v>101.84</v>
       </c>
       <c r="G72" t="n">
-        <v>94.3</v>
+        <v>95.92</v>
       </c>
       <c r="H72" t="n">
-        <v>97</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>97.28</v>
+      </c>
+      <c r="I72" t="n">
+        <v>93.65000000000001</v>
+      </c>
       <c r="J72" t="n">
-        <v>115.9</v>
+        <v>99</v>
       </c>
       <c r="K72" t="n">
-        <v>97</v>
+        <v>90.01000000000001</v>
       </c>
       <c r="L72" t="n">
-        <v>106.7</v>
+        <v>105.83</v>
       </c>
       <c r="M72" t="n">
-        <v>94.90000000000001</v>
+        <v>86.7</v>
       </c>
       <c r="N72" t="n">
-        <v>103</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="O72" t="n">
-        <v>103.5</v>
+        <v>100.42</v>
       </c>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="n">
-        <v>101.3</v>
+        <v>96.5</v>
       </c>
       <c r="R72" t="n">
-        <v>104.4</v>
+        <v>96.76000000000001</v>
       </c>
       <c r="S72" t="n">
-        <v>108.9</v>
+        <v>112.56</v>
       </c>
       <c r="T72" t="n">
-        <v>159</v>
+        <v>189.29</v>
       </c>
       <c r="U72" t="n">
-        <v>108.5</v>
+        <v>104.81</v>
       </c>
       <c r="V72" t="n">
-        <v>132.4</v>
+        <v>150.31</v>
       </c>
       <c r="W72" t="n">
-        <v>83.3</v>
+        <v>85.86</v>
       </c>
       <c r="X72" t="n">
-        <v>102.3</v>
+        <v>101.22</v>
       </c>
       <c r="Y72" t="n">
-        <v>99.59999999999999</v>
+        <v>97.92</v>
       </c>
       <c r="Z72" t="inlineStr"/>
-      <c r="AA72" t="inlineStr"/>
+      <c r="AA72" t="n">
+        <v>106.76</v>
+      </c>
       <c r="AB72" t="n">
-        <v>110.3</v>
+        <v>110.18</v>
       </c>
       <c r="AC72" t="n">
-        <v>94.3</v>
+        <v>89.45</v>
       </c>
       <c r="AD72" t="n">
-        <v>102.4</v>
+        <v>97.39</v>
       </c>
       <c r="AE72" t="n">
-        <v>98.2</v>
+        <v>96.53</v>
       </c>
       <c r="AF72" t="n">
-        <v>109.1</v>
+        <v>96.79000000000001</v>
       </c>
       <c r="AG72" t="n">
-        <v>100.3</v>
+        <v>102.83</v>
       </c>
       <c r="AH72" t="n">
-        <v>102.1</v>
+        <v>103.64</v>
       </c>
       <c r="AI72" t="n">
-        <v>103.9</v>
+        <v>109.43</v>
       </c>
     </row>
     <row r="73">
@@ -8123,9 +8123,7 @@
       <c r="Q74" t="n">
         <v>104.4</v>
       </c>
-      <c r="R74" t="n">
-        <v>96</v>
-      </c>
+      <c r="R74" t="inlineStr"/>
       <c r="S74" t="n">
         <v>114.9</v>
       </c>
@@ -8179,207 +8177,207 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2021年B</t>
+          <t>2021年C</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>111.3</v>
+        <v>106.49775988</v>
       </c>
       <c r="C75" t="n">
-        <v>100.1</v>
+        <v>92.02578778</v>
       </c>
       <c r="D75" t="n">
-        <v>116</v>
+        <v>109.32555423</v>
       </c>
       <c r="E75" t="n">
-        <v>111.1</v>
+        <v>107.35181105</v>
       </c>
       <c r="F75" t="n">
-        <v>103.8</v>
+        <v>108.47780289</v>
       </c>
       <c r="G75" t="n">
-        <v>102.3</v>
+        <v>105.32690224</v>
       </c>
       <c r="H75" t="n">
-        <v>104.7</v>
-      </c>
-      <c r="I75" t="n">
-        <v>114.8</v>
-      </c>
+        <v>106.59449398</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>118.4</v>
+        <v>110.591598</v>
       </c>
       <c r="K75" t="n">
-        <v>99.5</v>
+        <v>104.83543805</v>
       </c>
       <c r="L75" t="n">
-        <v>103.5</v>
+        <v>106.31510958</v>
       </c>
       <c r="M75" t="n">
-        <v>113.6</v>
+        <v>108.0943448</v>
       </c>
       <c r="N75" t="n">
-        <v>103.7</v>
+        <v>100.88046473</v>
       </c>
       <c r="O75" t="n">
-        <v>124.1</v>
+        <v>115.23813391</v>
       </c>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="n">
-        <v>117.3</v>
+        <v>110.18686485</v>
       </c>
       <c r="R75" t="n">
-        <v>111.6</v>
+        <v>105.72132528</v>
       </c>
       <c r="S75" t="n">
-        <v>105.8</v>
+        <v>102.86387324</v>
       </c>
       <c r="T75" t="n">
-        <v>66.59999999999999</v>
+        <v>44.47691081</v>
       </c>
       <c r="U75" t="n">
-        <v>132.8</v>
+        <v>121.04239263</v>
       </c>
       <c r="V75" t="n">
-        <v>84.40000000000001</v>
+        <v>71.02976968</v>
       </c>
       <c r="W75" t="n">
-        <v>116.2</v>
+        <v>117.64943105</v>
       </c>
       <c r="X75" t="n">
-        <v>100.8</v>
+        <v>102.47008617</v>
       </c>
       <c r="Y75" t="n">
-        <v>106.4</v>
+        <v>108.96662808</v>
       </c>
       <c r="Z75" t="inlineStr"/>
-      <c r="AA75" t="n">
-        <v>99.09999999999999</v>
-      </c>
+      <c r="AA75" t="inlineStr"/>
       <c r="AB75" t="n">
-        <v>105.5</v>
+        <v>99.95929151999999</v>
       </c>
       <c r="AC75" t="n">
-        <v>105.4</v>
+        <v>103.1098719</v>
       </c>
       <c r="AD75" t="n">
-        <v>115.2</v>
+        <v>113.93204504</v>
       </c>
       <c r="AE75" t="n">
-        <v>103.5</v>
+        <v>100.90488607</v>
       </c>
       <c r="AF75" t="n">
-        <v>100</v>
+        <v>98.15744918</v>
       </c>
       <c r="AG75" t="n">
-        <v>86.3</v>
+        <v>91.44369702</v>
       </c>
       <c r="AH75" t="n">
-        <v>120</v>
+        <v>109.78198473</v>
       </c>
       <c r="AI75" t="n">
-        <v>114.6</v>
+        <v>109.28874641</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2021年C</t>
+          <t>2021年B</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>106.49775988</v>
+        <v>111.3</v>
       </c>
       <c r="C76" t="n">
-        <v>92.02578778</v>
+        <v>100.1</v>
       </c>
       <c r="D76" t="n">
-        <v>109.32555423</v>
+        <v>116</v>
       </c>
       <c r="E76" t="n">
-        <v>107.35181105</v>
+        <v>111.1</v>
       </c>
       <c r="F76" t="n">
-        <v>108.47780289</v>
+        <v>103.8</v>
       </c>
       <c r="G76" t="n">
-        <v>105.32690224</v>
+        <v>102.3</v>
       </c>
       <c r="H76" t="n">
-        <v>106.59449398</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>104.7</v>
+      </c>
+      <c r="I76" t="n">
+        <v>114.8</v>
+      </c>
       <c r="J76" t="n">
-        <v>110.591598</v>
+        <v>118.4</v>
       </c>
       <c r="K76" t="n">
-        <v>104.83543805</v>
+        <v>99.5</v>
       </c>
       <c r="L76" t="n">
-        <v>106.31510958</v>
+        <v>103.5</v>
       </c>
       <c r="M76" t="n">
-        <v>108.0943448</v>
+        <v>113.6</v>
       </c>
       <c r="N76" t="n">
-        <v>100.88046473</v>
+        <v>103.7</v>
       </c>
       <c r="O76" t="n">
-        <v>115.23813391</v>
+        <v>124.1</v>
       </c>
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="n">
-        <v>110.18686485</v>
+        <v>117.3</v>
       </c>
       <c r="R76" t="n">
-        <v>105.72132528</v>
+        <v>111.6</v>
       </c>
       <c r="S76" t="n">
-        <v>102.86387324</v>
+        <v>105.8</v>
       </c>
       <c r="T76" t="n">
-        <v>44.47691081</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="U76" t="n">
-        <v>121.04239263</v>
+        <v>132.8</v>
       </c>
       <c r="V76" t="n">
-        <v>71.02976968</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="W76" t="n">
-        <v>117.64943105</v>
+        <v>116.2</v>
       </c>
       <c r="X76" t="n">
-        <v>102.47008617</v>
+        <v>100.8</v>
       </c>
       <c r="Y76" t="n">
-        <v>108.96662808</v>
+        <v>106.4</v>
       </c>
       <c r="Z76" t="inlineStr"/>
-      <c r="AA76" t="inlineStr"/>
+      <c r="AA76" t="n">
+        <v>99.09999999999999</v>
+      </c>
       <c r="AB76" t="n">
-        <v>99.95929151999999</v>
+        <v>105.5</v>
       </c>
       <c r="AC76" t="n">
-        <v>103.1098719</v>
+        <v>105.4</v>
       </c>
       <c r="AD76" t="n">
-        <v>113.93204504</v>
+        <v>115.2</v>
       </c>
       <c r="AE76" t="n">
-        <v>100.90488607</v>
+        <v>103.5</v>
       </c>
       <c r="AF76" t="n">
-        <v>98.15744918</v>
+        <v>100</v>
       </c>
       <c r="AG76" t="n">
-        <v>91.44369702</v>
+        <v>86.3</v>
       </c>
       <c r="AH76" t="n">
-        <v>109.78198473</v>
+        <v>120</v>
       </c>
       <c r="AI76" t="n">
-        <v>109.28874641</v>
+        <v>114.6</v>
       </c>
     </row>
     <row r="77">
